--- a/database/industries/darou/dalber/product/monthly.xlsx
+++ b/database/industries/darou/dalber/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD230E9-F630-48BE-B1F1-6C41442D4AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F8D8DD-1342-482C-A09E-449F547F0A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مایعات</t>
@@ -1427,154 +1427,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2917802</v>
+        <v>2943339</v>
       </c>
       <c r="F11" s="11">
-        <v>2943339</v>
+        <v>2789221</v>
       </c>
       <c r="G11" s="11">
-        <v>2789221</v>
+        <v>2724378</v>
       </c>
       <c r="H11" s="11">
-        <v>2724378</v>
+        <v>3205252</v>
       </c>
       <c r="I11" s="11">
-        <v>3205252</v>
+        <v>2915041</v>
       </c>
       <c r="J11" s="11">
-        <v>2915041</v>
+        <v>1446372</v>
       </c>
       <c r="K11" s="11">
-        <v>1446372</v>
+        <v>2341037</v>
       </c>
       <c r="L11" s="11">
-        <v>2341037</v>
+        <v>2774302</v>
       </c>
       <c r="M11" s="11">
-        <v>2774302</v>
+        <v>4543168</v>
       </c>
       <c r="N11" s="11">
-        <v>4543168</v>
+        <v>2729496</v>
       </c>
       <c r="O11" s="11">
-        <v>2729496</v>
+        <v>3573931</v>
       </c>
       <c r="P11" s="11">
-        <v>3573931</v>
+        <v>4562651</v>
       </c>
       <c r="Q11" s="11">
-        <v>4562651</v>
+        <v>4097737</v>
       </c>
       <c r="R11" s="11">
-        <v>4097737</v>
+        <v>4078178</v>
       </c>
       <c r="S11" s="11">
-        <v>4078178</v>
+        <v>3941216</v>
       </c>
       <c r="T11" s="11">
-        <v>3941216</v>
+        <v>3910261</v>
       </c>
       <c r="U11" s="11">
-        <v>3910261</v>
+        <v>2413337</v>
       </c>
       <c r="V11" s="11">
-        <v>2413337</v>
+        <v>1716131</v>
       </c>
       <c r="W11" s="11">
-        <v>1716131</v>
+        <v>2028379</v>
       </c>
       <c r="X11" s="11">
-        <v>2028379</v>
+        <v>1821958</v>
       </c>
       <c r="Y11" s="11">
-        <v>1821958</v>
+        <v>2724282</v>
       </c>
       <c r="Z11" s="11">
-        <v>2724282</v>
+        <v>3706594</v>
       </c>
       <c r="AA11" s="11">
-        <v>3706594</v>
+        <v>1576227</v>
       </c>
       <c r="AB11" s="11">
-        <v>1576227</v>
+        <v>2504023</v>
       </c>
       <c r="AC11" s="11">
-        <v>2504023</v>
+        <v>2186186</v>
       </c>
       <c r="AD11" s="11">
-        <v>2186186</v>
+        <v>2374428</v>
       </c>
       <c r="AE11" s="11">
-        <v>2374428</v>
+        <v>2572055</v>
       </c>
       <c r="AF11" s="11">
-        <v>2572055</v>
+        <v>1551501</v>
       </c>
       <c r="AG11" s="11">
-        <v>1551501</v>
+        <v>1001884</v>
       </c>
       <c r="AH11" s="11">
-        <v>1001884</v>
+        <v>965918</v>
       </c>
       <c r="AI11" s="11">
-        <v>965918</v>
+        <v>1961286</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1961286</v>
+        <v>2056064</v>
       </c>
       <c r="AK11" s="11">
-        <v>2056064</v>
+        <v>1613898</v>
       </c>
       <c r="AL11" s="11">
-        <v>1613898</v>
+        <v>951312</v>
       </c>
       <c r="AM11" s="11">
-        <v>951312</v>
+        <v>1674332</v>
       </c>
       <c r="AN11" s="11">
-        <v>1674332</v>
+        <v>943633</v>
       </c>
       <c r="AO11" s="11">
-        <v>943633</v>
+        <v>1143680</v>
       </c>
       <c r="AP11" s="11">
-        <v>1143680</v>
+        <v>270002</v>
       </c>
       <c r="AQ11" s="11">
-        <v>270002</v>
+        <v>1686323</v>
       </c>
       <c r="AR11" s="11">
-        <v>1686323</v>
+        <v>1338892</v>
       </c>
       <c r="AS11" s="11">
-        <v>1338892</v>
+        <v>1481458</v>
       </c>
       <c r="AT11" s="11">
-        <v>1481458</v>
+        <v>1187343</v>
       </c>
       <c r="AU11" s="11">
-        <v>1187343</v>
+        <v>2144224</v>
       </c>
       <c r="AV11" s="11">
-        <v>2144224</v>
+        <v>3477751</v>
       </c>
       <c r="AW11" s="11">
-        <v>3477751</v>
+        <v>2899351</v>
       </c>
       <c r="AX11" s="11">
-        <v>2899351</v>
+        <v>1980421</v>
       </c>
       <c r="AY11" s="11">
-        <v>1980421</v>
+        <v>3024731</v>
       </c>
       <c r="AZ11" s="11">
-        <v>3024731</v>
+        <v>3211847</v>
       </c>
       <c r="BA11" s="11">
-        <v>3211847</v>
+        <v>3178619</v>
       </c>
       <c r="BB11" s="11">
-        <v>3178619</v>
+        <v>3599971</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1586,154 +1586,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2117868</v>
+        <v>2124640</v>
       </c>
       <c r="F12" s="13">
-        <v>2124640</v>
+        <v>1790345</v>
       </c>
       <c r="G12" s="13">
-        <v>1790345</v>
+        <v>2168829</v>
       </c>
       <c r="H12" s="13">
-        <v>2168829</v>
+        <v>1984610</v>
       </c>
       <c r="I12" s="13">
-        <v>1984610</v>
+        <v>2050224</v>
       </c>
       <c r="J12" s="13">
-        <v>2050224</v>
+        <v>974126</v>
       </c>
       <c r="K12" s="13">
-        <v>974126</v>
+        <v>1983284</v>
       </c>
       <c r="L12" s="13">
-        <v>1983284</v>
+        <v>1867042</v>
       </c>
       <c r="M12" s="13">
-        <v>1867042</v>
+        <v>2600657</v>
       </c>
       <c r="N12" s="13">
-        <v>2600657</v>
+        <v>1744412</v>
       </c>
       <c r="O12" s="13">
-        <v>1744412</v>
+        <v>1971324</v>
       </c>
       <c r="P12" s="13">
-        <v>1971324</v>
+        <v>2016822</v>
       </c>
       <c r="Q12" s="13">
-        <v>2016822</v>
+        <v>2021412</v>
       </c>
       <c r="R12" s="13">
-        <v>2021412</v>
+        <v>1457139</v>
       </c>
       <c r="S12" s="13">
-        <v>1457139</v>
+        <v>1788825</v>
       </c>
       <c r="T12" s="13">
-        <v>1788825</v>
+        <v>2455481</v>
       </c>
       <c r="U12" s="13">
-        <v>2455481</v>
+        <v>1516603</v>
       </c>
       <c r="V12" s="13">
-        <v>1516603</v>
+        <v>842260</v>
       </c>
       <c r="W12" s="13">
-        <v>842260</v>
+        <v>2245117</v>
       </c>
       <c r="X12" s="13">
-        <v>2245117</v>
+        <v>2199628</v>
       </c>
       <c r="Y12" s="13">
-        <v>2199628</v>
+        <v>2705727</v>
       </c>
       <c r="Z12" s="13">
-        <v>2705727</v>
+        <v>2318675</v>
       </c>
       <c r="AA12" s="13">
-        <v>2318675</v>
+        <v>2091685</v>
       </c>
       <c r="AB12" s="13">
-        <v>2091685</v>
+        <v>2664834</v>
       </c>
       <c r="AC12" s="13">
-        <v>2664834</v>
+        <v>2678537</v>
       </c>
       <c r="AD12" s="13">
-        <v>2678537</v>
+        <v>2518350</v>
       </c>
       <c r="AE12" s="13">
-        <v>2518350</v>
+        <v>2676027</v>
       </c>
       <c r="AF12" s="13">
-        <v>2676027</v>
+        <v>2476107</v>
       </c>
       <c r="AG12" s="13">
-        <v>2476107</v>
+        <v>1258718</v>
       </c>
       <c r="AH12" s="13">
-        <v>1258718</v>
+        <v>876955</v>
       </c>
       <c r="AI12" s="13">
-        <v>876955</v>
+        <v>1585868</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1585868</v>
+        <v>2116939</v>
       </c>
       <c r="AK12" s="13">
-        <v>2116939</v>
+        <v>2212439</v>
       </c>
       <c r="AL12" s="13">
-        <v>2212439</v>
+        <v>1275706</v>
       </c>
       <c r="AM12" s="13">
-        <v>1275706</v>
+        <v>1764142</v>
       </c>
       <c r="AN12" s="13">
-        <v>1764142</v>
+        <v>1700470</v>
       </c>
       <c r="AO12" s="13">
-        <v>1700470</v>
+        <v>1489602</v>
       </c>
       <c r="AP12" s="13">
-        <v>1489602</v>
+        <v>1740487</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1740487</v>
+        <v>1512768</v>
       </c>
       <c r="AR12" s="13">
-        <v>1512768</v>
+        <v>1356131</v>
       </c>
       <c r="AS12" s="13">
-        <v>1356131</v>
+        <v>1298478</v>
       </c>
       <c r="AT12" s="13">
-        <v>1298478</v>
+        <v>793152</v>
       </c>
       <c r="AU12" s="13">
-        <v>793152</v>
+        <v>1428660</v>
       </c>
       <c r="AV12" s="13">
-        <v>1428660</v>
+        <v>1705308</v>
       </c>
       <c r="AW12" s="13">
-        <v>1705308</v>
+        <v>1543385</v>
       </c>
       <c r="AX12" s="13">
-        <v>1543385</v>
+        <v>1323944</v>
       </c>
       <c r="AY12" s="13">
-        <v>1323944</v>
+        <v>2501790</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2501790</v>
+        <v>2336111</v>
       </c>
       <c r="BA12" s="13">
-        <v>2336111</v>
+        <v>2245369</v>
       </c>
       <c r="BB12" s="13">
-        <v>2245369</v>
+        <v>2074124</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1745,154 +1745,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>61264</v>
+        <v>58136</v>
       </c>
       <c r="F13" s="11">
-        <v>58136</v>
+        <v>39000</v>
       </c>
       <c r="G13" s="11">
-        <v>39000</v>
+        <v>58831</v>
       </c>
       <c r="H13" s="11">
-        <v>58831</v>
+        <v>51923</v>
       </c>
       <c r="I13" s="11">
-        <v>51923</v>
+        <v>59490</v>
       </c>
       <c r="J13" s="11">
-        <v>59490</v>
+        <v>25187</v>
       </c>
       <c r="K13" s="11">
-        <v>25187</v>
+        <v>50470</v>
       </c>
       <c r="L13" s="11">
-        <v>50470</v>
+        <v>50782</v>
       </c>
       <c r="M13" s="11">
-        <v>50782</v>
+        <v>96176</v>
       </c>
       <c r="N13" s="11">
-        <v>96176</v>
+        <v>61763</v>
       </c>
       <c r="O13" s="11">
-        <v>61763</v>
+        <v>52575</v>
       </c>
       <c r="P13" s="11">
-        <v>52575</v>
+        <v>55336</v>
       </c>
       <c r="Q13" s="11">
-        <v>55336</v>
+        <v>65466</v>
       </c>
       <c r="R13" s="11">
-        <v>65466</v>
+        <v>49923</v>
       </c>
       <c r="S13" s="11">
-        <v>49923</v>
+        <v>62650</v>
       </c>
       <c r="T13" s="11">
-        <v>62650</v>
+        <v>51884</v>
       </c>
       <c r="U13" s="11">
-        <v>51884</v>
+        <v>37492</v>
       </c>
       <c r="V13" s="11">
-        <v>37492</v>
+        <v>34752</v>
       </c>
       <c r="W13" s="11">
-        <v>34752</v>
+        <v>57610</v>
       </c>
       <c r="X13" s="11">
-        <v>57610</v>
+        <v>49077</v>
       </c>
       <c r="Y13" s="11">
-        <v>49077</v>
+        <v>56668</v>
       </c>
       <c r="Z13" s="11">
-        <v>56668</v>
+        <v>71838</v>
       </c>
       <c r="AA13" s="11">
-        <v>71838</v>
+        <v>43512</v>
       </c>
       <c r="AB13" s="11">
-        <v>43512</v>
+        <v>67053</v>
       </c>
       <c r="AC13" s="11">
-        <v>67053</v>
+        <v>57876</v>
       </c>
       <c r="AD13" s="11">
-        <v>57876</v>
+        <v>85960</v>
       </c>
       <c r="AE13" s="11">
-        <v>85960</v>
+        <v>94113</v>
       </c>
       <c r="AF13" s="11">
-        <v>94113</v>
+        <v>81200</v>
       </c>
       <c r="AG13" s="11">
-        <v>81200</v>
+        <v>49207</v>
       </c>
       <c r="AH13" s="11">
-        <v>49207</v>
+        <v>57033</v>
       </c>
       <c r="AI13" s="11">
-        <v>57033</v>
+        <v>70638</v>
       </c>
       <c r="AJ13" s="11">
-        <v>70638</v>
+        <v>74580</v>
       </c>
       <c r="AK13" s="11">
-        <v>74580</v>
+        <v>72369</v>
       </c>
       <c r="AL13" s="11">
-        <v>72369</v>
+        <v>61491</v>
       </c>
       <c r="AM13" s="11">
-        <v>61491</v>
+        <v>82913</v>
       </c>
       <c r="AN13" s="11">
-        <v>82913</v>
+        <v>90823</v>
       </c>
       <c r="AO13" s="11">
-        <v>90823</v>
+        <v>62981</v>
       </c>
       <c r="AP13" s="11">
-        <v>62981</v>
+        <v>81924</v>
       </c>
       <c r="AQ13" s="11">
-        <v>81924</v>
+        <v>81821</v>
       </c>
       <c r="AR13" s="11">
-        <v>81821</v>
+        <v>75179</v>
       </c>
       <c r="AS13" s="11">
-        <v>75179</v>
+        <v>64991</v>
       </c>
       <c r="AT13" s="11">
-        <v>64991</v>
+        <v>18572</v>
       </c>
       <c r="AU13" s="11">
-        <v>18572</v>
+        <v>78526</v>
       </c>
       <c r="AV13" s="11">
-        <v>78526</v>
+        <v>84370</v>
       </c>
       <c r="AW13" s="11">
-        <v>84370</v>
+        <v>89594</v>
       </c>
       <c r="AX13" s="11">
-        <v>89594</v>
+        <v>87119</v>
       </c>
       <c r="AY13" s="11">
-        <v>87119</v>
+        <v>95513</v>
       </c>
       <c r="AZ13" s="11">
-        <v>95513</v>
+        <v>90553</v>
       </c>
       <c r="BA13" s="11">
-        <v>90553</v>
+        <v>98611</v>
       </c>
       <c r="BB13" s="11">
-        <v>98611</v>
+        <v>88745</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2020,36 +2020,36 @@
       <c r="X15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>61</v>
+      <c r="Y15" s="11">
+        <v>913045</v>
       </c>
       <c r="Z15" s="11">
-        <v>913045</v>
+        <v>917396</v>
       </c>
       <c r="AA15" s="11">
-        <v>917396</v>
+        <v>968659</v>
       </c>
       <c r="AB15" s="11">
-        <v>968659</v>
+        <v>1485844</v>
       </c>
       <c r="AC15" s="11">
-        <v>1485844</v>
+        <v>1416086</v>
       </c>
       <c r="AD15" s="11">
-        <v>1416086</v>
+        <v>1427246</v>
       </c>
       <c r="AE15" s="11">
-        <v>1427246</v>
+        <v>872498</v>
       </c>
       <c r="AF15" s="11">
-        <v>872498</v>
+        <v>1347572</v>
       </c>
       <c r="AG15" s="11">
-        <v>1347572</v>
-      </c>
-      <c r="AH15" s="11">
         <v>961917</v>
       </c>
+      <c r="AH15" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AI15" s="11" t="s">
         <v>61</v>
       </c>
@@ -2080,35 +2080,35 @@
       <c r="AR15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AS15" s="11" t="s">
-        <v>61</v>
+      <c r="AS15" s="11">
+        <v>936323</v>
       </c>
       <c r="AT15" s="11">
-        <v>936323</v>
+        <v>595818</v>
       </c>
       <c r="AU15" s="11">
-        <v>595818</v>
+        <v>450773</v>
       </c>
       <c r="AV15" s="11">
-        <v>450773</v>
+        <v>17000</v>
       </c>
       <c r="AW15" s="11">
-        <v>17000</v>
+        <v>526109</v>
       </c>
       <c r="AX15" s="11">
-        <v>526109</v>
+        <v>469854</v>
       </c>
       <c r="AY15" s="11">
-        <v>469854</v>
+        <v>425672</v>
       </c>
       <c r="AZ15" s="11">
-        <v>425672</v>
+        <v>308107</v>
       </c>
       <c r="BA15" s="11">
-        <v>308107</v>
+        <v>1066456</v>
       </c>
       <c r="BB15" s="11">
-        <v>1066456</v>
+        <v>788505</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2179,36 +2179,36 @@
       <c r="X16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>61</v>
+      <c r="Y16" s="13">
+        <v>3722</v>
       </c>
       <c r="Z16" s="13">
-        <v>3722</v>
+        <v>102194</v>
       </c>
       <c r="AA16" s="13">
-        <v>102194</v>
+        <v>4885</v>
       </c>
       <c r="AB16" s="13">
-        <v>4885</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="13">
-        <v>0</v>
+        <v>5978</v>
       </c>
       <c r="AD16" s="13">
-        <v>5978</v>
+        <v>1870</v>
       </c>
       <c r="AE16" s="13">
-        <v>1870</v>
+        <v>40170</v>
       </c>
       <c r="AF16" s="13">
-        <v>40170</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="13">
         <v>43259</v>
       </c>
+      <c r="AH16" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AI16" s="13" t="s">
         <v>61</v>
       </c>
@@ -2239,35 +2239,35 @@
       <c r="AR16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AS16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT16" s="13">
+      <c r="AS16" s="13">
         <v>136604</v>
       </c>
-      <c r="AU16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="13" t="s">
-        <v>61</v>
+      <c r="AT16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>450</v>
       </c>
       <c r="AX16" s="13">
-        <v>450</v>
-      </c>
-      <c r="AY16" s="13">
         <v>4484</v>
       </c>
+      <c r="AY16" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AZ16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BA16" s="13" t="s">
-        <v>61</v>
+      <c r="BA16" s="13">
+        <v>0</v>
       </c>
       <c r="BB16" s="13">
-        <v>0</v>
+        <v>35116</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2338,8 +2338,8 @@
       <c r="X17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>61</v>
+      <c r="Y17" s="11">
+        <v>0</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -2348,26 +2348,26 @@
         <v>0</v>
       </c>
       <c r="AB17" s="11">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="AC17" s="11">
-        <v>1382</v>
+        <v>497</v>
       </c>
       <c r="AD17" s="11">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AE17" s="11">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AF17" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
         <v>2425</v>
       </c>
+      <c r="AH17" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AI17" s="11" t="s">
         <v>61</v>
       </c>
@@ -2398,35 +2398,35 @@
       <c r="AR17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AS17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV17" s="11">
+      <c r="AS17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU17" s="11">
         <v>768</v>
       </c>
+      <c r="AV17" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AW17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AX17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY17" s="11">
-        <v>0</v>
+      <c r="AX17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AZ17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BA17" s="11" t="s">
-        <v>61</v>
+      <c r="BA17" s="11">
+        <v>140</v>
       </c>
       <c r="BB17" s="11">
-        <v>140</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2524,41 +2524,41 @@
       <c r="AG18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH18" s="13" t="s">
-        <v>61</v>
+      <c r="AH18" s="13">
+        <v>0</v>
       </c>
       <c r="AI18" s="13">
-        <v>0</v>
+        <v>19960</v>
       </c>
       <c r="AJ18" s="13">
-        <v>19960</v>
+        <v>246158</v>
       </c>
       <c r="AK18" s="13">
-        <v>246158</v>
+        <v>757567</v>
       </c>
       <c r="AL18" s="13">
-        <v>757567</v>
+        <v>527953</v>
       </c>
       <c r="AM18" s="13">
-        <v>527953</v>
+        <v>694397</v>
       </c>
       <c r="AN18" s="13">
-        <v>694397</v>
+        <v>941248</v>
       </c>
       <c r="AO18" s="13">
-        <v>941248</v>
+        <v>325115</v>
       </c>
       <c r="AP18" s="13">
-        <v>325115</v>
+        <v>1215189</v>
       </c>
       <c r="AQ18" s="13">
-        <v>1215189</v>
+        <v>381496</v>
       </c>
       <c r="AR18" s="13">
-        <v>381496</v>
-      </c>
-      <c r="AS18" s="13">
         <v>404467</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT18" s="13" t="s">
         <v>61</v>
@@ -2683,41 +2683,41 @@
       <c r="AG19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>61</v>
+      <c r="AH19" s="11">
+        <v>0</v>
       </c>
       <c r="AI19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="11">
         <v>417</v>
       </c>
-      <c r="AK19" s="11" t="s">
-        <v>61</v>
+      <c r="AJ19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>3497</v>
       </c>
       <c r="AL19" s="11">
-        <v>3497</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="11">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="11">
         <v>275</v>
       </c>
-      <c r="AO19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP19" s="11">
+      <c r="AN19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO19" s="11">
         <v>134</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>61</v>
+      <c r="AP19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>75</v>
       </c>
       <c r="AR19" s="11">
-        <v>75</v>
-      </c>
-      <c r="AS19" s="11">
         <v>309</v>
+      </c>
+      <c r="AS19" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AT19" s="11" t="s">
         <v>61</v>
@@ -2842,41 +2842,41 @@
       <c r="AG20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH20" s="13" t="s">
-        <v>61</v>
+      <c r="AH20" s="13">
+        <v>83707</v>
       </c>
       <c r="AI20" s="13">
-        <v>83707</v>
+        <v>35883</v>
       </c>
       <c r="AJ20" s="13">
-        <v>35883</v>
+        <v>254878</v>
       </c>
       <c r="AK20" s="13">
-        <v>254878</v>
+        <v>374468</v>
       </c>
       <c r="AL20" s="13">
-        <v>374468</v>
+        <v>118426</v>
       </c>
       <c r="AM20" s="13">
-        <v>118426</v>
+        <v>209881</v>
       </c>
       <c r="AN20" s="13">
-        <v>209881</v>
+        <v>137878</v>
       </c>
       <c r="AO20" s="13">
-        <v>137878</v>
+        <v>296722</v>
       </c>
       <c r="AP20" s="13">
-        <v>296722</v>
+        <v>31766</v>
       </c>
       <c r="AQ20" s="13">
-        <v>31766</v>
+        <v>98914</v>
       </c>
       <c r="AR20" s="13">
-        <v>98914</v>
-      </c>
-      <c r="AS20" s="13">
         <v>100931</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT20" s="13" t="s">
         <v>61</v>
@@ -2972,8 +2972,8 @@
       <c r="X21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Y21" s="15" t="s">
-        <v>61</v>
+      <c r="Y21" s="15">
+        <v>0</v>
       </c>
       <c r="Z21" s="15">
         <v>0</v>
@@ -3070,154 +3070,154 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17">
-        <v>5096934</v>
+        <v>5126115</v>
       </c>
       <c r="F22" s="17">
-        <v>5126115</v>
+        <v>4618566</v>
       </c>
       <c r="G22" s="17">
-        <v>4618566</v>
+        <v>4952038</v>
       </c>
       <c r="H22" s="17">
-        <v>4952038</v>
+        <v>5241785</v>
       </c>
       <c r="I22" s="17">
-        <v>5241785</v>
+        <v>5024755</v>
       </c>
       <c r="J22" s="17">
-        <v>5024755</v>
+        <v>2445685</v>
       </c>
       <c r="K22" s="17">
-        <v>2445685</v>
+        <v>4374791</v>
       </c>
       <c r="L22" s="17">
-        <v>4374791</v>
+        <v>4692126</v>
       </c>
       <c r="M22" s="17">
-        <v>4692126</v>
+        <v>7240001</v>
       </c>
       <c r="N22" s="17">
-        <v>7240001</v>
+        <v>4535671</v>
       </c>
       <c r="O22" s="17">
-        <v>4535671</v>
+        <v>5597830</v>
       </c>
       <c r="P22" s="17">
-        <v>5597830</v>
+        <v>6634809</v>
       </c>
       <c r="Q22" s="17">
-        <v>6634809</v>
+        <v>6184615</v>
       </c>
       <c r="R22" s="17">
-        <v>6184615</v>
+        <v>5585240</v>
       </c>
       <c r="S22" s="17">
-        <v>5585240</v>
+        <v>5792691</v>
       </c>
       <c r="T22" s="17">
-        <v>5792691</v>
+        <v>6417626</v>
       </c>
       <c r="U22" s="17">
-        <v>6417626</v>
+        <v>3967432</v>
       </c>
       <c r="V22" s="17">
-        <v>3967432</v>
+        <v>2593143</v>
       </c>
       <c r="W22" s="17">
-        <v>2593143</v>
+        <v>4331106</v>
       </c>
       <c r="X22" s="17">
-        <v>4331106</v>
+        <v>4070663</v>
       </c>
       <c r="Y22" s="17">
-        <v>4070663</v>
+        <v>6403444</v>
       </c>
       <c r="Z22" s="17">
-        <v>6403444</v>
+        <v>7116697</v>
       </c>
       <c r="AA22" s="17">
-        <v>7116697</v>
+        <v>4684968</v>
       </c>
       <c r="AB22" s="17">
-        <v>4684968</v>
+        <v>6723136</v>
       </c>
       <c r="AC22" s="17">
-        <v>6723136</v>
+        <v>6345160</v>
       </c>
       <c r="AD22" s="17">
-        <v>6345160</v>
+        <v>6408347</v>
       </c>
       <c r="AE22" s="17">
-        <v>6408347</v>
+        <v>6255363</v>
       </c>
       <c r="AF22" s="17">
-        <v>6255363</v>
+        <v>5456380</v>
       </c>
       <c r="AG22" s="17">
-        <v>5456380</v>
+        <v>3317410</v>
       </c>
       <c r="AH22" s="17">
-        <v>3317410</v>
+        <v>1983613</v>
       </c>
       <c r="AI22" s="17">
-        <v>1983613</v>
+        <v>3674052</v>
       </c>
       <c r="AJ22" s="17">
-        <v>3674052</v>
+        <v>4748619</v>
       </c>
       <c r="AK22" s="17">
-        <v>4748619</v>
+        <v>5034238</v>
       </c>
       <c r="AL22" s="17">
-        <v>5034238</v>
+        <v>2934889</v>
       </c>
       <c r="AM22" s="17">
-        <v>2934889</v>
+        <v>4425940</v>
       </c>
       <c r="AN22" s="17">
-        <v>4425940</v>
+        <v>3814052</v>
       </c>
       <c r="AO22" s="17">
-        <v>3814052</v>
+        <v>3318234</v>
       </c>
       <c r="AP22" s="17">
-        <v>3318234</v>
+        <v>3339368</v>
       </c>
       <c r="AQ22" s="17">
-        <v>3339368</v>
+        <v>3761397</v>
       </c>
       <c r="AR22" s="17">
-        <v>3761397</v>
+        <v>3275909</v>
       </c>
       <c r="AS22" s="17">
-        <v>3275909</v>
+        <v>3917854</v>
       </c>
       <c r="AT22" s="17">
-        <v>3917854</v>
+        <v>2594885</v>
       </c>
       <c r="AU22" s="17">
-        <v>2594885</v>
+        <v>4102951</v>
       </c>
       <c r="AV22" s="17">
-        <v>4102951</v>
+        <v>5284429</v>
       </c>
       <c r="AW22" s="17">
-        <v>5284429</v>
+        <v>5058889</v>
       </c>
       <c r="AX22" s="17">
-        <v>5058889</v>
+        <v>3865822</v>
       </c>
       <c r="AY22" s="17">
-        <v>3865822</v>
+        <v>6047706</v>
       </c>
       <c r="AZ22" s="17">
-        <v>6047706</v>
+        <v>5946618</v>
       </c>
       <c r="BA22" s="17">
-        <v>5946618</v>
+        <v>6589195</v>
       </c>
       <c r="BB22" s="17">
-        <v>6589195</v>
+        <v>6587912</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3663,154 +3663,154 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>2207251</v>
+        <v>3070972</v>
       </c>
       <c r="F29" s="11">
-        <v>3070972</v>
+        <v>2611979</v>
       </c>
       <c r="G29" s="11">
-        <v>2611979</v>
+        <v>3037100</v>
       </c>
       <c r="H29" s="11">
-        <v>3037100</v>
+        <v>3187732</v>
       </c>
       <c r="I29" s="11">
-        <v>3187732</v>
+        <v>3086613</v>
       </c>
       <c r="J29" s="11">
-        <v>3086613</v>
+        <v>1353303</v>
       </c>
       <c r="K29" s="11">
-        <v>1353303</v>
+        <v>3081912</v>
       </c>
       <c r="L29" s="11">
-        <v>3081912</v>
+        <v>2802694</v>
       </c>
       <c r="M29" s="11">
-        <v>2802694</v>
+        <v>3136316</v>
       </c>
       <c r="N29" s="11">
-        <v>3136316</v>
+        <v>2531560</v>
       </c>
       <c r="O29" s="11">
-        <v>2531560</v>
+        <v>3662727</v>
       </c>
       <c r="P29" s="11">
-        <v>3662727</v>
+        <v>4051139</v>
       </c>
       <c r="Q29" s="11">
-        <v>4051139</v>
+        <v>4666877</v>
       </c>
       <c r="R29" s="11">
-        <v>4666877</v>
+        <v>5146671</v>
       </c>
       <c r="S29" s="11">
-        <v>5146671</v>
+        <v>3263135</v>
       </c>
       <c r="T29" s="11">
-        <v>3263135</v>
+        <v>3123669</v>
       </c>
       <c r="U29" s="11">
-        <v>3123669</v>
+        <v>2602014</v>
       </c>
       <c r="V29" s="11">
-        <v>2602014</v>
+        <v>2155609</v>
       </c>
       <c r="W29" s="11">
-        <v>2155609</v>
+        <v>1737308</v>
       </c>
       <c r="X29" s="11">
-        <v>1737308</v>
+        <v>1606975</v>
       </c>
       <c r="Y29" s="11">
-        <v>1606975</v>
+        <v>3464989</v>
       </c>
       <c r="Z29" s="11">
-        <v>3464989</v>
+        <v>3398922</v>
       </c>
       <c r="AA29" s="11">
-        <v>3398922</v>
+        <v>1974732</v>
       </c>
       <c r="AB29" s="11">
-        <v>1974732</v>
+        <v>2425308</v>
       </c>
       <c r="AC29" s="11">
-        <v>2425308</v>
+        <v>2413830</v>
       </c>
       <c r="AD29" s="11">
-        <v>2413830</v>
+        <v>2489502</v>
       </c>
       <c r="AE29" s="11">
-        <v>2489502</v>
+        <v>1511842</v>
       </c>
       <c r="AF29" s="11">
-        <v>1511842</v>
+        <v>668932</v>
       </c>
       <c r="AG29" s="11">
-        <v>668932</v>
+        <v>1467998</v>
       </c>
       <c r="AH29" s="11">
-        <v>1467998</v>
+        <v>411147</v>
       </c>
       <c r="AI29" s="11">
-        <v>411147</v>
+        <v>1764615</v>
       </c>
       <c r="AJ29" s="11">
-        <v>1764615</v>
+        <v>1705379</v>
       </c>
       <c r="AK29" s="11">
-        <v>1705379</v>
+        <v>963467</v>
       </c>
       <c r="AL29" s="11">
-        <v>963467</v>
+        <v>1385371</v>
       </c>
       <c r="AM29" s="11">
-        <v>1385371</v>
+        <v>1890585</v>
       </c>
       <c r="AN29" s="11">
-        <v>1890585</v>
+        <v>1665016</v>
       </c>
       <c r="AO29" s="11">
-        <v>1665016</v>
+        <v>2046632</v>
       </c>
       <c r="AP29" s="11">
-        <v>2046632</v>
+        <v>1420931</v>
       </c>
       <c r="AQ29" s="11">
-        <v>1420931</v>
+        <v>719309</v>
       </c>
       <c r="AR29" s="11">
-        <v>719309</v>
+        <v>1725938</v>
       </c>
       <c r="AS29" s="11">
-        <v>1725938</v>
+        <v>1851804</v>
       </c>
       <c r="AT29" s="11">
-        <v>1851804</v>
+        <v>1405616</v>
       </c>
       <c r="AU29" s="11">
-        <v>1405616</v>
+        <v>2386810</v>
       </c>
       <c r="AV29" s="11">
-        <v>2386810</v>
+        <v>3523864</v>
       </c>
       <c r="AW29" s="11">
-        <v>3523864</v>
+        <v>3274656</v>
       </c>
       <c r="AX29" s="11">
-        <v>3274656</v>
+        <v>2249364</v>
       </c>
       <c r="AY29" s="11">
-        <v>2249364</v>
+        <v>3013748</v>
       </c>
       <c r="AZ29" s="11">
-        <v>3013748</v>
+        <v>3209545</v>
       </c>
       <c r="BA29" s="11">
-        <v>3209545</v>
+        <v>3259521</v>
       </c>
       <c r="BB29" s="11">
-        <v>3259521</v>
+        <v>3225944</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3822,154 +3822,154 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>1611600</v>
+        <v>1949983</v>
       </c>
       <c r="F30" s="13">
-        <v>1949983</v>
+        <v>1636045</v>
       </c>
       <c r="G30" s="13">
-        <v>1636045</v>
+        <v>1911346</v>
       </c>
       <c r="H30" s="13">
-        <v>1911346</v>
+        <v>2041487</v>
       </c>
       <c r="I30" s="13">
-        <v>2041487</v>
+        <v>1687369</v>
       </c>
       <c r="J30" s="13">
-        <v>1687369</v>
+        <v>1055521</v>
       </c>
       <c r="K30" s="13">
-        <v>1055521</v>
+        <v>2073157</v>
       </c>
       <c r="L30" s="13">
-        <v>2073157</v>
+        <v>2329482</v>
       </c>
       <c r="M30" s="13">
-        <v>2329482</v>
+        <v>1801459</v>
       </c>
       <c r="N30" s="13">
-        <v>1801459</v>
+        <v>1902377</v>
       </c>
       <c r="O30" s="13">
-        <v>1902377</v>
+        <v>2848948</v>
       </c>
       <c r="P30" s="13">
-        <v>2848948</v>
+        <v>1076125</v>
       </c>
       <c r="Q30" s="13">
-        <v>1076125</v>
+        <v>1498942</v>
       </c>
       <c r="R30" s="13">
-        <v>1498942</v>
+        <v>2309784</v>
       </c>
       <c r="S30" s="13">
-        <v>2309784</v>
+        <v>1926220</v>
       </c>
       <c r="T30" s="13">
-        <v>1926220</v>
+        <v>1816054</v>
       </c>
       <c r="U30" s="13">
-        <v>1816054</v>
+        <v>1470369</v>
       </c>
       <c r="V30" s="13">
-        <v>1470369</v>
+        <v>564712</v>
       </c>
       <c r="W30" s="13">
-        <v>564712</v>
+        <v>2176055</v>
       </c>
       <c r="X30" s="13">
-        <v>2176055</v>
+        <v>2921620</v>
       </c>
       <c r="Y30" s="13">
-        <v>2921620</v>
+        <v>2590543</v>
       </c>
       <c r="Z30" s="13">
-        <v>2590543</v>
+        <v>2115818</v>
       </c>
       <c r="AA30" s="13">
-        <v>2115818</v>
+        <v>2120976</v>
       </c>
       <c r="AB30" s="13">
-        <v>2120976</v>
+        <v>2574908</v>
       </c>
       <c r="AC30" s="13">
-        <v>2574908</v>
+        <v>1439240</v>
       </c>
       <c r="AD30" s="13">
-        <v>1439240</v>
+        <v>1949484</v>
       </c>
       <c r="AE30" s="13">
-        <v>1949484</v>
+        <v>1841148</v>
       </c>
       <c r="AF30" s="13">
-        <v>1841148</v>
+        <v>1256558</v>
       </c>
       <c r="AG30" s="13">
-        <v>1256558</v>
+        <v>1547764</v>
       </c>
       <c r="AH30" s="13">
-        <v>1547764</v>
+        <v>837734</v>
       </c>
       <c r="AI30" s="13">
-        <v>837734</v>
+        <v>2203278</v>
       </c>
       <c r="AJ30" s="13">
-        <v>2203278</v>
+        <v>1977521</v>
       </c>
       <c r="AK30" s="13">
-        <v>1977521</v>
+        <v>1834115</v>
       </c>
       <c r="AL30" s="13">
-        <v>1834115</v>
+        <v>1716712</v>
       </c>
       <c r="AM30" s="13">
-        <v>1716712</v>
+        <v>1328703</v>
       </c>
       <c r="AN30" s="13">
-        <v>1328703</v>
+        <v>1218139</v>
       </c>
       <c r="AO30" s="13">
-        <v>1218139</v>
+        <v>1279701</v>
       </c>
       <c r="AP30" s="13">
-        <v>1279701</v>
+        <v>1048473</v>
       </c>
       <c r="AQ30" s="13">
-        <v>1048473</v>
+        <v>1333045</v>
       </c>
       <c r="AR30" s="13">
-        <v>1333045</v>
+        <v>1236200</v>
       </c>
       <c r="AS30" s="13">
-        <v>1236200</v>
+        <v>1662039</v>
       </c>
       <c r="AT30" s="13">
-        <v>1662039</v>
+        <v>813636</v>
       </c>
       <c r="AU30" s="13">
-        <v>813636</v>
+        <v>2541310</v>
       </c>
       <c r="AV30" s="13">
-        <v>2541310</v>
+        <v>2393463</v>
       </c>
       <c r="AW30" s="13">
-        <v>2393463</v>
+        <v>2547668</v>
       </c>
       <c r="AX30" s="13">
-        <v>2547668</v>
+        <v>2713431</v>
       </c>
       <c r="AY30" s="13">
-        <v>2713431</v>
+        <v>2585290</v>
       </c>
       <c r="AZ30" s="13">
-        <v>2585290</v>
+        <v>2386859</v>
       </c>
       <c r="BA30" s="13">
-        <v>2386859</v>
+        <v>2337139</v>
       </c>
       <c r="BB30" s="13">
-        <v>2337139</v>
+        <v>933166</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3981,154 +3981,154 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>50426</v>
+        <v>50177</v>
       </c>
       <c r="F31" s="11">
-        <v>50177</v>
+        <v>41321</v>
       </c>
       <c r="G31" s="11">
-        <v>41321</v>
+        <v>46524</v>
       </c>
       <c r="H31" s="11">
-        <v>46524</v>
+        <v>67198</v>
       </c>
       <c r="I31" s="11">
-        <v>67198</v>
+        <v>52475</v>
       </c>
       <c r="J31" s="11">
-        <v>52475</v>
+        <v>15078</v>
       </c>
       <c r="K31" s="11">
-        <v>15078</v>
+        <v>52615</v>
       </c>
       <c r="L31" s="11">
-        <v>52615</v>
+        <v>74824</v>
       </c>
       <c r="M31" s="11">
-        <v>74824</v>
+        <v>60762</v>
       </c>
       <c r="N31" s="11">
-        <v>60762</v>
+        <v>56586</v>
       </c>
       <c r="O31" s="11">
-        <v>56586</v>
+        <v>62777</v>
       </c>
       <c r="P31" s="11">
-        <v>62777</v>
+        <v>60839</v>
       </c>
       <c r="Q31" s="11">
-        <v>60839</v>
+        <v>66085</v>
       </c>
       <c r="R31" s="11">
-        <v>66085</v>
+        <v>58722</v>
       </c>
       <c r="S31" s="11">
-        <v>58722</v>
+        <v>57304</v>
       </c>
       <c r="T31" s="11">
-        <v>57304</v>
+        <v>57485</v>
       </c>
       <c r="U31" s="11">
-        <v>57485</v>
+        <v>34846</v>
       </c>
       <c r="V31" s="11">
-        <v>34846</v>
+        <v>23524</v>
       </c>
       <c r="W31" s="11">
-        <v>23524</v>
+        <v>65579</v>
       </c>
       <c r="X31" s="11">
-        <v>65579</v>
+        <v>52270</v>
       </c>
       <c r="Y31" s="11">
-        <v>52270</v>
+        <v>173131</v>
       </c>
       <c r="Z31" s="11">
-        <v>173131</v>
+        <v>71616</v>
       </c>
       <c r="AA31" s="11">
-        <v>71616</v>
+        <v>47426</v>
       </c>
       <c r="AB31" s="11">
-        <v>47426</v>
+        <v>63430</v>
       </c>
       <c r="AC31" s="11">
-        <v>63430</v>
+        <v>42469</v>
       </c>
       <c r="AD31" s="11">
-        <v>42469</v>
+        <v>76210</v>
       </c>
       <c r="AE31" s="11">
-        <v>76210</v>
+        <v>74878</v>
       </c>
       <c r="AF31" s="11">
-        <v>74878</v>
+        <v>107739</v>
       </c>
       <c r="AG31" s="11">
-        <v>107739</v>
+        <v>30625</v>
       </c>
       <c r="AH31" s="11">
-        <v>30625</v>
+        <v>76192</v>
       </c>
       <c r="AI31" s="11">
-        <v>76192</v>
+        <v>79536</v>
       </c>
       <c r="AJ31" s="11">
-        <v>79536</v>
+        <v>87371</v>
       </c>
       <c r="AK31" s="11">
-        <v>87371</v>
+        <v>66389</v>
       </c>
       <c r="AL31" s="11">
-        <v>66389</v>
+        <v>67107</v>
       </c>
       <c r="AM31" s="11">
-        <v>67107</v>
+        <v>49156</v>
       </c>
       <c r="AN31" s="11">
-        <v>49156</v>
+        <v>87910</v>
       </c>
       <c r="AO31" s="11">
-        <v>87910</v>
+        <v>59439</v>
       </c>
       <c r="AP31" s="11">
-        <v>59439</v>
+        <v>67269</v>
       </c>
       <c r="AQ31" s="11">
-        <v>67269</v>
+        <v>50624</v>
       </c>
       <c r="AR31" s="11">
-        <v>50624</v>
+        <v>91586</v>
       </c>
       <c r="AS31" s="11">
-        <v>91586</v>
+        <v>95846</v>
       </c>
       <c r="AT31" s="11">
-        <v>95846</v>
+        <v>20835</v>
       </c>
       <c r="AU31" s="11">
-        <v>20835</v>
+        <v>83767</v>
       </c>
       <c r="AV31" s="11">
-        <v>83767</v>
+        <v>86166</v>
       </c>
       <c r="AW31" s="11">
-        <v>86166</v>
+        <v>110180</v>
       </c>
       <c r="AX31" s="11">
-        <v>110180</v>
+        <v>111868</v>
       </c>
       <c r="AY31" s="11">
-        <v>111868</v>
+        <v>95636</v>
       </c>
       <c r="AZ31" s="11">
-        <v>95636</v>
+        <v>83209</v>
       </c>
       <c r="BA31" s="11">
-        <v>83209</v>
+        <v>84421</v>
       </c>
       <c r="BB31" s="11">
-        <v>84421</v>
+        <v>82292</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4256,36 +4256,36 @@
       <c r="X33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>61</v>
+      <c r="Y33" s="11">
+        <v>1170797</v>
       </c>
       <c r="Z33" s="11">
-        <v>1170797</v>
+        <v>829580</v>
       </c>
       <c r="AA33" s="11">
-        <v>829580</v>
+        <v>1191344</v>
       </c>
       <c r="AB33" s="11">
-        <v>1191344</v>
+        <v>764593</v>
       </c>
       <c r="AC33" s="11">
-        <v>764593</v>
+        <v>1833835</v>
       </c>
       <c r="AD33" s="11">
-        <v>1833835</v>
+        <v>1533409</v>
       </c>
       <c r="AE33" s="11">
-        <v>1533409</v>
+        <v>909844</v>
       </c>
       <c r="AF33" s="11">
-        <v>909844</v>
+        <v>1223482</v>
       </c>
       <c r="AG33" s="11">
-        <v>1223482</v>
-      </c>
-      <c r="AH33" s="11">
         <v>1225177</v>
       </c>
+      <c r="AH33" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AI33" s="11" t="s">
         <v>61</v>
       </c>
@@ -4316,35 +4316,35 @@
       <c r="AR33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AS33" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT33" s="11">
+      <c r="AS33" s="11">
         <v>1097257</v>
       </c>
-      <c r="AU33" s="11" t="s">
-        <v>61</v>
+      <c r="AT33" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>988956</v>
       </c>
       <c r="AV33" s="11">
-        <v>988956</v>
+        <v>9698</v>
       </c>
       <c r="AW33" s="11">
-        <v>9698</v>
+        <v>250901</v>
       </c>
       <c r="AX33" s="11">
-        <v>250901</v>
+        <v>629197</v>
       </c>
       <c r="AY33" s="11">
-        <v>629197</v>
+        <v>485435</v>
       </c>
       <c r="AZ33" s="11">
-        <v>485435</v>
+        <v>304741</v>
       </c>
       <c r="BA33" s="11">
-        <v>304741</v>
+        <v>811815</v>
       </c>
       <c r="BB33" s="11">
-        <v>811815</v>
+        <v>989350</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4415,36 +4415,36 @@
       <c r="X34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>61</v>
+      <c r="Y34" s="13">
+        <v>0</v>
       </c>
       <c r="Z34" s="13">
-        <v>0</v>
+        <v>14748</v>
       </c>
       <c r="AA34" s="13">
-        <v>14748</v>
+        <v>98790</v>
       </c>
       <c r="AB34" s="13">
-        <v>98790</v>
+        <v>952</v>
       </c>
       <c r="AC34" s="13">
-        <v>952</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="13">
-        <v>0</v>
+        <v>5977</v>
       </c>
       <c r="AE34" s="13">
-        <v>5977</v>
+        <v>40170</v>
       </c>
       <c r="AF34" s="13">
-        <v>40170</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="13">
         <v>4219</v>
       </c>
+      <c r="AH34" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AI34" s="13" t="s">
         <v>61</v>
       </c>
@@ -4475,26 +4475,26 @@
       <c r="AR34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AS34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT34" s="13">
+      <c r="AS34" s="13">
         <v>331449</v>
       </c>
-      <c r="AU34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV34" s="13">
-        <v>0</v>
+      <c r="AT34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AW34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AX34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY34" s="13">
-        <v>0</v>
+      <c r="AX34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AZ34" s="13" t="s">
         <v>61</v>
@@ -4574,8 +4574,8 @@
       <c r="X35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y35" s="11" t="s">
-        <v>61</v>
+      <c r="Y35" s="11">
+        <v>0</v>
       </c>
       <c r="Z35" s="11">
         <v>0</v>
@@ -4587,23 +4587,23 @@
         <v>0</v>
       </c>
       <c r="AC35" s="11">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD35" s="11">
-        <v>999</v>
+        <v>879</v>
       </c>
       <c r="AE35" s="11">
-        <v>879</v>
+        <v>994</v>
       </c>
       <c r="AF35" s="11">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="11">
         <v>1341</v>
       </c>
+      <c r="AH35" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AI35" s="11" t="s">
         <v>61</v>
       </c>
@@ -4634,35 +4634,35 @@
       <c r="AR35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AS35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT35" s="11">
+      <c r="AS35" s="11">
         <v>74</v>
       </c>
-      <c r="AU35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV35" s="11">
+      <c r="AT35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU35" s="11">
         <v>1726</v>
       </c>
+      <c r="AV35" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AW35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AX35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY35" s="11">
-        <v>0</v>
+      <c r="AX35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AZ35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BA35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB35" s="11">
+      <c r="BA35" s="11">
         <v>535</v>
+      </c>
+      <c r="BB35" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4760,41 +4760,41 @@
       <c r="AG36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH36" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI36" s="13">
+      <c r="AH36" s="13">
         <v>80865</v>
       </c>
-      <c r="AJ36" s="13" t="s">
-        <v>61</v>
+      <c r="AI36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ36" s="13">
+        <v>81815</v>
       </c>
       <c r="AK36" s="13">
-        <v>81815</v>
+        <v>840145</v>
       </c>
       <c r="AL36" s="13">
-        <v>840145</v>
+        <v>467920</v>
       </c>
       <c r="AM36" s="13">
-        <v>467920</v>
+        <v>815260</v>
       </c>
       <c r="AN36" s="13">
-        <v>815260</v>
+        <v>616105</v>
       </c>
       <c r="AO36" s="13">
-        <v>616105</v>
+        <v>365998</v>
       </c>
       <c r="AP36" s="13">
-        <v>365998</v>
+        <v>1158478</v>
       </c>
       <c r="AQ36" s="13">
-        <v>1158478</v>
+        <v>442057</v>
       </c>
       <c r="AR36" s="13">
-        <v>442057</v>
-      </c>
-      <c r="AS36" s="13">
         <v>564733</v>
+      </c>
+      <c r="AS36" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT36" s="13" t="s">
         <v>61</v>
@@ -4919,41 +4919,41 @@
       <c r="AG37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AH37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI37" s="11">
+      <c r="AH37" s="11">
         <v>2425</v>
       </c>
+      <c r="AI37" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AJ37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AK37" s="11" t="s">
-        <v>61</v>
+      <c r="AK37" s="11">
+        <v>0</v>
       </c>
       <c r="AL37" s="11">
         <v>0</v>
       </c>
       <c r="AM37" s="11">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AN37" s="11">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP37" s="11">
         <v>126</v>
       </c>
+      <c r="AP37" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AQ37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AR37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS37" s="11">
+      <c r="AR37" s="11">
         <v>309</v>
+      </c>
+      <c r="AS37" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AT37" s="11" t="s">
         <v>61</v>
@@ -5078,41 +5078,41 @@
       <c r="AG38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH38" s="13" t="s">
-        <v>61</v>
+      <c r="AH38" s="13">
+        <v>0</v>
       </c>
       <c r="AI38" s="13">
-        <v>0</v>
+        <v>119590</v>
       </c>
       <c r="AJ38" s="13">
-        <v>119590</v>
+        <v>83150</v>
       </c>
       <c r="AK38" s="13">
-        <v>83150</v>
+        <v>195739</v>
       </c>
       <c r="AL38" s="13">
-        <v>195739</v>
+        <v>257928</v>
       </c>
       <c r="AM38" s="13">
-        <v>257928</v>
+        <v>224969</v>
       </c>
       <c r="AN38" s="13">
-        <v>224969</v>
+        <v>75102</v>
       </c>
       <c r="AO38" s="13">
-        <v>75102</v>
+        <v>209772</v>
       </c>
       <c r="AP38" s="13">
-        <v>209772</v>
-      </c>
-      <c r="AQ38" s="13">
         <v>189579</v>
       </c>
-      <c r="AR38" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS38" s="13">
+      <c r="AQ38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR38" s="13">
         <v>5000</v>
+      </c>
+      <c r="AS38" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT38" s="13" t="s">
         <v>61</v>
@@ -5208,95 +5208,95 @@
       <c r="X39" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Y39" s="15" t="s">
-        <v>61</v>
+      <c r="Y39" s="15">
+        <v>1170797</v>
       </c>
       <c r="Z39" s="15">
-        <v>1170797</v>
+        <v>844328</v>
       </c>
       <c r="AA39" s="15">
-        <v>844328</v>
+        <v>1290134</v>
       </c>
       <c r="AB39" s="15">
-        <v>1290134</v>
+        <v>765545</v>
       </c>
       <c r="AC39" s="15">
-        <v>765545</v>
+        <v>1834834</v>
       </c>
       <c r="AD39" s="15">
-        <v>1834834</v>
+        <v>1540265</v>
       </c>
       <c r="AE39" s="15">
-        <v>1540265</v>
+        <v>951008</v>
       </c>
       <c r="AF39" s="15">
-        <v>951008</v>
+        <v>1223482</v>
       </c>
       <c r="AG39" s="15">
-        <v>1223482</v>
+        <v>1230737</v>
       </c>
       <c r="AH39" s="15">
-        <v>1230737</v>
+        <v>83290</v>
       </c>
       <c r="AI39" s="15">
-        <v>83290</v>
+        <v>119590</v>
       </c>
       <c r="AJ39" s="15">
-        <v>119590</v>
+        <v>164965</v>
       </c>
       <c r="AK39" s="15">
-        <v>164965</v>
+        <v>1035884</v>
       </c>
       <c r="AL39" s="15">
-        <v>1035884</v>
+        <v>725848</v>
       </c>
       <c r="AM39" s="15">
-        <v>725848</v>
+        <v>1040505</v>
       </c>
       <c r="AN39" s="15">
-        <v>1040505</v>
+        <v>691207</v>
       </c>
       <c r="AO39" s="15">
-        <v>691207</v>
+        <v>575896</v>
       </c>
       <c r="AP39" s="15">
-        <v>575896</v>
+        <v>1348057</v>
       </c>
       <c r="AQ39" s="15">
-        <v>1348057</v>
+        <v>442057</v>
       </c>
       <c r="AR39" s="15">
-        <v>442057</v>
+        <v>570042</v>
       </c>
       <c r="AS39" s="15">
-        <v>570042</v>
+        <v>1428780</v>
       </c>
       <c r="AT39" s="15">
-        <v>1428780</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="15">
-        <v>0</v>
+        <v>990682</v>
       </c>
       <c r="AV39" s="15">
-        <v>990682</v>
+        <v>9698</v>
       </c>
       <c r="AW39" s="15">
-        <v>9698</v>
+        <v>250901</v>
       </c>
       <c r="AX39" s="15">
-        <v>250901</v>
+        <v>629197</v>
       </c>
       <c r="AY39" s="15">
-        <v>629197</v>
+        <v>485435</v>
       </c>
       <c r="AZ39" s="15">
-        <v>485435</v>
+        <v>304741</v>
       </c>
       <c r="BA39" s="15">
-        <v>304741</v>
+        <v>812350</v>
       </c>
       <c r="BB39" s="15">
-        <v>812350</v>
+        <v>989350</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5424,95 +5424,95 @@
       <c r="X41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>61</v>
+      <c r="Y41" s="11">
+        <v>202488</v>
       </c>
       <c r="Z41" s="11">
-        <v>202488</v>
+        <v>-4875</v>
       </c>
       <c r="AA41" s="11">
-        <v>-4875</v>
+        <v>-569324</v>
       </c>
       <c r="AB41" s="11">
-        <v>-569324</v>
+        <v>-6337</v>
       </c>
       <c r="AC41" s="11">
-        <v>-6337</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="11">
-        <v>0</v>
+        <v>-580549</v>
       </c>
       <c r="AE41" s="11">
-        <v>-580549</v>
+        <v>-55</v>
       </c>
       <c r="AF41" s="11">
-        <v>-55</v>
+        <v>-18626</v>
       </c>
       <c r="AG41" s="11">
-        <v>-18626</v>
+        <v>-71965</v>
       </c>
       <c r="AH41" s="11">
-        <v>-71965</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="11">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AJ41" s="11">
-        <v>-7</v>
+        <v>-25</v>
       </c>
       <c r="AK41" s="11">
-        <v>-25</v>
-      </c>
-      <c r="AL41" s="11">
         <v>-37</v>
       </c>
-      <c r="AM41" s="11" t="s">
-        <v>61</v>
+      <c r="AL41" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>-7374</v>
       </c>
       <c r="AN41" s="11">
-        <v>-7374</v>
+        <v>-24</v>
       </c>
       <c r="AO41" s="11">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="11">
-        <v>0</v>
+        <v>-53322</v>
       </c>
       <c r="AQ41" s="11">
-        <v>-53322</v>
+        <v>-5820</v>
       </c>
       <c r="AR41" s="11">
-        <v>-5820</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="11">
-        <v>0</v>
+        <v>-13584</v>
       </c>
       <c r="AT41" s="11">
-        <v>-13584</v>
+        <v>-71100</v>
       </c>
       <c r="AU41" s="11">
-        <v>-71100</v>
+        <v>-204</v>
       </c>
       <c r="AV41" s="11">
-        <v>-204</v>
+        <v>-1014</v>
       </c>
       <c r="AW41" s="11">
-        <v>-1014</v>
+        <v>-753</v>
       </c>
       <c r="AX41" s="11">
-        <v>-753</v>
+        <v>-143899</v>
       </c>
       <c r="AY41" s="11">
-        <v>-143899</v>
+        <v>-1398</v>
       </c>
       <c r="AZ41" s="11">
-        <v>-1398</v>
+        <v>-104331</v>
       </c>
       <c r="BA41" s="11">
-        <v>-104331</v>
+        <v>-727</v>
       </c>
       <c r="BB41" s="11">
-        <v>-727</v>
+        <v>-371</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5583,95 +5583,95 @@
       <c r="X42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y42" s="13" t="s">
-        <v>61</v>
+      <c r="Y42" s="13">
+        <v>-340</v>
       </c>
       <c r="Z42" s="13">
-        <v>-340</v>
+        <v>-41196</v>
       </c>
       <c r="AA42" s="13">
-        <v>-41196</v>
+        <v>-6143</v>
       </c>
       <c r="AB42" s="13">
-        <v>-6143</v>
+        <v>-9412</v>
       </c>
       <c r="AC42" s="13">
-        <v>-9412</v>
+        <v>-8588</v>
       </c>
       <c r="AD42" s="13">
-        <v>-8588</v>
+        <v>-367270</v>
       </c>
       <c r="AE42" s="13">
-        <v>-367270</v>
+        <v>-465</v>
       </c>
       <c r="AF42" s="13">
-        <v>-465</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="13">
-        <v>0</v>
+        <v>-25563</v>
       </c>
       <c r="AH42" s="13">
-        <v>-25563</v>
+        <v>-860</v>
       </c>
       <c r="AI42" s="13">
-        <v>-860</v>
+        <v>-16872</v>
       </c>
       <c r="AJ42" s="13">
-        <v>-16872</v>
+        <v>-6798</v>
       </c>
       <c r="AK42" s="13">
-        <v>-6798</v>
-      </c>
-      <c r="AL42" s="13">
         <v>-10833</v>
       </c>
-      <c r="AM42" s="13" t="s">
-        <v>61</v>
+      <c r="AL42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM42" s="13">
+        <v>-16</v>
       </c>
       <c r="AN42" s="13">
-        <v>-16</v>
+        <v>-5045</v>
       </c>
       <c r="AO42" s="13">
-        <v>-5045</v>
-      </c>
-      <c r="AP42" s="13">
         <v>-3600</v>
       </c>
-      <c r="AQ42" s="13" t="s">
-        <v>61</v>
+      <c r="AP42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ42" s="13">
+        <v>-14800</v>
       </c>
       <c r="AR42" s="13">
-        <v>-14800</v>
-      </c>
-      <c r="AS42" s="13">
         <v>-58802</v>
       </c>
-      <c r="AT42" s="13" t="s">
-        <v>61</v>
+      <c r="AS42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT42" s="13">
+        <v>-3997</v>
       </c>
       <c r="AU42" s="13">
-        <v>-3997</v>
+        <v>-10</v>
       </c>
       <c r="AV42" s="13">
-        <v>-10</v>
+        <v>-3189</v>
       </c>
       <c r="AW42" s="13">
-        <v>-3189</v>
+        <v>-1659</v>
       </c>
       <c r="AX42" s="13">
-        <v>-1659</v>
+        <v>-905</v>
       </c>
       <c r="AY42" s="13">
-        <v>-905</v>
+        <v>-11306</v>
       </c>
       <c r="AZ42" s="13">
-        <v>-11306</v>
-      </c>
-      <c r="BA42" s="13">
         <v>-17040</v>
       </c>
-      <c r="BB42" s="13" t="s">
-        <v>61</v>
+      <c r="BA42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB42" s="13">
+        <v>-13520</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5742,95 +5742,95 @@
       <c r="X43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>61</v>
+      <c r="Y43" s="11">
+        <v>-134053</v>
       </c>
       <c r="Z43" s="11">
-        <v>-134053</v>
+        <v>-192</v>
       </c>
       <c r="AA43" s="11">
-        <v>-192</v>
+        <v>-1671</v>
       </c>
       <c r="AB43" s="11">
-        <v>-1671</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="11">
         <v>0</v>
       </c>
       <c r="AD43" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE43" s="11">
+        <v>-216</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>-464</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>-1500</v>
+      </c>
+      <c r="AH43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>-4532</v>
+      </c>
+      <c r="AK43" s="11">
+        <v>-2007</v>
+      </c>
+      <c r="AL43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN43" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AO43" s="11">
+        <v>-2394</v>
+      </c>
+      <c r="AP43" s="11">
+        <v>-505</v>
+      </c>
+      <c r="AQ43" s="11">
+        <v>-110</v>
+      </c>
+      <c r="AR43" s="11">
+        <v>-1012</v>
+      </c>
+      <c r="AS43" s="11">
+        <v>-791</v>
+      </c>
+      <c r="AT43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU43" s="11">
+        <v>-300</v>
+      </c>
+      <c r="AV43" s="11">
         <v>-1</v>
       </c>
-      <c r="AF43" s="11">
-        <v>-216</v>
-      </c>
-      <c r="AG43" s="11">
-        <v>-464</v>
-      </c>
-      <c r="AH43" s="11">
-        <v>-1500</v>
-      </c>
-      <c r="AI43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK43" s="11">
-        <v>-4532</v>
-      </c>
-      <c r="AL43" s="11">
-        <v>-2007</v>
-      </c>
-      <c r="AM43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO43" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AP43" s="11">
-        <v>-2394</v>
-      </c>
-      <c r="AQ43" s="11">
-        <v>-505</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>-110</v>
-      </c>
-      <c r="AS43" s="11">
-        <v>-1012</v>
-      </c>
-      <c r="AT43" s="11">
-        <v>-791</v>
-      </c>
-      <c r="AU43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV43" s="11">
-        <v>-300</v>
-      </c>
       <c r="AW43" s="11">
-        <v>-1</v>
+        <v>-959</v>
       </c>
       <c r="AX43" s="11">
-        <v>-959</v>
+        <v>-11385</v>
       </c>
       <c r="AY43" s="11">
-        <v>-11385</v>
+        <v>-1004</v>
       </c>
       <c r="AZ43" s="11">
-        <v>-1004</v>
+        <v>-8</v>
       </c>
       <c r="BA43" s="11">
-        <v>-8</v>
+        <v>-923</v>
       </c>
       <c r="BB43" s="11">
-        <v>-923</v>
+        <v>-781</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5899,95 +5899,95 @@
       <c r="X44" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Y44" s="17" t="s">
-        <v>61</v>
+      <c r="Y44" s="17">
+        <v>68095</v>
       </c>
       <c r="Z44" s="17">
-        <v>68095</v>
+        <v>-46263</v>
       </c>
       <c r="AA44" s="17">
-        <v>-46263</v>
+        <v>-577138</v>
       </c>
       <c r="AB44" s="17">
-        <v>-577138</v>
+        <v>-15749</v>
       </c>
       <c r="AC44" s="17">
-        <v>-15749</v>
+        <v>-8588</v>
       </c>
       <c r="AD44" s="17">
-        <v>-8588</v>
+        <v>-947820</v>
       </c>
       <c r="AE44" s="17">
-        <v>-947820</v>
+        <v>-736</v>
       </c>
       <c r="AF44" s="17">
-        <v>-736</v>
+        <v>-19090</v>
       </c>
       <c r="AG44" s="17">
-        <v>-19090</v>
+        <v>-99028</v>
       </c>
       <c r="AH44" s="17">
-        <v>-99028</v>
-      </c>
-      <c r="AI44" s="17">
         <v>-860</v>
       </c>
-      <c r="AJ44" s="17" t="s">
-        <v>61</v>
+      <c r="AI44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ44" s="17">
+        <v>-11355</v>
       </c>
       <c r="AK44" s="17">
-        <v>-11355</v>
+        <v>-12877</v>
       </c>
       <c r="AL44" s="17">
-        <v>-12877</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="17">
-        <v>0</v>
+        <v>-7390</v>
       </c>
       <c r="AN44" s="17">
-        <v>-7390</v>
+        <v>-5074</v>
       </c>
       <c r="AO44" s="17">
-        <v>-5074</v>
+        <v>-5994</v>
       </c>
       <c r="AP44" s="17">
-        <v>-5994</v>
+        <v>-53827</v>
       </c>
       <c r="AQ44" s="17">
-        <v>-53827</v>
+        <v>-20730</v>
       </c>
       <c r="AR44" s="17">
-        <v>-20730</v>
+        <v>-59814</v>
       </c>
       <c r="AS44" s="17">
-        <v>-59814</v>
+        <v>-14375</v>
       </c>
       <c r="AT44" s="17">
-        <v>-14375</v>
+        <v>-75097</v>
       </c>
       <c r="AU44" s="17">
-        <v>-75097</v>
+        <v>-514</v>
       </c>
       <c r="AV44" s="17">
-        <v>-514</v>
+        <v>-4204</v>
       </c>
       <c r="AW44" s="17">
-        <v>-4204</v>
+        <v>-3371</v>
       </c>
       <c r="AX44" s="17">
-        <v>-3371</v>
+        <v>-156189</v>
       </c>
       <c r="AY44" s="17">
-        <v>-156189</v>
+        <v>-13708</v>
       </c>
       <c r="AZ44" s="17">
-        <v>-13708</v>
+        <v>-121379</v>
       </c>
       <c r="BA44" s="17">
-        <v>-121379</v>
+        <v>-1650</v>
       </c>
       <c r="BB44" s="17">
-        <v>-1650</v>
+        <v>-14672</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5997,154 +5997,154 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>3869277</v>
+        <v>5071132</v>
       </c>
       <c r="F45" s="15">
-        <v>5071132</v>
+        <v>4289345</v>
       </c>
       <c r="G45" s="15">
-        <v>4289345</v>
+        <v>4994970</v>
       </c>
       <c r="H45" s="15">
-        <v>4994970</v>
+        <v>5296417</v>
       </c>
       <c r="I45" s="15">
-        <v>5296417</v>
+        <v>4826457</v>
       </c>
       <c r="J45" s="15">
-        <v>4826457</v>
+        <v>2423902</v>
       </c>
       <c r="K45" s="15">
-        <v>2423902</v>
+        <v>5207684</v>
       </c>
       <c r="L45" s="15">
-        <v>5207684</v>
+        <v>5207000</v>
       </c>
       <c r="M45" s="15">
-        <v>5207000</v>
+        <v>4998537</v>
       </c>
       <c r="N45" s="15">
-        <v>4998537</v>
+        <v>4490523</v>
       </c>
       <c r="O45" s="15">
-        <v>4490523</v>
+        <v>6574452</v>
       </c>
       <c r="P45" s="15">
-        <v>6574452</v>
+        <v>5188103</v>
       </c>
       <c r="Q45" s="15">
-        <v>5188103</v>
+        <v>6231904</v>
       </c>
       <c r="R45" s="15">
-        <v>6231904</v>
+        <v>7515177</v>
       </c>
       <c r="S45" s="15">
-        <v>7515177</v>
+        <v>5246659</v>
       </c>
       <c r="T45" s="15">
-        <v>5246659</v>
+        <v>4997208</v>
       </c>
       <c r="U45" s="15">
-        <v>4997208</v>
+        <v>4107229</v>
       </c>
       <c r="V45" s="15">
-        <v>4107229</v>
+        <v>2743845</v>
       </c>
       <c r="W45" s="15">
-        <v>2743845</v>
+        <v>3978942</v>
       </c>
       <c r="X45" s="15">
-        <v>3978942</v>
+        <v>4580865</v>
       </c>
       <c r="Y45" s="15">
-        <v>4580865</v>
+        <v>7467555</v>
       </c>
       <c r="Z45" s="15">
-        <v>7467555</v>
+        <v>6384421</v>
       </c>
       <c r="AA45" s="15">
-        <v>6384421</v>
+        <v>4856130</v>
       </c>
       <c r="AB45" s="15">
-        <v>4856130</v>
+        <v>5813442</v>
       </c>
       <c r="AC45" s="15">
-        <v>5813442</v>
+        <v>5721785</v>
       </c>
       <c r="AD45" s="15">
-        <v>5721785</v>
+        <v>5107641</v>
       </c>
       <c r="AE45" s="15">
-        <v>5107641</v>
+        <v>4378140</v>
       </c>
       <c r="AF45" s="15">
-        <v>4378140</v>
+        <v>3237621</v>
       </c>
       <c r="AG45" s="15">
-        <v>3237621</v>
+        <v>4178096</v>
       </c>
       <c r="AH45" s="15">
-        <v>4178096</v>
+        <v>1407503</v>
       </c>
       <c r="AI45" s="15">
-        <v>1407503</v>
+        <v>4150140</v>
       </c>
       <c r="AJ45" s="15">
-        <v>4150140</v>
+        <v>3923881</v>
       </c>
       <c r="AK45" s="15">
-        <v>3923881</v>
+        <v>3886978</v>
       </c>
       <c r="AL45" s="15">
-        <v>3886978</v>
+        <v>3895038</v>
       </c>
       <c r="AM45" s="15">
-        <v>3895038</v>
+        <v>4301559</v>
       </c>
       <c r="AN45" s="15">
-        <v>4301559</v>
+        <v>3657198</v>
       </c>
       <c r="AO45" s="15">
-        <v>3657198</v>
+        <v>3955674</v>
       </c>
       <c r="AP45" s="15">
-        <v>3955674</v>
+        <v>3830903</v>
       </c>
       <c r="AQ45" s="15">
-        <v>3830903</v>
+        <v>2524305</v>
       </c>
       <c r="AR45" s="15">
-        <v>2524305</v>
+        <v>3563952</v>
       </c>
       <c r="AS45" s="15">
-        <v>3563952</v>
+        <v>5024094</v>
       </c>
       <c r="AT45" s="15">
-        <v>5024094</v>
+        <v>2164990</v>
       </c>
       <c r="AU45" s="15">
-        <v>2164990</v>
+        <v>6002055</v>
       </c>
       <c r="AV45" s="15">
-        <v>6002055</v>
+        <v>6008987</v>
       </c>
       <c r="AW45" s="15">
-        <v>6008987</v>
+        <v>6180034</v>
       </c>
       <c r="AX45" s="15">
-        <v>6180034</v>
+        <v>5547671</v>
       </c>
       <c r="AY45" s="15">
-        <v>5547671</v>
+        <v>6166401</v>
       </c>
       <c r="AZ45" s="15">
-        <v>6166401</v>
+        <v>5862975</v>
       </c>
       <c r="BA45" s="15">
-        <v>5862975</v>
+        <v>6491781</v>
       </c>
       <c r="BB45" s="15">
-        <v>6491781</v>
+        <v>5216080</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6590,154 +6590,154 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>84658</v>
+        <v>94120</v>
       </c>
       <c r="F52" s="11">
-        <v>94120</v>
+        <v>72702</v>
       </c>
       <c r="G52" s="11">
-        <v>72702</v>
+        <v>107140</v>
       </c>
       <c r="H52" s="11">
-        <v>107140</v>
+        <v>124167</v>
       </c>
       <c r="I52" s="11">
-        <v>124167</v>
+        <v>109496</v>
       </c>
       <c r="J52" s="11">
-        <v>109496</v>
+        <v>59043</v>
       </c>
       <c r="K52" s="11">
-        <v>59043</v>
+        <v>130380</v>
       </c>
       <c r="L52" s="11">
-        <v>130380</v>
+        <v>133888</v>
       </c>
       <c r="M52" s="11">
-        <v>133888</v>
+        <v>159805</v>
       </c>
       <c r="N52" s="11">
-        <v>159805</v>
+        <v>101597</v>
       </c>
       <c r="O52" s="11">
-        <v>101597</v>
+        <v>159568</v>
       </c>
       <c r="P52" s="11">
-        <v>159568</v>
+        <v>173395</v>
       </c>
       <c r="Q52" s="11">
-        <v>173395</v>
+        <v>209899</v>
       </c>
       <c r="R52" s="11">
-        <v>209899</v>
+        <v>245228</v>
       </c>
       <c r="S52" s="11">
-        <v>245228</v>
+        <v>151021</v>
       </c>
       <c r="T52" s="11">
-        <v>151021</v>
+        <v>145997</v>
       </c>
       <c r="U52" s="11">
-        <v>145997</v>
+        <v>117127</v>
       </c>
       <c r="V52" s="11">
-        <v>117127</v>
+        <v>178816</v>
       </c>
       <c r="W52" s="11">
-        <v>178816</v>
+        <v>103525</v>
       </c>
       <c r="X52" s="11">
-        <v>103525</v>
+        <v>82541</v>
       </c>
       <c r="Y52" s="11">
-        <v>82541</v>
+        <v>175706</v>
       </c>
       <c r="Z52" s="11">
-        <v>175706</v>
+        <v>181577</v>
       </c>
       <c r="AA52" s="11">
-        <v>181577</v>
+        <v>226294</v>
       </c>
       <c r="AB52" s="11">
-        <v>226294</v>
+        <v>209581</v>
       </c>
       <c r="AC52" s="11">
-        <v>209581</v>
+        <v>246499</v>
       </c>
       <c r="AD52" s="11">
-        <v>246499</v>
+        <v>271579</v>
       </c>
       <c r="AE52" s="11">
-        <v>271579</v>
+        <v>183425</v>
       </c>
       <c r="AF52" s="11">
-        <v>183425</v>
+        <v>87723</v>
       </c>
       <c r="AG52" s="11">
-        <v>87723</v>
+        <v>161929</v>
       </c>
       <c r="AH52" s="11">
-        <v>161929</v>
+        <v>54931</v>
       </c>
       <c r="AI52" s="11">
-        <v>54931</v>
+        <v>202331</v>
       </c>
       <c r="AJ52" s="11">
-        <v>202331</v>
+        <v>180908</v>
       </c>
       <c r="AK52" s="11">
-        <v>180908</v>
+        <v>112508</v>
       </c>
       <c r="AL52" s="11">
-        <v>112508</v>
+        <v>125709</v>
       </c>
       <c r="AM52" s="11">
-        <v>125709</v>
+        <v>206638</v>
       </c>
       <c r="AN52" s="11">
-        <v>206638</v>
+        <v>169881</v>
       </c>
       <c r="AO52" s="11">
-        <v>169881</v>
+        <v>183088</v>
       </c>
       <c r="AP52" s="11">
-        <v>183088</v>
+        <v>128716</v>
       </c>
       <c r="AQ52" s="11">
-        <v>128716</v>
+        <v>76853</v>
       </c>
       <c r="AR52" s="11">
-        <v>76853</v>
+        <v>183163</v>
       </c>
       <c r="AS52" s="11">
-        <v>183163</v>
+        <v>128537</v>
       </c>
       <c r="AT52" s="11">
-        <v>128537</v>
+        <v>162306</v>
       </c>
       <c r="AU52" s="11">
-        <v>162306</v>
+        <v>221794</v>
       </c>
       <c r="AV52" s="11">
-        <v>221794</v>
+        <v>346731</v>
       </c>
       <c r="AW52" s="11">
-        <v>346731</v>
+        <v>333646</v>
       </c>
       <c r="AX52" s="11">
-        <v>333646</v>
+        <v>248391</v>
       </c>
       <c r="AY52" s="11">
-        <v>248391</v>
+        <v>339312</v>
       </c>
       <c r="AZ52" s="11">
-        <v>339312</v>
+        <v>389193</v>
       </c>
       <c r="BA52" s="11">
-        <v>389193</v>
+        <v>436327</v>
       </c>
       <c r="BB52" s="11">
-        <v>436327</v>
+        <v>459801</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6749,154 +6749,154 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>269118</v>
+        <v>222756</v>
       </c>
       <c r="F53" s="13">
-        <v>222756</v>
+        <v>269275</v>
       </c>
       <c r="G53" s="13">
-        <v>269275</v>
+        <v>224402</v>
       </c>
       <c r="H53" s="13">
-        <v>224402</v>
+        <v>235525</v>
       </c>
       <c r="I53" s="13">
-        <v>235525</v>
+        <v>231198</v>
       </c>
       <c r="J53" s="13">
-        <v>231198</v>
+        <v>172428</v>
       </c>
       <c r="K53" s="13">
-        <v>172428</v>
+        <v>282507</v>
       </c>
       <c r="L53" s="13">
-        <v>282507</v>
+        <v>311632</v>
       </c>
       <c r="M53" s="13">
-        <v>311632</v>
+        <v>374857</v>
       </c>
       <c r="N53" s="13">
-        <v>374857</v>
+        <v>270926</v>
       </c>
       <c r="O53" s="13">
-        <v>270926</v>
+        <v>351748</v>
       </c>
       <c r="P53" s="13">
-        <v>351748</v>
+        <v>343248</v>
       </c>
       <c r="Q53" s="13">
-        <v>343248</v>
+        <v>251160</v>
       </c>
       <c r="R53" s="13">
-        <v>251160</v>
+        <v>358173</v>
       </c>
       <c r="S53" s="13">
-        <v>358173</v>
+        <v>361930</v>
       </c>
       <c r="T53" s="13">
-        <v>361930</v>
+        <v>318104</v>
       </c>
       <c r="U53" s="13">
-        <v>318104</v>
+        <v>175962</v>
       </c>
       <c r="V53" s="13">
-        <v>175962</v>
+        <v>149674</v>
       </c>
       <c r="W53" s="13">
-        <v>149674</v>
+        <v>377276</v>
       </c>
       <c r="X53" s="13">
-        <v>377276</v>
+        <v>371604</v>
       </c>
       <c r="Y53" s="13">
-        <v>371604</v>
+        <v>378729</v>
       </c>
       <c r="Z53" s="13">
-        <v>378729</v>
+        <v>308141</v>
       </c>
       <c r="AA53" s="13">
-        <v>308141</v>
+        <v>515280</v>
       </c>
       <c r="AB53" s="13">
-        <v>515280</v>
+        <v>397910</v>
       </c>
       <c r="AC53" s="13">
-        <v>397910</v>
+        <v>329395</v>
       </c>
       <c r="AD53" s="13">
-        <v>329395</v>
+        <v>362078</v>
       </c>
       <c r="AE53" s="13">
-        <v>362078</v>
+        <v>331609</v>
       </c>
       <c r="AF53" s="13">
-        <v>331609</v>
+        <v>366926</v>
       </c>
       <c r="AG53" s="13">
-        <v>366926</v>
+        <v>107591</v>
       </c>
       <c r="AH53" s="13">
-        <v>107591</v>
+        <v>215735</v>
       </c>
       <c r="AI53" s="13">
-        <v>215735</v>
+        <v>458357</v>
       </c>
       <c r="AJ53" s="13">
-        <v>458357</v>
+        <v>400907</v>
       </c>
       <c r="AK53" s="13">
-        <v>400907</v>
+        <v>446114</v>
       </c>
       <c r="AL53" s="13">
-        <v>446114</v>
+        <v>373842</v>
       </c>
       <c r="AM53" s="13">
-        <v>373842</v>
+        <v>326435</v>
       </c>
       <c r="AN53" s="13">
-        <v>326435</v>
+        <v>498999</v>
       </c>
       <c r="AO53" s="13">
-        <v>498999</v>
+        <v>296691</v>
       </c>
       <c r="AP53" s="13">
-        <v>296691</v>
+        <v>312673</v>
       </c>
       <c r="AQ53" s="13">
-        <v>312673</v>
+        <v>336949</v>
       </c>
       <c r="AR53" s="13">
-        <v>336949</v>
+        <v>402096</v>
       </c>
       <c r="AS53" s="13">
-        <v>402096</v>
+        <v>303042</v>
       </c>
       <c r="AT53" s="13">
-        <v>303042</v>
+        <v>236235</v>
       </c>
       <c r="AU53" s="13">
-        <v>236235</v>
+        <v>567095</v>
       </c>
       <c r="AV53" s="13">
-        <v>567095</v>
+        <v>543343</v>
       </c>
       <c r="AW53" s="13">
-        <v>543343</v>
+        <v>632348</v>
       </c>
       <c r="AX53" s="13">
-        <v>632348</v>
+        <v>737032</v>
       </c>
       <c r="AY53" s="13">
-        <v>737032</v>
+        <v>669809</v>
       </c>
       <c r="AZ53" s="13">
-        <v>669809</v>
+        <v>720235</v>
       </c>
       <c r="BA53" s="13">
-        <v>720235</v>
+        <v>845921</v>
       </c>
       <c r="BB53" s="13">
-        <v>845921</v>
+        <v>933166</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6908,154 +6908,154 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>117428</v>
+        <v>93760</v>
       </c>
       <c r="F54" s="11">
-        <v>93760</v>
+        <v>158233</v>
       </c>
       <c r="G54" s="11">
-        <v>158233</v>
+        <v>132010</v>
       </c>
       <c r="H54" s="11">
-        <v>132010</v>
+        <v>194127</v>
       </c>
       <c r="I54" s="11">
-        <v>194127</v>
+        <v>136417</v>
       </c>
       <c r="J54" s="11">
-        <v>136417</v>
+        <v>64786</v>
       </c>
       <c r="K54" s="11">
-        <v>64786</v>
+        <v>215537</v>
       </c>
       <c r="L54" s="11">
-        <v>215537</v>
+        <v>198693</v>
       </c>
       <c r="M54" s="11">
-        <v>198693</v>
+        <v>205133</v>
       </c>
       <c r="N54" s="11">
-        <v>205133</v>
+        <v>153994</v>
       </c>
       <c r="O54" s="11">
-        <v>153994</v>
+        <v>195607</v>
       </c>
       <c r="P54" s="11">
-        <v>195607</v>
+        <v>203457</v>
       </c>
       <c r="Q54" s="11">
-        <v>203457</v>
+        <v>175006</v>
       </c>
       <c r="R54" s="11">
-        <v>175006</v>
+        <v>155670</v>
       </c>
       <c r="S54" s="11">
-        <v>155670</v>
+        <v>187971</v>
       </c>
       <c r="T54" s="11">
-        <v>187971</v>
+        <v>156620</v>
       </c>
       <c r="U54" s="11">
-        <v>156620</v>
+        <v>93345</v>
       </c>
       <c r="V54" s="11">
-        <v>93345</v>
+        <v>94923</v>
       </c>
       <c r="W54" s="11">
-        <v>94923</v>
+        <v>197537</v>
       </c>
       <c r="X54" s="11">
-        <v>197537</v>
+        <v>106284</v>
       </c>
       <c r="Y54" s="11">
-        <v>106284</v>
+        <v>192564</v>
       </c>
       <c r="Z54" s="11">
-        <v>192564</v>
+        <v>220639</v>
       </c>
       <c r="AA54" s="11">
-        <v>220639</v>
+        <v>168900</v>
       </c>
       <c r="AB54" s="11">
-        <v>168900</v>
+        <v>130640</v>
       </c>
       <c r="AC54" s="11">
-        <v>130640</v>
+        <v>86533</v>
       </c>
       <c r="AD54" s="11">
-        <v>86533</v>
+        <v>200009</v>
       </c>
       <c r="AE54" s="11">
-        <v>200009</v>
+        <v>315384</v>
       </c>
       <c r="AF54" s="11">
-        <v>315384</v>
+        <v>538195</v>
       </c>
       <c r="AG54" s="11">
-        <v>538195</v>
+        <v>462703</v>
       </c>
       <c r="AH54" s="11">
-        <v>462703</v>
+        <v>324401</v>
       </c>
       <c r="AI54" s="11">
-        <v>324401</v>
+        <v>441274</v>
       </c>
       <c r="AJ54" s="11">
-        <v>441274</v>
+        <v>584343</v>
       </c>
       <c r="AK54" s="11">
-        <v>584343</v>
+        <v>547669</v>
       </c>
       <c r="AL54" s="11">
-        <v>547669</v>
+        <v>375414</v>
       </c>
       <c r="AM54" s="11">
-        <v>375414</v>
+        <v>815136</v>
       </c>
       <c r="AN54" s="11">
-        <v>815136</v>
+        <v>566952</v>
       </c>
       <c r="AO54" s="11">
-        <v>566952</v>
+        <v>663856</v>
       </c>
       <c r="AP54" s="11">
-        <v>663856</v>
+        <v>771714</v>
       </c>
       <c r="AQ54" s="11">
-        <v>771714</v>
+        <v>904109</v>
       </c>
       <c r="AR54" s="11">
-        <v>904109</v>
+        <v>1380078</v>
       </c>
       <c r="AS54" s="11">
-        <v>1380078</v>
+        <v>594839</v>
       </c>
       <c r="AT54" s="11">
-        <v>594839</v>
+        <v>708617</v>
       </c>
       <c r="AU54" s="11">
-        <v>708617</v>
+        <v>870058</v>
       </c>
       <c r="AV54" s="11">
-        <v>870058</v>
+        <v>999338</v>
       </c>
       <c r="AW54" s="11">
-        <v>999338</v>
+        <v>1028084</v>
       </c>
       <c r="AX54" s="11">
-        <v>1028084</v>
+        <v>753195</v>
       </c>
       <c r="AY54" s="11">
-        <v>753195</v>
+        <v>1129687</v>
       </c>
       <c r="AZ54" s="11">
-        <v>1129687</v>
+        <v>707418</v>
       </c>
       <c r="BA54" s="11">
-        <v>707418</v>
+        <v>1001682</v>
       </c>
       <c r="BB54" s="11">
-        <v>1001682</v>
+        <v>999340</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7183,36 +7183,36 @@
       <c r="X56" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>61</v>
+      <c r="Y56" s="11">
+        <v>31217</v>
       </c>
       <c r="Z56" s="11">
-        <v>31217</v>
+        <v>30137</v>
       </c>
       <c r="AA56" s="11">
-        <v>30137</v>
+        <v>42063</v>
       </c>
       <c r="AB56" s="11">
-        <v>42063</v>
+        <v>27755</v>
       </c>
       <c r="AC56" s="11">
-        <v>27755</v>
+        <v>66664</v>
       </c>
       <c r="AD56" s="11">
-        <v>66664</v>
+        <v>55663</v>
       </c>
       <c r="AE56" s="11">
-        <v>55663</v>
+        <v>33100</v>
       </c>
       <c r="AF56" s="11">
-        <v>33100</v>
+        <v>44555</v>
       </c>
       <c r="AG56" s="11">
-        <v>44555</v>
-      </c>
-      <c r="AH56" s="11">
         <v>44474</v>
       </c>
+      <c r="AH56" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AI56" s="11" t="s">
         <v>61</v>
       </c>
@@ -7243,35 +7243,35 @@
       <c r="AR56" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AS56" s="11" t="s">
-        <v>61</v>
+      <c r="AS56" s="11">
+        <v>70055</v>
       </c>
       <c r="AT56" s="11">
-        <v>70055</v>
+        <v>0</v>
       </c>
       <c r="AU56" s="11">
-        <v>0</v>
+        <v>73532</v>
       </c>
       <c r="AV56" s="11">
-        <v>73532</v>
+        <v>776</v>
       </c>
       <c r="AW56" s="11">
-        <v>776</v>
+        <v>18932</v>
       </c>
       <c r="AX56" s="11">
-        <v>18932</v>
+        <v>49360</v>
       </c>
       <c r="AY56" s="11">
-        <v>49360</v>
+        <v>40006</v>
       </c>
       <c r="AZ56" s="11">
-        <v>40006</v>
+        <v>24379</v>
       </c>
       <c r="BA56" s="11">
-        <v>24379</v>
+        <v>65013</v>
       </c>
       <c r="BB56" s="11">
-        <v>65013</v>
+        <v>84545</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7342,36 +7342,36 @@
       <c r="X57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y57" s="13" t="s">
-        <v>61</v>
+      <c r="Y57" s="13">
+        <v>0</v>
       </c>
       <c r="Z57" s="13">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="AA57" s="13">
-        <v>977</v>
+        <v>4271</v>
       </c>
       <c r="AB57" s="13">
-        <v>4271</v>
+        <v>41</v>
       </c>
       <c r="AC57" s="13">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="13">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="AE57" s="13">
-        <v>598</v>
+        <v>3816</v>
       </c>
       <c r="AF57" s="13">
-        <v>3816</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="13">
         <v>4219</v>
       </c>
+      <c r="AH57" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AI57" s="13" t="s">
         <v>61</v>
       </c>
@@ -7402,11 +7402,11 @@
       <c r="AR57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AS57" s="13" t="s">
-        <v>61</v>
+      <c r="AS57" s="13">
+        <v>36346</v>
       </c>
       <c r="AT57" s="13">
-        <v>36346</v>
+        <v>0</v>
       </c>
       <c r="AU57" s="13">
         <v>0</v>
@@ -7501,8 +7501,8 @@
       <c r="X58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y58" s="11" t="s">
-        <v>61</v>
+      <c r="Y58" s="11">
+        <v>0</v>
       </c>
       <c r="Z58" s="11">
         <v>0</v>
@@ -7514,23 +7514,23 @@
         <v>0</v>
       </c>
       <c r="AC58" s="11">
-        <v>0</v>
+        <v>2997</v>
       </c>
       <c r="AD58" s="11">
-        <v>2997</v>
+        <v>2857</v>
       </c>
       <c r="AE58" s="11">
-        <v>2857</v>
+        <v>2981</v>
       </c>
       <c r="AF58" s="11">
-        <v>2981</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="11">
         <v>629</v>
       </c>
+      <c r="AH58" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AI58" s="11" t="s">
         <v>61</v>
       </c>
@@ -7561,17 +7561,17 @@
       <c r="AR58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AS58" s="11" t="s">
-        <v>61</v>
+      <c r="AS58" s="11">
+        <v>222</v>
       </c>
       <c r="AT58" s="11">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="AU58" s="11">
-        <v>0</v>
+        <v>17252</v>
       </c>
       <c r="AV58" s="11">
-        <v>17252</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="11">
         <v>0</v>
@@ -7586,10 +7586,10 @@
         <v>0</v>
       </c>
       <c r="BA58" s="11">
-        <v>0</v>
+        <v>1704</v>
       </c>
       <c r="BB58" s="11">
-        <v>1704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7687,41 +7687,41 @@
       <c r="AG59" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH59" s="13" t="s">
-        <v>61</v>
+      <c r="AH59" s="13">
+        <v>2345</v>
       </c>
       <c r="AI59" s="13">
-        <v>2345</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="13">
-        <v>0</v>
+        <v>5727</v>
       </c>
       <c r="AK59" s="13">
-        <v>5727</v>
+        <v>58810</v>
       </c>
       <c r="AL59" s="13">
-        <v>58810</v>
+        <v>32754</v>
       </c>
       <c r="AM59" s="13">
-        <v>32754</v>
+        <v>53834</v>
       </c>
       <c r="AN59" s="13">
-        <v>53834</v>
+        <v>43127</v>
       </c>
       <c r="AO59" s="13">
-        <v>43127</v>
+        <v>24820</v>
       </c>
       <c r="AP59" s="13">
-        <v>24820</v>
+        <v>80408</v>
       </c>
       <c r="AQ59" s="13">
-        <v>80408</v>
+        <v>28553</v>
       </c>
       <c r="AR59" s="13">
-        <v>28553</v>
-      </c>
-      <c r="AS59" s="13">
         <v>37920</v>
+      </c>
+      <c r="AS59" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT59" s="13" t="s">
         <v>61</v>
@@ -7846,11 +7846,11 @@
       <c r="AG60" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AH60" s="11" t="s">
-        <v>61</v>
+      <c r="AH60" s="11">
+        <v>9745</v>
       </c>
       <c r="AI60" s="11">
-        <v>9745</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="11">
         <v>0</v>
@@ -7862,25 +7862,25 @@
         <v>0</v>
       </c>
       <c r="AM60" s="11">
-        <v>0</v>
+        <v>2764</v>
       </c>
       <c r="AN60" s="11">
-        <v>2764</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="11">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="AP60" s="11">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="11">
         <v>0</v>
       </c>
       <c r="AR60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="11">
         <v>5556</v>
+      </c>
+      <c r="AS60" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AT60" s="11" t="s">
         <v>61</v>
@@ -8005,41 +8005,41 @@
       <c r="AG61" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH61" s="13" t="s">
-        <v>61</v>
+      <c r="AH61" s="13">
+        <v>0</v>
       </c>
       <c r="AI61" s="13">
-        <v>0</v>
+        <v>5171</v>
       </c>
       <c r="AJ61" s="13">
-        <v>5171</v>
+        <v>1682</v>
       </c>
       <c r="AK61" s="13">
-        <v>1682</v>
+        <v>8463</v>
       </c>
       <c r="AL61" s="13">
-        <v>8463</v>
+        <v>29259</v>
       </c>
       <c r="AM61" s="13">
-        <v>29259</v>
+        <v>24297</v>
       </c>
       <c r="AN61" s="13">
-        <v>24297</v>
+        <v>8111</v>
       </c>
       <c r="AO61" s="13">
-        <v>8111</v>
+        <v>24943</v>
       </c>
       <c r="AP61" s="13">
-        <v>24943</v>
+        <v>12818</v>
       </c>
       <c r="AQ61" s="13">
-        <v>12818</v>
+        <v>0</v>
       </c>
       <c r="AR61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS61" s="13">
         <v>540</v>
+      </c>
+      <c r="AS61" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT61" s="13" t="s">
         <v>61</v>
@@ -8137,95 +8137,95 @@
       <c r="X62" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Y62" s="15" t="s">
-        <v>61</v>
+      <c r="Y62" s="15">
+        <v>31217</v>
       </c>
       <c r="Z62" s="15">
-        <v>31217</v>
+        <v>31114</v>
       </c>
       <c r="AA62" s="15">
-        <v>31114</v>
+        <v>46334</v>
       </c>
       <c r="AB62" s="15">
-        <v>46334</v>
+        <v>27796</v>
       </c>
       <c r="AC62" s="15">
-        <v>27796</v>
+        <v>69661</v>
       </c>
       <c r="AD62" s="15">
-        <v>69661</v>
+        <v>59118</v>
       </c>
       <c r="AE62" s="15">
-        <v>59118</v>
+        <v>39897</v>
       </c>
       <c r="AF62" s="15">
-        <v>39897</v>
+        <v>44555</v>
       </c>
       <c r="AG62" s="15">
-        <v>44555</v>
+        <v>49322</v>
       </c>
       <c r="AH62" s="15">
-        <v>49322</v>
+        <v>12090</v>
       </c>
       <c r="AI62" s="15">
-        <v>12090</v>
+        <v>5171</v>
       </c>
       <c r="AJ62" s="15">
-        <v>5171</v>
+        <v>7409</v>
       </c>
       <c r="AK62" s="15">
-        <v>7409</v>
+        <v>67273</v>
       </c>
       <c r="AL62" s="15">
-        <v>67273</v>
+        <v>62013</v>
       </c>
       <c r="AM62" s="15">
-        <v>62013</v>
+        <v>80895</v>
       </c>
       <c r="AN62" s="15">
-        <v>80895</v>
+        <v>51238</v>
       </c>
       <c r="AO62" s="15">
-        <v>51238</v>
+        <v>50295</v>
       </c>
       <c r="AP62" s="15">
-        <v>50295</v>
+        <v>93226</v>
       </c>
       <c r="AQ62" s="15">
-        <v>93226</v>
+        <v>28553</v>
       </c>
       <c r="AR62" s="15">
-        <v>28553</v>
+        <v>44016</v>
       </c>
       <c r="AS62" s="15">
-        <v>44016</v>
+        <v>106623</v>
       </c>
       <c r="AT62" s="15">
-        <v>106623</v>
+        <v>0</v>
       </c>
       <c r="AU62" s="15">
-        <v>0</v>
+        <v>90784</v>
       </c>
       <c r="AV62" s="15">
-        <v>90784</v>
+        <v>776</v>
       </c>
       <c r="AW62" s="15">
-        <v>776</v>
+        <v>18932</v>
       </c>
       <c r="AX62" s="15">
-        <v>18932</v>
+        <v>49360</v>
       </c>
       <c r="AY62" s="15">
-        <v>49360</v>
+        <v>40006</v>
       </c>
       <c r="AZ62" s="15">
-        <v>40006</v>
+        <v>24379</v>
       </c>
       <c r="BA62" s="15">
-        <v>24379</v>
+        <v>66717</v>
       </c>
       <c r="BB62" s="15">
-        <v>66717</v>
+        <v>84545</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8353,95 +8353,95 @@
       <c r="X64" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y64" s="11" t="s">
-        <v>61</v>
+      <c r="Y64" s="11">
+        <v>9031</v>
       </c>
       <c r="Z64" s="11">
-        <v>9031</v>
+        <v>-262</v>
       </c>
       <c r="AA64" s="11">
-        <v>-262</v>
+        <v>-50221</v>
       </c>
       <c r="AB64" s="11">
-        <v>-50221</v>
+        <v>-413</v>
       </c>
       <c r="AC64" s="11">
-        <v>-413</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="11">
-        <v>0</v>
+        <v>-39274</v>
       </c>
       <c r="AE64" s="11">
-        <v>-39274</v>
+        <v>-4</v>
       </c>
       <c r="AF64" s="11">
-        <v>-4</v>
+        <v>-2103</v>
       </c>
       <c r="AG64" s="11">
-        <v>-2103</v>
+        <v>-7315</v>
       </c>
       <c r="AH64" s="11">
-        <v>-7315</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ64" s="11">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AK64" s="11">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="AL64" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="11">
-        <v>0</v>
+        <v>-2105</v>
       </c>
       <c r="AN64" s="11">
-        <v>-2105</v>
+        <v>-3</v>
       </c>
       <c r="AO64" s="11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="11">
-        <v>0</v>
+        <v>-3721</v>
       </c>
       <c r="AQ64" s="11">
-        <v>-3721</v>
+        <v>-395</v>
       </c>
       <c r="AR64" s="11">
-        <v>-395</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="11">
-        <v>0</v>
+        <v>-950</v>
       </c>
       <c r="AT64" s="11">
-        <v>-950</v>
+        <v>-5034</v>
       </c>
       <c r="AU64" s="11">
-        <v>-5034</v>
+        <v>-21</v>
       </c>
       <c r="AV64" s="11">
-        <v>-21</v>
+        <v>-92</v>
       </c>
       <c r="AW64" s="11">
-        <v>-92</v>
+        <v>-54</v>
       </c>
       <c r="AX64" s="11">
-        <v>-54</v>
+        <v>-14537</v>
       </c>
       <c r="AY64" s="11">
-        <v>-14537</v>
+        <v>-71</v>
       </c>
       <c r="AZ64" s="11">
-        <v>-71</v>
+        <v>-9893</v>
       </c>
       <c r="BA64" s="11">
-        <v>-9893</v>
+        <v>-58</v>
       </c>
       <c r="BB64" s="11">
-        <v>-58</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8512,95 +8512,95 @@
       <c r="X65" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y65" s="13" t="s">
-        <v>61</v>
+      <c r="Y65" s="13">
+        <v>-57</v>
       </c>
       <c r="Z65" s="13">
-        <v>-57</v>
+        <v>-4120</v>
       </c>
       <c r="AA65" s="13">
-        <v>-4120</v>
+        <v>-2165</v>
       </c>
       <c r="AB65" s="13">
-        <v>-2165</v>
+        <v>-12254</v>
       </c>
       <c r="AC65" s="13">
-        <v>-12254</v>
+        <v>-15975</v>
       </c>
       <c r="AD65" s="13">
-        <v>-15975</v>
+        <v>-49633</v>
       </c>
       <c r="AE65" s="13">
-        <v>-49633</v>
+        <v>-385</v>
       </c>
       <c r="AF65" s="13">
-        <v>-385</v>
+        <v>0</v>
       </c>
       <c r="AG65" s="13">
-        <v>0</v>
+        <v>-34765</v>
       </c>
       <c r="AH65" s="13">
-        <v>-34765</v>
+        <v>-5160</v>
       </c>
       <c r="AI65" s="13">
-        <v>-5160</v>
+        <v>-2126</v>
       </c>
       <c r="AJ65" s="13">
-        <v>-2126</v>
+        <v>-13444</v>
       </c>
       <c r="AK65" s="13">
-        <v>-13444</v>
+        <v>-17265</v>
       </c>
       <c r="AL65" s="13">
-        <v>-17265</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AN65" s="13">
-        <v>-5</v>
+        <v>-1405</v>
       </c>
       <c r="AO65" s="13">
-        <v>-1405</v>
+        <v>-878</v>
       </c>
       <c r="AP65" s="13">
-        <v>-878</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="13">
-        <v>0</v>
+        <v>-14200</v>
       </c>
       <c r="AR65" s="13">
-        <v>-14200</v>
+        <v>-31462</v>
       </c>
       <c r="AS65" s="13">
-        <v>-31462</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="13">
-        <v>0</v>
+        <v>-7338</v>
       </c>
       <c r="AU65" s="13">
-        <v>-7338</v>
+        <v>-2</v>
       </c>
       <c r="AV65" s="13">
-        <v>-2</v>
+        <v>-6721</v>
       </c>
       <c r="AW65" s="13">
-        <v>-6721</v>
+        <v>-1414</v>
       </c>
       <c r="AX65" s="13">
-        <v>-1414</v>
+        <v>-373</v>
       </c>
       <c r="AY65" s="13">
-        <v>-373</v>
+        <v>-4731</v>
       </c>
       <c r="AZ65" s="13">
-        <v>-4731</v>
+        <v>-10369</v>
       </c>
       <c r="BA65" s="13">
-        <v>-10369</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="13">
-        <v>0</v>
+        <v>-2471</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8671,95 +8671,95 @@
       <c r="X66" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>61</v>
+      <c r="Y66" s="11">
+        <v>-617</v>
       </c>
       <c r="Z66" s="11">
-        <v>-617</v>
+        <v>-286</v>
       </c>
       <c r="AA66" s="11">
-        <v>-286</v>
+        <v>-6696</v>
       </c>
       <c r="AB66" s="11">
-        <v>-6696</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="11">
         <v>0</v>
       </c>
       <c r="AD66" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE66" s="11">
-        <v>-1</v>
+        <v>-2607</v>
       </c>
       <c r="AF66" s="11">
-        <v>-2607</v>
+        <v>-45</v>
       </c>
       <c r="AG66" s="11">
-        <v>-45</v>
+        <v>-2415</v>
       </c>
       <c r="AH66" s="11">
-        <v>-2415</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AJ66" s="11">
-        <v>-8</v>
+        <v>-13287</v>
       </c>
       <c r="AK66" s="11">
-        <v>-13287</v>
+        <v>-5434</v>
       </c>
       <c r="AL66" s="11">
-        <v>-5434</v>
+        <v>0</v>
       </c>
       <c r="AM66" s="11">
         <v>0</v>
       </c>
       <c r="AN66" s="11">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AO66" s="11">
-        <v>-15</v>
+        <v>-3847</v>
       </c>
       <c r="AP66" s="11">
-        <v>-3847</v>
+        <v>-778</v>
       </c>
       <c r="AQ66" s="11">
-        <v>-778</v>
+        <v>-7165</v>
       </c>
       <c r="AR66" s="11">
-        <v>-7165</v>
+        <v>-22108</v>
       </c>
       <c r="AS66" s="11">
-        <v>-22108</v>
+        <v>-17347</v>
       </c>
       <c r="AT66" s="11">
-        <v>-17347</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="11">
-        <v>0</v>
+        <v>-19830</v>
       </c>
       <c r="AV66" s="11">
-        <v>-19830</v>
+        <v>-4</v>
       </c>
       <c r="AW66" s="11">
-        <v>-4</v>
+        <v>-29379</v>
       </c>
       <c r="AX66" s="11">
-        <v>-29379</v>
+        <v>-24161</v>
       </c>
       <c r="AY66" s="11">
-        <v>-24161</v>
+        <v>-66072</v>
       </c>
       <c r="AZ66" s="11">
-        <v>-66072</v>
+        <v>-80</v>
       </c>
       <c r="BA66" s="11">
-        <v>-80</v>
+        <v>-20123</v>
       </c>
       <c r="BB66" s="11">
-        <v>-20123</v>
+        <v>-18745</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8830,95 +8830,95 @@
       <c r="X67" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Y67" s="17" t="s">
-        <v>61</v>
+      <c r="Y67" s="17">
+        <v>8357</v>
       </c>
       <c r="Z67" s="17">
-        <v>8357</v>
+        <v>-4668</v>
       </c>
       <c r="AA67" s="17">
-        <v>-4668</v>
+        <v>-59082</v>
       </c>
       <c r="AB67" s="17">
-        <v>-59082</v>
+        <v>-12667</v>
       </c>
       <c r="AC67" s="17">
-        <v>-12667</v>
+        <v>-15975</v>
       </c>
       <c r="AD67" s="17">
-        <v>-15975</v>
+        <v>-88908</v>
       </c>
       <c r="AE67" s="17">
-        <v>-88908</v>
+        <v>-2996</v>
       </c>
       <c r="AF67" s="17">
-        <v>-2996</v>
+        <v>-2148</v>
       </c>
       <c r="AG67" s="17">
-        <v>-2148</v>
+        <v>-44495</v>
       </c>
       <c r="AH67" s="17">
-        <v>-44495</v>
+        <v>-5160</v>
       </c>
       <c r="AI67" s="17">
-        <v>-5160</v>
+        <v>-2135</v>
       </c>
       <c r="AJ67" s="17">
-        <v>-2135</v>
+        <v>-26736</v>
       </c>
       <c r="AK67" s="17">
-        <v>-26736</v>
+        <v>-22701</v>
       </c>
       <c r="AL67" s="17">
-        <v>-22701</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="17">
-        <v>0</v>
+        <v>-2110</v>
       </c>
       <c r="AN67" s="17">
-        <v>-2110</v>
+        <v>-1423</v>
       </c>
       <c r="AO67" s="17">
-        <v>-1423</v>
+        <v>-4725</v>
       </c>
       <c r="AP67" s="17">
-        <v>-4725</v>
+        <v>-4499</v>
       </c>
       <c r="AQ67" s="17">
-        <v>-4499</v>
+        <v>-21760</v>
       </c>
       <c r="AR67" s="17">
-        <v>-21760</v>
+        <v>-53570</v>
       </c>
       <c r="AS67" s="17">
-        <v>-53570</v>
+        <v>-18297</v>
       </c>
       <c r="AT67" s="17">
-        <v>-18297</v>
+        <v>-12372</v>
       </c>
       <c r="AU67" s="17">
-        <v>-12372</v>
+        <v>-19853</v>
       </c>
       <c r="AV67" s="17">
-        <v>-19853</v>
+        <v>-6817</v>
       </c>
       <c r="AW67" s="17">
-        <v>-6817</v>
+        <v>-30847</v>
       </c>
       <c r="AX67" s="17">
-        <v>-30847</v>
+        <v>-39071</v>
       </c>
       <c r="AY67" s="17">
-        <v>-39071</v>
+        <v>-70874</v>
       </c>
       <c r="AZ67" s="17">
-        <v>-70874</v>
+        <v>-20342</v>
       </c>
       <c r="BA67" s="17">
-        <v>-20342</v>
+        <v>-20181</v>
       </c>
       <c r="BB67" s="17">
-        <v>-20181</v>
+        <v>-21258</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9046,35 +9046,35 @@
       <c r="X69" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>61</v>
+      <c r="Y69" s="11">
+        <v>-928</v>
       </c>
       <c r="Z69" s="11">
-        <v>-928</v>
+        <v>-1351</v>
       </c>
       <c r="AA69" s="11">
-        <v>-1351</v>
+        <v>-522</v>
       </c>
       <c r="AB69" s="11">
-        <v>-522</v>
+        <v>-396</v>
       </c>
       <c r="AC69" s="11">
-        <v>-396</v>
+        <v>-399</v>
       </c>
       <c r="AD69" s="11">
-        <v>-399</v>
+        <v>-907</v>
       </c>
       <c r="AE69" s="11">
-        <v>-907</v>
+        <v>-295</v>
       </c>
       <c r="AF69" s="11">
-        <v>-295</v>
+        <v>-819</v>
       </c>
       <c r="AG69" s="11">
-        <v>-819</v>
+        <v>-21305</v>
       </c>
       <c r="AH69" s="11">
-        <v>-21305</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="11">
         <v>0</v>
@@ -9144,154 +9144,154 @@
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17">
-        <v>471204</v>
+        <v>410636</v>
       </c>
       <c r="F70" s="17">
-        <v>410636</v>
+        <v>500210</v>
       </c>
       <c r="G70" s="17">
-        <v>500210</v>
+        <v>463552</v>
       </c>
       <c r="H70" s="17">
-        <v>463552</v>
+        <v>553819</v>
       </c>
       <c r="I70" s="17">
-        <v>553819</v>
+        <v>477111</v>
       </c>
       <c r="J70" s="17">
-        <v>477111</v>
+        <v>296257</v>
       </c>
       <c r="K70" s="17">
-        <v>296257</v>
+        <v>628424</v>
       </c>
       <c r="L70" s="17">
-        <v>628424</v>
+        <v>644213</v>
       </c>
       <c r="M70" s="17">
-        <v>644213</v>
+        <v>739795</v>
       </c>
       <c r="N70" s="17">
-        <v>739795</v>
+        <v>526517</v>
       </c>
       <c r="O70" s="17">
-        <v>526517</v>
+        <v>706923</v>
       </c>
       <c r="P70" s="17">
-        <v>706923</v>
+        <v>720100</v>
       </c>
       <c r="Q70" s="17">
-        <v>720100</v>
+        <v>636065</v>
       </c>
       <c r="R70" s="17">
-        <v>636065</v>
+        <v>759071</v>
       </c>
       <c r="S70" s="17">
-        <v>759071</v>
+        <v>700922</v>
       </c>
       <c r="T70" s="17">
-        <v>700922</v>
+        <v>620721</v>
       </c>
       <c r="U70" s="17">
-        <v>620721</v>
+        <v>386434</v>
       </c>
       <c r="V70" s="17">
-        <v>386434</v>
+        <v>423413</v>
       </c>
       <c r="W70" s="17">
-        <v>423413</v>
+        <v>678338</v>
       </c>
       <c r="X70" s="17">
-        <v>678338</v>
+        <v>560429</v>
       </c>
       <c r="Y70" s="17">
-        <v>560429</v>
+        <v>785645</v>
       </c>
       <c r="Z70" s="17">
-        <v>785645</v>
+        <v>735452</v>
       </c>
       <c r="AA70" s="17">
-        <v>735452</v>
+        <v>897204</v>
       </c>
       <c r="AB70" s="17">
-        <v>897204</v>
+        <v>752864</v>
       </c>
       <c r="AC70" s="17">
-        <v>752864</v>
+        <v>715714</v>
       </c>
       <c r="AD70" s="17">
-        <v>715714</v>
+        <v>802969</v>
       </c>
       <c r="AE70" s="17">
-        <v>802969</v>
+        <v>867024</v>
       </c>
       <c r="AF70" s="17">
-        <v>867024</v>
+        <v>1034432</v>
       </c>
       <c r="AG70" s="17">
-        <v>1034432</v>
+        <v>715745</v>
       </c>
       <c r="AH70" s="17">
-        <v>715745</v>
+        <v>601997</v>
       </c>
       <c r="AI70" s="17">
-        <v>601997</v>
+        <v>1104998</v>
       </c>
       <c r="AJ70" s="17">
-        <v>1104998</v>
+        <v>1146831</v>
       </c>
       <c r="AK70" s="17">
-        <v>1146831</v>
+        <v>1150863</v>
       </c>
       <c r="AL70" s="17">
-        <v>1150863</v>
+        <v>936978</v>
       </c>
       <c r="AM70" s="17">
-        <v>936978</v>
+        <v>1426994</v>
       </c>
       <c r="AN70" s="17">
-        <v>1426994</v>
+        <v>1285647</v>
       </c>
       <c r="AO70" s="17">
-        <v>1285647</v>
+        <v>1189205</v>
       </c>
       <c r="AP70" s="17">
-        <v>1189205</v>
+        <v>1301830</v>
       </c>
       <c r="AQ70" s="17">
-        <v>1301830</v>
+        <v>1324704</v>
       </c>
       <c r="AR70" s="17">
-        <v>1324704</v>
+        <v>1955783</v>
       </c>
       <c r="AS70" s="17">
-        <v>1955783</v>
+        <v>1114744</v>
       </c>
       <c r="AT70" s="17">
-        <v>1114744</v>
+        <v>1094786</v>
       </c>
       <c r="AU70" s="17">
-        <v>1094786</v>
+        <v>1729878</v>
       </c>
       <c r="AV70" s="17">
-        <v>1729878</v>
+        <v>1883371</v>
       </c>
       <c r="AW70" s="17">
-        <v>1883371</v>
+        <v>1982163</v>
       </c>
       <c r="AX70" s="17">
-        <v>1982163</v>
+        <v>1748907</v>
       </c>
       <c r="AY70" s="17">
-        <v>1748907</v>
+        <v>2107940</v>
       </c>
       <c r="AZ70" s="17">
-        <v>2107940</v>
+        <v>1820883</v>
       </c>
       <c r="BA70" s="17">
-        <v>1820883</v>
+        <v>2330466</v>
       </c>
       <c r="BB70" s="17">
-        <v>2330466</v>
+        <v>2455594</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9737,154 +9737,154 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>38354</v>
+        <v>30648</v>
       </c>
       <c r="F77" s="11">
-        <v>30648</v>
+        <v>27834</v>
       </c>
       <c r="G77" s="11">
-        <v>27834</v>
+        <v>35277</v>
       </c>
       <c r="H77" s="11">
-        <v>35277</v>
+        <v>38952</v>
       </c>
       <c r="I77" s="11">
-        <v>38952</v>
+        <v>35474</v>
       </c>
       <c r="J77" s="11">
-        <v>35474</v>
+        <v>43629</v>
       </c>
       <c r="K77" s="11">
-        <v>43629</v>
+        <v>42305</v>
       </c>
       <c r="L77" s="11">
-        <v>42305</v>
+        <v>47771</v>
       </c>
       <c r="M77" s="11">
-        <v>47771</v>
+        <v>50953</v>
       </c>
       <c r="N77" s="11">
-        <v>50953</v>
+        <v>40132</v>
       </c>
       <c r="O77" s="11">
-        <v>40132</v>
+        <v>43565</v>
       </c>
       <c r="P77" s="11">
-        <v>43565</v>
+        <v>42802</v>
       </c>
       <c r="Q77" s="11">
-        <v>42802</v>
+        <v>44976</v>
       </c>
       <c r="R77" s="11">
-        <v>44976</v>
+        <v>47648</v>
       </c>
       <c r="S77" s="11">
-        <v>47648</v>
+        <v>46281</v>
       </c>
       <c r="T77" s="11">
-        <v>46281</v>
+        <v>46739</v>
       </c>
       <c r="U77" s="11">
-        <v>46739</v>
+        <v>45014</v>
       </c>
       <c r="V77" s="11">
-        <v>45014</v>
+        <v>82954</v>
       </c>
       <c r="W77" s="11">
-        <v>82954</v>
+        <v>59589</v>
       </c>
       <c r="X77" s="11">
-        <v>59589</v>
+        <v>51364</v>
       </c>
       <c r="Y77" s="11">
-        <v>51364</v>
+        <v>50709</v>
       </c>
       <c r="Z77" s="11">
-        <v>50709</v>
+        <v>53422</v>
       </c>
       <c r="AA77" s="11">
-        <v>53422</v>
+        <v>114595</v>
       </c>
       <c r="AB77" s="11">
-        <v>114595</v>
+        <v>86414</v>
       </c>
       <c r="AC77" s="11">
-        <v>86414</v>
+        <v>102119</v>
       </c>
       <c r="AD77" s="11">
-        <v>102119</v>
+        <v>109090</v>
       </c>
       <c r="AE77" s="11">
-        <v>109090</v>
+        <v>121326</v>
       </c>
       <c r="AF77" s="11">
-        <v>121326</v>
+        <v>131139</v>
       </c>
       <c r="AG77" s="11">
-        <v>131139</v>
+        <v>110306</v>
       </c>
       <c r="AH77" s="11">
-        <v>110306</v>
+        <v>133604</v>
       </c>
       <c r="AI77" s="11">
-        <v>133604</v>
+        <v>114660</v>
       </c>
       <c r="AJ77" s="11">
-        <v>114660</v>
+        <v>106081</v>
       </c>
       <c r="AK77" s="11">
-        <v>106081</v>
+        <v>116774</v>
       </c>
       <c r="AL77" s="11">
-        <v>116774</v>
+        <v>90740</v>
       </c>
       <c r="AM77" s="11">
-        <v>90740</v>
+        <v>109298</v>
       </c>
       <c r="AN77" s="11">
-        <v>109298</v>
+        <v>102030</v>
       </c>
       <c r="AO77" s="11">
-        <v>102030</v>
+        <v>89458</v>
       </c>
       <c r="AP77" s="11">
-        <v>89458</v>
+        <v>90586</v>
       </c>
       <c r="AQ77" s="11">
-        <v>90586</v>
+        <v>106843</v>
       </c>
       <c r="AR77" s="11">
-        <v>106843</v>
+        <v>106124</v>
       </c>
       <c r="AS77" s="11">
-        <v>106124</v>
+        <v>69412</v>
       </c>
       <c r="AT77" s="11">
-        <v>69412</v>
+        <v>115470</v>
       </c>
       <c r="AU77" s="11">
-        <v>115470</v>
+        <v>92918</v>
       </c>
       <c r="AV77" s="11">
-        <v>92918</v>
+        <v>98395</v>
       </c>
       <c r="AW77" s="11">
-        <v>98395</v>
+        <v>101887</v>
       </c>
       <c r="AX77" s="11">
-        <v>101887</v>
+        <v>110427</v>
       </c>
       <c r="AY77" s="11">
-        <v>110427</v>
+        <v>112588</v>
       </c>
       <c r="AZ77" s="11">
-        <v>112588</v>
+        <v>121261</v>
       </c>
       <c r="BA77" s="11">
-        <v>121261</v>
+        <v>133862</v>
       </c>
       <c r="BB77" s="11">
-        <v>133862</v>
+        <v>142532</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9896,154 +9896,154 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>166988</v>
+        <v>114235</v>
       </c>
       <c r="F78" s="13">
-        <v>114235</v>
+        <v>164589</v>
       </c>
       <c r="G78" s="13">
-        <v>164589</v>
+        <v>117405</v>
       </c>
       <c r="H78" s="13">
-        <v>117405</v>
+        <v>115369</v>
       </c>
       <c r="I78" s="13">
-        <v>115369</v>
+        <v>137017</v>
       </c>
       <c r="J78" s="13">
-        <v>137017</v>
+        <v>163358</v>
       </c>
       <c r="K78" s="13">
-        <v>163358</v>
+        <v>136269</v>
       </c>
       <c r="L78" s="13">
-        <v>136269</v>
+        <v>133777</v>
       </c>
       <c r="M78" s="13">
-        <v>133777</v>
+        <v>208085</v>
       </c>
       <c r="N78" s="13">
-        <v>208085</v>
+        <v>142414</v>
       </c>
       <c r="O78" s="13">
-        <v>142414</v>
+        <v>123466</v>
       </c>
       <c r="P78" s="13">
-        <v>123466</v>
+        <v>318967</v>
       </c>
       <c r="Q78" s="13">
-        <v>318967</v>
+        <v>167558</v>
       </c>
       <c r="R78" s="13">
-        <v>167558</v>
+        <v>155068</v>
       </c>
       <c r="S78" s="13">
-        <v>155068</v>
+        <v>187897</v>
       </c>
       <c r="T78" s="13">
-        <v>187897</v>
+        <v>175162</v>
       </c>
       <c r="U78" s="13">
-        <v>175162</v>
+        <v>119672</v>
       </c>
       <c r="V78" s="13">
-        <v>119672</v>
+        <v>265045</v>
       </c>
       <c r="W78" s="13">
-        <v>265045</v>
+        <v>173376</v>
       </c>
       <c r="X78" s="13">
-        <v>173376</v>
+        <v>127191</v>
       </c>
       <c r="Y78" s="13">
-        <v>127191</v>
+        <v>146197</v>
       </c>
       <c r="Z78" s="13">
-        <v>146197</v>
+        <v>145637</v>
       </c>
       <c r="AA78" s="13">
-        <v>145637</v>
+        <v>242945</v>
       </c>
       <c r="AB78" s="13">
-        <v>242945</v>
+        <v>154534</v>
       </c>
       <c r="AC78" s="13">
-        <v>154534</v>
+        <v>228867</v>
       </c>
       <c r="AD78" s="13">
-        <v>228867</v>
+        <v>185730</v>
       </c>
       <c r="AE78" s="13">
-        <v>185730</v>
+        <v>180110</v>
       </c>
       <c r="AF78" s="13">
-        <v>180110</v>
+        <v>292009</v>
       </c>
       <c r="AG78" s="13">
-        <v>292009</v>
+        <v>69514</v>
       </c>
       <c r="AH78" s="13">
-        <v>69514</v>
+        <v>257522</v>
       </c>
       <c r="AI78" s="13">
-        <v>257522</v>
+        <v>208034</v>
       </c>
       <c r="AJ78" s="13">
-        <v>208034</v>
+        <v>202732</v>
       </c>
       <c r="AK78" s="13">
-        <v>202732</v>
+        <v>243231</v>
       </c>
       <c r="AL78" s="13">
-        <v>243231</v>
+        <v>217766</v>
       </c>
       <c r="AM78" s="13">
-        <v>217766</v>
+        <v>245679</v>
       </c>
       <c r="AN78" s="13">
-        <v>245679</v>
+        <v>409640</v>
       </c>
       <c r="AO78" s="13">
-        <v>409640</v>
+        <v>231844</v>
       </c>
       <c r="AP78" s="13">
-        <v>231844</v>
+        <v>298218</v>
       </c>
       <c r="AQ78" s="13">
-        <v>298218</v>
+        <v>252766</v>
       </c>
       <c r="AR78" s="13">
-        <v>252766</v>
+        <v>325268</v>
       </c>
       <c r="AS78" s="13">
-        <v>325268</v>
+        <v>182331</v>
       </c>
       <c r="AT78" s="13">
-        <v>182331</v>
+        <v>290345</v>
       </c>
       <c r="AU78" s="13">
-        <v>290345</v>
+        <v>223140</v>
       </c>
       <c r="AV78" s="13">
-        <v>223140</v>
+        <v>227011</v>
       </c>
       <c r="AW78" s="13">
-        <v>227011</v>
+        <v>248207</v>
       </c>
       <c r="AX78" s="13">
-        <v>248207</v>
+        <v>271612</v>
       </c>
       <c r="AY78" s="13">
-        <v>271612</v>
+        <v>259085</v>
       </c>
       <c r="AZ78" s="13">
-        <v>259085</v>
+        <v>301750</v>
       </c>
       <c r="BA78" s="13">
-        <v>301750</v>
+        <v>361947</v>
       </c>
       <c r="BB78" s="13">
-        <v>361947</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10055,154 +10055,154 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>2328719</v>
+        <v>1868585</v>
       </c>
       <c r="F79" s="11">
-        <v>1868585</v>
+        <v>3829360</v>
       </c>
       <c r="G79" s="11">
-        <v>3829360</v>
+        <v>2837460</v>
       </c>
       <c r="H79" s="11">
-        <v>2837460</v>
+        <v>2888881</v>
       </c>
       <c r="I79" s="11">
-        <v>2888881</v>
+        <v>2599657</v>
       </c>
       <c r="J79" s="11">
-        <v>2599657</v>
+        <v>4296724</v>
       </c>
       <c r="K79" s="11">
-        <v>4296724</v>
+        <v>4096493</v>
       </c>
       <c r="L79" s="11">
-        <v>4096493</v>
+        <v>2655472</v>
       </c>
       <c r="M79" s="11">
-        <v>2655472</v>
+        <v>3376008</v>
       </c>
       <c r="N79" s="11">
-        <v>3376008</v>
+        <v>2721415</v>
       </c>
       <c r="O79" s="11">
-        <v>2721415</v>
+        <v>3115902</v>
       </c>
       <c r="P79" s="11">
-        <v>3115902</v>
+        <v>3344187</v>
       </c>
       <c r="Q79" s="11">
-        <v>3344187</v>
+        <v>2648196</v>
       </c>
       <c r="R79" s="11">
-        <v>2648196</v>
+        <v>2650966</v>
       </c>
       <c r="S79" s="11">
-        <v>2650966</v>
+        <v>3280242</v>
       </c>
       <c r="T79" s="11">
-        <v>3280242</v>
+        <v>2724537</v>
       </c>
       <c r="U79" s="11">
-        <v>2724537</v>
+        <v>2678787</v>
       </c>
       <c r="V79" s="11">
-        <v>2678787</v>
+        <v>4035156</v>
       </c>
       <c r="W79" s="11">
-        <v>4035156</v>
+        <v>3012199</v>
       </c>
       <c r="X79" s="11">
-        <v>3012199</v>
+        <v>2033365</v>
       </c>
       <c r="Y79" s="11">
-        <v>2033365</v>
+        <v>1112244</v>
       </c>
       <c r="Z79" s="11">
-        <v>1112244</v>
+        <v>3080862</v>
       </c>
       <c r="AA79" s="11">
-        <v>3080862</v>
+        <v>3561338</v>
       </c>
       <c r="AB79" s="11">
-        <v>3561338</v>
+        <v>2059593</v>
       </c>
       <c r="AC79" s="11">
-        <v>2059593</v>
+        <v>2037557</v>
       </c>
       <c r="AD79" s="11">
-        <v>2037557</v>
+        <v>2624446</v>
       </c>
       <c r="AE79" s="11">
-        <v>2624446</v>
+        <v>4211971</v>
       </c>
       <c r="AF79" s="11">
-        <v>4211971</v>
+        <v>4995359</v>
       </c>
       <c r="AG79" s="11">
-        <v>4995359</v>
+        <v>15108669</v>
       </c>
       <c r="AH79" s="11">
-        <v>15108669</v>
+        <v>4257678</v>
       </c>
       <c r="AI79" s="11">
-        <v>4257678</v>
+        <v>5548104</v>
       </c>
       <c r="AJ79" s="11">
-        <v>5548104</v>
+        <v>6688066</v>
       </c>
       <c r="AK79" s="11">
-        <v>6688066</v>
+        <v>8249394</v>
       </c>
       <c r="AL79" s="11">
-        <v>8249394</v>
+        <v>5594260</v>
       </c>
       <c r="AM79" s="11">
-        <v>5594260</v>
+        <v>16582635</v>
       </c>
       <c r="AN79" s="11">
-        <v>16582635</v>
+        <v>6449232</v>
       </c>
       <c r="AO79" s="11">
-        <v>6449232</v>
+        <v>11168694</v>
       </c>
       <c r="AP79" s="11">
-        <v>11168694</v>
+        <v>11472060</v>
       </c>
       <c r="AQ79" s="11">
-        <v>11472060</v>
+        <v>17859296</v>
       </c>
       <c r="AR79" s="11">
-        <v>17859296</v>
+        <v>15068657</v>
       </c>
       <c r="AS79" s="11">
-        <v>15068657</v>
+        <v>6206195</v>
       </c>
       <c r="AT79" s="11">
-        <v>6206195</v>
+        <v>34010895</v>
       </c>
       <c r="AU79" s="11">
-        <v>34010895</v>
+        <v>10380730</v>
       </c>
       <c r="AV79" s="11">
-        <v>10380730</v>
+        <v>11597823</v>
       </c>
       <c r="AW79" s="11">
-        <v>11597823</v>
+        <v>9330949</v>
       </c>
       <c r="AX79" s="11">
-        <v>9330949</v>
+        <v>6732705</v>
       </c>
       <c r="AY79" s="11">
-        <v>6732705</v>
+        <v>11812361</v>
       </c>
       <c r="AZ79" s="11">
-        <v>11812361</v>
+        <v>8501701</v>
       </c>
       <c r="BA79" s="11">
-        <v>8501701</v>
+        <v>11865318</v>
       </c>
       <c r="BB79" s="11">
-        <v>11865318</v>
+        <v>12143829</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10330,35 +10330,35 @@
       <c r="X81" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>61</v>
+      <c r="Y81" s="11">
+        <v>26663</v>
       </c>
       <c r="Z81" s="11">
-        <v>26663</v>
+        <v>36328</v>
       </c>
       <c r="AA81" s="11">
-        <v>36328</v>
+        <v>35307</v>
       </c>
       <c r="AB81" s="11">
-        <v>35307</v>
+        <v>36300</v>
       </c>
       <c r="AC81" s="11">
+        <v>36352</v>
+      </c>
+      <c r="AD81" s="11">
         <v>36300</v>
       </c>
-      <c r="AD81" s="11">
-        <v>36352</v>
-      </c>
       <c r="AE81" s="11">
+        <v>36380</v>
+      </c>
+      <c r="AF81" s="11">
+        <v>36417</v>
+      </c>
+      <c r="AG81" s="11">
         <v>36300</v>
       </c>
-      <c r="AF81" s="11">
-        <v>36380</v>
-      </c>
-      <c r="AG81" s="11">
-        <v>36417</v>
-      </c>
-      <c r="AH81" s="11">
-        <v>36300</v>
+      <c r="AH81" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AI81" s="11" t="s">
         <v>61</v>
@@ -10390,35 +10390,35 @@
       <c r="AR81" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AS81" s="11" t="s">
-        <v>61</v>
+      <c r="AS81" s="11">
+        <v>63846</v>
       </c>
       <c r="AT81" s="11">
-        <v>63846</v>
+        <v>0</v>
       </c>
       <c r="AU81" s="11">
-        <v>0</v>
+        <v>74353</v>
       </c>
       <c r="AV81" s="11">
-        <v>74353</v>
+        <v>80016</v>
       </c>
       <c r="AW81" s="11">
-        <v>80016</v>
+        <v>75456</v>
       </c>
       <c r="AX81" s="11">
-        <v>75456</v>
+        <v>78449</v>
       </c>
       <c r="AY81" s="11">
-        <v>78449</v>
+        <v>82413</v>
       </c>
       <c r="AZ81" s="11">
-        <v>82413</v>
+        <v>79999</v>
       </c>
       <c r="BA81" s="11">
-        <v>79999</v>
+        <v>80084</v>
       </c>
       <c r="BB81" s="11">
-        <v>80084</v>
+        <v>85455</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10489,36 +10489,36 @@
       <c r="X82" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>61</v>
+      <c r="Y82" s="13">
+        <v>0</v>
       </c>
       <c r="Z82" s="13">
-        <v>0</v>
+        <v>66246</v>
       </c>
       <c r="AA82" s="13">
-        <v>66246</v>
+        <v>43233</v>
       </c>
       <c r="AB82" s="13">
-        <v>43233</v>
+        <v>43067</v>
       </c>
       <c r="AC82" s="13">
-        <v>43067</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="13">
-        <v>0</v>
+        <v>100050</v>
       </c>
       <c r="AE82" s="13">
-        <v>100050</v>
+        <v>94996</v>
       </c>
       <c r="AF82" s="13">
-        <v>94996</v>
+        <v>0</v>
       </c>
       <c r="AG82" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH82" s="13">
         <v>1000000</v>
       </c>
+      <c r="AH82" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AI82" s="13" t="s">
         <v>61</v>
       </c>
@@ -10549,11 +10549,11 @@
       <c r="AR82" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AS82" s="13" t="s">
-        <v>61</v>
+      <c r="AS82" s="13">
+        <v>109658</v>
       </c>
       <c r="AT82" s="13">
-        <v>109658</v>
+        <v>0</v>
       </c>
       <c r="AU82" s="13">
         <v>0</v>
@@ -10648,8 +10648,8 @@
       <c r="X83" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>61</v>
+      <c r="Y83" s="11">
+        <v>0</v>
       </c>
       <c r="Z83" s="11">
         <v>0</v>
@@ -10661,64 +10661,64 @@
         <v>0</v>
       </c>
       <c r="AC83" s="11">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AD83" s="11">
+        <v>3250284</v>
+      </c>
+      <c r="AE83" s="11">
+        <v>2998994</v>
+      </c>
+      <c r="AF83" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="11">
+        <v>469053</v>
+      </c>
+      <c r="AH83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS83" s="11">
         <v>3000000</v>
       </c>
-      <c r="AE83" s="11">
-        <v>3250284</v>
-      </c>
-      <c r="AF83" s="11">
-        <v>2998994</v>
-      </c>
-      <c r="AG83" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH83" s="11">
-        <v>469053</v>
-      </c>
-      <c r="AI83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS83" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="AT83" s="11">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AU83" s="11">
-        <v>0</v>
+        <v>9995365</v>
       </c>
       <c r="AV83" s="11">
-        <v>9995365</v>
+        <v>0</v>
       </c>
       <c r="AW83" s="11">
         <v>0</v>
@@ -10733,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="BA83" s="11">
-        <v>0</v>
+        <v>3185047</v>
       </c>
       <c r="BB83" s="11">
-        <v>3185047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10834,41 +10834,41 @@
       <c r="AG84" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH84" s="13" t="s">
-        <v>61</v>
+      <c r="AH84" s="13">
+        <v>28999</v>
       </c>
       <c r="AI84" s="13">
-        <v>28999</v>
+        <v>0</v>
       </c>
       <c r="AJ84" s="13">
-        <v>0</v>
+        <v>69999</v>
       </c>
       <c r="AK84" s="13">
+        <v>70000</v>
+      </c>
+      <c r="AL84" s="13">
         <v>69999</v>
       </c>
-      <c r="AL84" s="13">
-        <v>70000</v>
-      </c>
       <c r="AM84" s="13">
+        <v>66033</v>
+      </c>
+      <c r="AN84" s="13">
         <v>69999</v>
       </c>
-      <c r="AN84" s="13">
-        <v>66033</v>
-      </c>
       <c r="AO84" s="13">
-        <v>69999</v>
+        <v>67815</v>
       </c>
       <c r="AP84" s="13">
-        <v>67815</v>
+        <v>69408</v>
       </c>
       <c r="AQ84" s="13">
-        <v>69408</v>
+        <v>64591</v>
       </c>
       <c r="AR84" s="13">
-        <v>64591</v>
-      </c>
-      <c r="AS84" s="13">
         <v>67147</v>
+      </c>
+      <c r="AS84" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT84" s="13" t="s">
         <v>61</v>
@@ -10993,11 +10993,11 @@
       <c r="AG85" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AH85" s="11" t="s">
-        <v>61</v>
+      <c r="AH85" s="11">
+        <v>4018557</v>
       </c>
       <c r="AI85" s="11">
-        <v>4018557</v>
+        <v>0</v>
       </c>
       <c r="AJ85" s="11">
         <v>0</v>
@@ -11009,25 +11009,25 @@
         <v>0</v>
       </c>
       <c r="AM85" s="11">
-        <v>0</v>
+        <v>10014493</v>
       </c>
       <c r="AN85" s="11">
-        <v>10014493</v>
+        <v>0</v>
       </c>
       <c r="AO85" s="11">
-        <v>0</v>
+        <v>4222222</v>
       </c>
       <c r="AP85" s="11">
-        <v>4222222</v>
+        <v>0</v>
       </c>
       <c r="AQ85" s="11">
         <v>0</v>
       </c>
       <c r="AR85" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS85" s="11">
         <v>17980583</v>
+      </c>
+      <c r="AS85" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AT85" s="11" t="s">
         <v>61</v>
@@ -11152,41 +11152,41 @@
       <c r="AG86" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AH86" s="13" t="s">
-        <v>61</v>
+      <c r="AH86" s="13">
+        <v>0</v>
       </c>
       <c r="AI86" s="13">
-        <v>0</v>
+        <v>43239</v>
       </c>
       <c r="AJ86" s="13">
-        <v>43239</v>
+        <v>20229</v>
       </c>
       <c r="AK86" s="13">
-        <v>20229</v>
+        <v>43236</v>
       </c>
       <c r="AL86" s="13">
-        <v>43236</v>
+        <v>113439</v>
       </c>
       <c r="AM86" s="13">
-        <v>113439</v>
+        <v>108002</v>
       </c>
       <c r="AN86" s="13">
-        <v>108002</v>
+        <v>108000</v>
       </c>
       <c r="AO86" s="13">
+        <v>118905</v>
+      </c>
+      <c r="AP86" s="13">
+        <v>67613</v>
+      </c>
+      <c r="AQ86" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="13">
         <v>108000</v>
       </c>
-      <c r="AP86" s="13">
-        <v>118905</v>
-      </c>
-      <c r="AQ86" s="13">
-        <v>67613</v>
-      </c>
-      <c r="AR86" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS86" s="13">
-        <v>108000</v>
+      <c r="AS86" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT86" s="13" t="s">
         <v>61</v>

--- a/database/industries/darou/dalber/product/monthly.xlsx
+++ b/database/industries/darou/dalber/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dalber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F8D8DD-1342-482C-A09E-449F547F0A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AA7CBE-18D0-4781-94EB-01E9F43465D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دالبر-البرزدارو</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مایعات</t>
@@ -751,12 +751,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -811,7 +811,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -980,7 +980,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1427,157 +1427,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2943339</v>
+        <v>2724378</v>
       </c>
       <c r="F11" s="11">
-        <v>2789221</v>
+        <v>3205252</v>
       </c>
       <c r="G11" s="11">
-        <v>2724378</v>
+        <v>2915041</v>
       </c>
       <c r="H11" s="11">
-        <v>3205252</v>
+        <v>1446372</v>
       </c>
       <c r="I11" s="11">
-        <v>2915041</v>
+        <v>2341037</v>
       </c>
       <c r="J11" s="11">
-        <v>1446372</v>
+        <v>2774302</v>
       </c>
       <c r="K11" s="11">
-        <v>2341037</v>
+        <v>4543168</v>
       </c>
       <c r="L11" s="11">
-        <v>2774302</v>
+        <v>2729496</v>
       </c>
       <c r="M11" s="11">
-        <v>4543168</v>
+        <v>3573931</v>
       </c>
       <c r="N11" s="11">
-        <v>2729496</v>
+        <v>4562651</v>
       </c>
       <c r="O11" s="11">
-        <v>3573931</v>
+        <v>4097737</v>
       </c>
       <c r="P11" s="11">
-        <v>4562651</v>
+        <v>4078178</v>
       </c>
       <c r="Q11" s="11">
-        <v>4097737</v>
+        <v>3941216</v>
       </c>
       <c r="R11" s="11">
-        <v>4078178</v>
+        <v>3910261</v>
       </c>
       <c r="S11" s="11">
-        <v>3941216</v>
+        <v>2413337</v>
       </c>
       <c r="T11" s="11">
-        <v>3910261</v>
+        <v>1716131</v>
       </c>
       <c r="U11" s="11">
-        <v>2413337</v>
+        <v>2028379</v>
       </c>
       <c r="V11" s="11">
-        <v>1716131</v>
+        <v>1821958</v>
       </c>
       <c r="W11" s="11">
-        <v>2028379</v>
+        <v>2724282</v>
       </c>
       <c r="X11" s="11">
-        <v>1821958</v>
+        <v>3706594</v>
       </c>
       <c r="Y11" s="11">
-        <v>2724282</v>
+        <v>1576227</v>
       </c>
       <c r="Z11" s="11">
-        <v>3706594</v>
+        <v>2504023</v>
       </c>
       <c r="AA11" s="11">
-        <v>1576227</v>
+        <v>2186186</v>
       </c>
       <c r="AB11" s="11">
-        <v>2504023</v>
+        <v>2374428</v>
       </c>
       <c r="AC11" s="11">
-        <v>2186186</v>
+        <v>2572055</v>
       </c>
       <c r="AD11" s="11">
-        <v>2374428</v>
+        <v>1551501</v>
       </c>
       <c r="AE11" s="11">
-        <v>2572055</v>
+        <v>1001884</v>
       </c>
       <c r="AF11" s="11">
-        <v>1551501</v>
+        <v>965918</v>
       </c>
       <c r="AG11" s="11">
-        <v>1001884</v>
+        <v>1961286</v>
       </c>
       <c r="AH11" s="11">
-        <v>965918</v>
+        <v>2056064</v>
       </c>
       <c r="AI11" s="11">
-        <v>1961286</v>
+        <v>1613898</v>
       </c>
       <c r="AJ11" s="11">
-        <v>2056064</v>
+        <v>951312</v>
       </c>
       <c r="AK11" s="11">
-        <v>1613898</v>
+        <v>1674332</v>
       </c>
       <c r="AL11" s="11">
-        <v>951312</v>
+        <v>943633</v>
       </c>
       <c r="AM11" s="11">
-        <v>1674332</v>
+        <v>1143680</v>
       </c>
       <c r="AN11" s="11">
-        <v>943633</v>
+        <v>270002</v>
       </c>
       <c r="AO11" s="11">
-        <v>1143680</v>
+        <v>1686323</v>
       </c>
       <c r="AP11" s="11">
-        <v>270002</v>
+        <v>1338892</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1686323</v>
+        <v>1481458</v>
       </c>
       <c r="AR11" s="11">
-        <v>1338892</v>
+        <v>1187343</v>
       </c>
       <c r="AS11" s="11">
-        <v>1481458</v>
+        <v>2144224</v>
       </c>
       <c r="AT11" s="11">
-        <v>1187343</v>
+        <v>3477751</v>
       </c>
       <c r="AU11" s="11">
-        <v>2144224</v>
+        <v>2899351</v>
       </c>
       <c r="AV11" s="11">
-        <v>3477751</v>
+        <v>1980421</v>
       </c>
       <c r="AW11" s="11">
-        <v>2899351</v>
+        <v>3024731</v>
       </c>
       <c r="AX11" s="11">
-        <v>1980421</v>
+        <v>3211847</v>
       </c>
       <c r="AY11" s="11">
-        <v>3024731</v>
+        <v>3178619</v>
       </c>
       <c r="AZ11" s="11">
-        <v>3211847</v>
+        <v>3599971</v>
       </c>
       <c r="BA11" s="11">
-        <v>3178619</v>
+        <v>3450946</v>
       </c>
       <c r="BB11" s="11">
-        <v>3599971</v>
+        <v>3681600</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1586,157 +1586,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2124640</v>
+        <v>2168829</v>
       </c>
       <c r="F12" s="13">
-        <v>1790345</v>
+        <v>1984610</v>
       </c>
       <c r="G12" s="13">
-        <v>2168829</v>
+        <v>2050224</v>
       </c>
       <c r="H12" s="13">
-        <v>1984610</v>
+        <v>974126</v>
       </c>
       <c r="I12" s="13">
-        <v>2050224</v>
+        <v>1983284</v>
       </c>
       <c r="J12" s="13">
-        <v>974126</v>
+        <v>1867042</v>
       </c>
       <c r="K12" s="13">
-        <v>1983284</v>
+        <v>2600657</v>
       </c>
       <c r="L12" s="13">
-        <v>1867042</v>
+        <v>1744412</v>
       </c>
       <c r="M12" s="13">
-        <v>2600657</v>
+        <v>1971324</v>
       </c>
       <c r="N12" s="13">
-        <v>1744412</v>
+        <v>2016822</v>
       </c>
       <c r="O12" s="13">
-        <v>1971324</v>
+        <v>2021412</v>
       </c>
       <c r="P12" s="13">
-        <v>2016822</v>
+        <v>1457139</v>
       </c>
       <c r="Q12" s="13">
-        <v>2021412</v>
+        <v>1788825</v>
       </c>
       <c r="R12" s="13">
-        <v>1457139</v>
+        <v>2455481</v>
       </c>
       <c r="S12" s="13">
-        <v>1788825</v>
+        <v>1516603</v>
       </c>
       <c r="T12" s="13">
-        <v>2455481</v>
+        <v>842260</v>
       </c>
       <c r="U12" s="13">
-        <v>1516603</v>
+        <v>2245117</v>
       </c>
       <c r="V12" s="13">
-        <v>842260</v>
+        <v>2199628</v>
       </c>
       <c r="W12" s="13">
-        <v>2245117</v>
+        <v>2705727</v>
       </c>
       <c r="X12" s="13">
-        <v>2199628</v>
+        <v>2318675</v>
       </c>
       <c r="Y12" s="13">
-        <v>2705727</v>
+        <v>2091685</v>
       </c>
       <c r="Z12" s="13">
-        <v>2318675</v>
+        <v>2664834</v>
       </c>
       <c r="AA12" s="13">
-        <v>2091685</v>
+        <v>2678537</v>
       </c>
       <c r="AB12" s="13">
-        <v>2664834</v>
+        <v>2518350</v>
       </c>
       <c r="AC12" s="13">
-        <v>2678537</v>
+        <v>2676027</v>
       </c>
       <c r="AD12" s="13">
-        <v>2518350</v>
+        <v>2476107</v>
       </c>
       <c r="AE12" s="13">
-        <v>2676027</v>
+        <v>1258718</v>
       </c>
       <c r="AF12" s="13">
-        <v>2476107</v>
+        <v>876955</v>
       </c>
       <c r="AG12" s="13">
-        <v>1258718</v>
+        <v>1585868</v>
       </c>
       <c r="AH12" s="13">
-        <v>876955</v>
+        <v>2116939</v>
       </c>
       <c r="AI12" s="13">
-        <v>1585868</v>
+        <v>2212439</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2116939</v>
+        <v>1275706</v>
       </c>
       <c r="AK12" s="13">
-        <v>2212439</v>
+        <v>1764142</v>
       </c>
       <c r="AL12" s="13">
-        <v>1275706</v>
+        <v>1700470</v>
       </c>
       <c r="AM12" s="13">
-        <v>1764142</v>
+        <v>1489602</v>
       </c>
       <c r="AN12" s="13">
-        <v>1700470</v>
+        <v>1740487</v>
       </c>
       <c r="AO12" s="13">
-        <v>1489602</v>
+        <v>1512768</v>
       </c>
       <c r="AP12" s="13">
-        <v>1740487</v>
+        <v>1356131</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1512768</v>
+        <v>1298478</v>
       </c>
       <c r="AR12" s="13">
-        <v>1356131</v>
+        <v>793152</v>
       </c>
       <c r="AS12" s="13">
-        <v>1298478</v>
+        <v>1428660</v>
       </c>
       <c r="AT12" s="13">
-        <v>793152</v>
+        <v>1705308</v>
       </c>
       <c r="AU12" s="13">
-        <v>1428660</v>
+        <v>1543385</v>
       </c>
       <c r="AV12" s="13">
-        <v>1705308</v>
+        <v>1323944</v>
       </c>
       <c r="AW12" s="13">
-        <v>1543385</v>
+        <v>2501790</v>
       </c>
       <c r="AX12" s="13">
-        <v>1323944</v>
+        <v>2336111</v>
       </c>
       <c r="AY12" s="13">
-        <v>2501790</v>
+        <v>2245369</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2336111</v>
+        <v>2074124</v>
       </c>
       <c r="BA12" s="13">
-        <v>2245369</v>
+        <v>2118880</v>
       </c>
       <c r="BB12" s="13">
-        <v>2074124</v>
+        <v>2290262</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1745,157 +1745,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>58136</v>
+        <v>58831</v>
       </c>
       <c r="F13" s="11">
-        <v>39000</v>
+        <v>51923</v>
       </c>
       <c r="G13" s="11">
-        <v>58831</v>
+        <v>59490</v>
       </c>
       <c r="H13" s="11">
-        <v>51923</v>
+        <v>25187</v>
       </c>
       <c r="I13" s="11">
-        <v>59490</v>
+        <v>50470</v>
       </c>
       <c r="J13" s="11">
-        <v>25187</v>
+        <v>50782</v>
       </c>
       <c r="K13" s="11">
-        <v>50470</v>
+        <v>96176</v>
       </c>
       <c r="L13" s="11">
-        <v>50782</v>
+        <v>61763</v>
       </c>
       <c r="M13" s="11">
-        <v>96176</v>
+        <v>52575</v>
       </c>
       <c r="N13" s="11">
-        <v>61763</v>
+        <v>55336</v>
       </c>
       <c r="O13" s="11">
-        <v>52575</v>
+        <v>65466</v>
       </c>
       <c r="P13" s="11">
-        <v>55336</v>
+        <v>49923</v>
       </c>
       <c r="Q13" s="11">
-        <v>65466</v>
+        <v>62650</v>
       </c>
       <c r="R13" s="11">
-        <v>49923</v>
+        <v>51884</v>
       </c>
       <c r="S13" s="11">
-        <v>62650</v>
+        <v>37492</v>
       </c>
       <c r="T13" s="11">
-        <v>51884</v>
+        <v>34752</v>
       </c>
       <c r="U13" s="11">
-        <v>37492</v>
+        <v>57610</v>
       </c>
       <c r="V13" s="11">
-        <v>34752</v>
+        <v>49077</v>
       </c>
       <c r="W13" s="11">
-        <v>57610</v>
+        <v>56668</v>
       </c>
       <c r="X13" s="11">
-        <v>49077</v>
+        <v>71838</v>
       </c>
       <c r="Y13" s="11">
-        <v>56668</v>
+        <v>43512</v>
       </c>
       <c r="Z13" s="11">
-        <v>71838</v>
+        <v>67053</v>
       </c>
       <c r="AA13" s="11">
-        <v>43512</v>
+        <v>57876</v>
       </c>
       <c r="AB13" s="11">
-        <v>67053</v>
+        <v>85960</v>
       </c>
       <c r="AC13" s="11">
-        <v>57876</v>
+        <v>94113</v>
       </c>
       <c r="AD13" s="11">
-        <v>85960</v>
+        <v>81200</v>
       </c>
       <c r="AE13" s="11">
-        <v>94113</v>
+        <v>49207</v>
       </c>
       <c r="AF13" s="11">
-        <v>81200</v>
+        <v>57033</v>
       </c>
       <c r="AG13" s="11">
-        <v>49207</v>
+        <v>70638</v>
       </c>
       <c r="AH13" s="11">
-        <v>57033</v>
+        <v>74580</v>
       </c>
       <c r="AI13" s="11">
-        <v>70638</v>
+        <v>72369</v>
       </c>
       <c r="AJ13" s="11">
-        <v>74580</v>
+        <v>61491</v>
       </c>
       <c r="AK13" s="11">
-        <v>72369</v>
+        <v>82913</v>
       </c>
       <c r="AL13" s="11">
-        <v>61491</v>
+        <v>90823</v>
       </c>
       <c r="AM13" s="11">
-        <v>82913</v>
+        <v>62981</v>
       </c>
       <c r="AN13" s="11">
-        <v>90823</v>
+        <v>81924</v>
       </c>
       <c r="AO13" s="11">
-        <v>62981</v>
+        <v>81821</v>
       </c>
       <c r="AP13" s="11">
-        <v>81924</v>
+        <v>75179</v>
       </c>
       <c r="AQ13" s="11">
-        <v>81821</v>
+        <v>64991</v>
       </c>
       <c r="AR13" s="11">
-        <v>75179</v>
+        <v>18572</v>
       </c>
       <c r="AS13" s="11">
-        <v>64991</v>
+        <v>78526</v>
       </c>
       <c r="AT13" s="11">
-        <v>18572</v>
+        <v>84370</v>
       </c>
       <c r="AU13" s="11">
-        <v>78526</v>
+        <v>89594</v>
       </c>
       <c r="AV13" s="11">
-        <v>84370</v>
+        <v>87119</v>
       </c>
       <c r="AW13" s="11">
-        <v>89594</v>
+        <v>95513</v>
       </c>
       <c r="AX13" s="11">
-        <v>87119</v>
+        <v>90553</v>
       </c>
       <c r="AY13" s="11">
-        <v>95513</v>
+        <v>98611</v>
       </c>
       <c r="AZ13" s="11">
-        <v>90553</v>
+        <v>88745</v>
       </c>
       <c r="BA13" s="11">
-        <v>98611</v>
+        <v>96706</v>
       </c>
       <c r="BB13" s="11">
-        <v>88745</v>
+        <v>88290</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>60</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="BA14" s="9"/>
       <c r="BB14" s="9"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>55</v>
       </c>
@@ -2014,39 +2014,39 @@
       <c r="V15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>61</v>
+      <c r="W15" s="11">
+        <v>913045</v>
+      </c>
+      <c r="X15" s="11">
+        <v>917396</v>
       </c>
       <c r="Y15" s="11">
-        <v>913045</v>
+        <v>968659</v>
       </c>
       <c r="Z15" s="11">
-        <v>917396</v>
+        <v>1485844</v>
       </c>
       <c r="AA15" s="11">
-        <v>968659</v>
+        <v>1416086</v>
       </c>
       <c r="AB15" s="11">
-        <v>1485844</v>
+        <v>1427246</v>
       </c>
       <c r="AC15" s="11">
-        <v>1416086</v>
+        <v>872498</v>
       </c>
       <c r="AD15" s="11">
-        <v>1427246</v>
+        <v>1347572</v>
       </c>
       <c r="AE15" s="11">
-        <v>872498</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>1347572</v>
-      </c>
-      <c r="AG15" s="11">
         <v>961917</v>
       </c>
+      <c r="AF15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AH15" s="11" t="s">
         <v>61</v>
       </c>
@@ -2074,44 +2074,44 @@
       <c r="AP15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AQ15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>61</v>
+      <c r="AQ15" s="11">
+        <v>936323</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>595818</v>
       </c>
       <c r="AS15" s="11">
-        <v>936323</v>
+        <v>450773</v>
       </c>
       <c r="AT15" s="11">
-        <v>595818</v>
+        <v>17000</v>
       </c>
       <c r="AU15" s="11">
-        <v>450773</v>
+        <v>526109</v>
       </c>
       <c r="AV15" s="11">
-        <v>17000</v>
+        <v>469854</v>
       </c>
       <c r="AW15" s="11">
-        <v>526109</v>
+        <v>425672</v>
       </c>
       <c r="AX15" s="11">
-        <v>469854</v>
+        <v>308107</v>
       </c>
       <c r="AY15" s="11">
-        <v>425672</v>
+        <v>1066456</v>
       </c>
       <c r="AZ15" s="11">
-        <v>308107</v>
+        <v>788505</v>
       </c>
       <c r="BA15" s="11">
-        <v>1066456</v>
+        <v>670944</v>
       </c>
       <c r="BB15" s="11">
-        <v>788505</v>
+        <v>694351</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>57</v>
       </c>
@@ -2173,39 +2173,39 @@
       <c r="V16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>61</v>
+      <c r="W16" s="13">
+        <v>3722</v>
+      </c>
+      <c r="X16" s="13">
+        <v>102194</v>
       </c>
       <c r="Y16" s="13">
-        <v>3722</v>
+        <v>4885</v>
       </c>
       <c r="Z16" s="13">
-        <v>102194</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="13">
-        <v>4885</v>
+        <v>5978</v>
       </c>
       <c r="AB16" s="13">
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="AC16" s="13">
-        <v>5978</v>
+        <v>40170</v>
       </c>
       <c r="AD16" s="13">
-        <v>1870</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="13">
-        <v>40170</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="13">
         <v>43259</v>
       </c>
+      <c r="AF16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AH16" s="13" t="s">
         <v>61</v>
       </c>
@@ -2233,44 +2233,44 @@
       <c r="AP16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>61</v>
+      <c r="AQ16" s="13">
+        <v>136604</v>
       </c>
       <c r="AR16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AS16" s="13">
-        <v>136604</v>
+      <c r="AS16" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT16" s="13" t="s">
         <v>61</v>
       </c>
       <c r="AU16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW16" s="13">
         <v>450</v>
       </c>
-      <c r="AX16" s="13">
+      <c r="AV16" s="13">
         <v>4484</v>
       </c>
-      <c r="AY16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ16" s="13" t="s">
-        <v>61</v>
+      <c r="AW16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="13">
+        <v>35116</v>
       </c>
       <c r="BA16" s="13">
-        <v>0</v>
+        <v>94887</v>
       </c>
       <c r="BB16" s="13">
-        <v>35116</v>
+        <v>136723</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
@@ -2332,39 +2332,39 @@
       <c r="V17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>61</v>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
       </c>
       <c r="Z17" s="11">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="AA17" s="11">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="AB17" s="11">
-        <v>1382</v>
+        <v>493</v>
       </c>
       <c r="AC17" s="11">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AD17" s="11">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="11">
-        <v>500</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="11">
         <v>2425</v>
       </c>
+      <c r="AF17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AH17" s="11" t="s">
         <v>61</v>
       </c>
@@ -2392,20 +2392,20 @@
       <c r="AP17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>61</v>
+      <c r="AQ17" s="11">
+        <v>0</v>
       </c>
       <c r="AR17" s="11" t="s">
         <v>61</v>
       </c>
       <c r="AS17" s="11">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="AT17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AU17" s="11">
-        <v>768</v>
+      <c r="AU17" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AV17" s="11" t="s">
         <v>61</v>
@@ -2413,23 +2413,23 @@
       <c r="AW17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AX17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA17" s="11">
+      <c r="AX17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY17" s="11">
         <v>140</v>
       </c>
-      <c r="BB17" s="11">
+      <c r="AZ17" s="11">
         <v>1451</v>
       </c>
+      <c r="BA17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB17" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
@@ -2518,45 +2518,45 @@
       <c r="AE18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG18" s="13" t="s">
-        <v>61</v>
+      <c r="AF18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>19960</v>
       </c>
       <c r="AH18" s="13">
-        <v>0</v>
+        <v>246158</v>
       </c>
       <c r="AI18" s="13">
-        <v>19960</v>
+        <v>757567</v>
       </c>
       <c r="AJ18" s="13">
-        <v>246158</v>
+        <v>527953</v>
       </c>
       <c r="AK18" s="13">
-        <v>757567</v>
+        <v>694397</v>
       </c>
       <c r="AL18" s="13">
-        <v>527953</v>
+        <v>941248</v>
       </c>
       <c r="AM18" s="13">
-        <v>694397</v>
+        <v>325115</v>
       </c>
       <c r="AN18" s="13">
-        <v>941248</v>
+        <v>1215189</v>
       </c>
       <c r="AO18" s="13">
-        <v>325115</v>
+        <v>381496</v>
       </c>
       <c r="AP18" s="13">
-        <v>1215189</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>381496</v>
-      </c>
-      <c r="AR18" s="13">
         <v>404467</v>
       </c>
+      <c r="AQ18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AS18" s="13" t="s">
         <v>61</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>64</v>
       </c>
@@ -2677,45 +2677,45 @@
       <c r="AE19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AF19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>0</v>
+      <c r="AF19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>417</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AI19" s="11">
-        <v>417</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>61</v>
+        <v>3497</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>1</v>
       </c>
       <c r="AK19" s="11">
-        <v>3497</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="AL19" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AM19" s="11">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="AN19" s="11" t="s">
         <v>61</v>
       </c>
       <c r="AO19" s="11">
-        <v>134</v>
-      </c>
-      <c r="AP19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ19" s="11">
         <v>75</v>
       </c>
-      <c r="AR19" s="11">
+      <c r="AP19" s="11">
         <v>309</v>
       </c>
+      <c r="AQ19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR19" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AS19" s="11" t="s">
         <v>61</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2836,45 +2836,45 @@
       <c r="AE20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF20" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>61</v>
+      <c r="AF20" s="13">
+        <v>83707</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>35883</v>
       </c>
       <c r="AH20" s="13">
-        <v>83707</v>
+        <v>254878</v>
       </c>
       <c r="AI20" s="13">
-        <v>35883</v>
+        <v>374468</v>
       </c>
       <c r="AJ20" s="13">
-        <v>254878</v>
+        <v>118426</v>
       </c>
       <c r="AK20" s="13">
-        <v>374468</v>
+        <v>209881</v>
       </c>
       <c r="AL20" s="13">
-        <v>118426</v>
+        <v>137878</v>
       </c>
       <c r="AM20" s="13">
-        <v>209881</v>
+        <v>296722</v>
       </c>
       <c r="AN20" s="13">
-        <v>137878</v>
+        <v>31766</v>
       </c>
       <c r="AO20" s="13">
-        <v>296722</v>
+        <v>98914</v>
       </c>
       <c r="AP20" s="13">
-        <v>31766</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>98914</v>
-      </c>
-      <c r="AR20" s="13">
         <v>100931</v>
       </c>
+      <c r="AQ20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR20" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AS20" s="13" t="s">
         <v>61</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>67</v>
       </c>
@@ -2966,11 +2966,11 @@
       <c r="V21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="W21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>61</v>
+      <c r="W21" s="15">
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
+        <v>0</v>
       </c>
       <c r="Y21" s="15">
         <v>0</v>
@@ -3063,164 +3063,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17">
-        <v>5126115</v>
+        <v>4952038</v>
       </c>
       <c r="F22" s="17">
-        <v>4618566</v>
+        <v>5241785</v>
       </c>
       <c r="G22" s="17">
-        <v>4952038</v>
+        <v>5024755</v>
       </c>
       <c r="H22" s="17">
-        <v>5241785</v>
+        <v>2445685</v>
       </c>
       <c r="I22" s="17">
-        <v>5024755</v>
+        <v>4374791</v>
       </c>
       <c r="J22" s="17">
-        <v>2445685</v>
+        <v>4692126</v>
       </c>
       <c r="K22" s="17">
-        <v>4374791</v>
+        <v>7240001</v>
       </c>
       <c r="L22" s="17">
-        <v>4692126</v>
+        <v>4535671</v>
       </c>
       <c r="M22" s="17">
-        <v>7240001</v>
+        <v>5597830</v>
       </c>
       <c r="N22" s="17">
-        <v>4535671</v>
+        <v>6634809</v>
       </c>
       <c r="O22" s="17">
-        <v>5597830</v>
+        <v>6184615</v>
       </c>
       <c r="P22" s="17">
-        <v>6634809</v>
+        <v>5585240</v>
       </c>
       <c r="Q22" s="17">
-        <v>6184615</v>
+        <v>5792691</v>
       </c>
       <c r="R22" s="17">
-        <v>5585240</v>
+        <v>6417626</v>
       </c>
       <c r="S22" s="17">
-        <v>5792691</v>
+        <v>3967432</v>
       </c>
       <c r="T22" s="17">
-        <v>6417626</v>
+        <v>2593143</v>
       </c>
       <c r="U22" s="17">
-        <v>3967432</v>
+        <v>4331106</v>
       </c>
       <c r="V22" s="17">
-        <v>2593143</v>
+        <v>4070663</v>
       </c>
       <c r="W22" s="17">
-        <v>4331106</v>
+        <v>6403444</v>
       </c>
       <c r="X22" s="17">
-        <v>4070663</v>
+        <v>7116697</v>
       </c>
       <c r="Y22" s="17">
-        <v>6403444</v>
+        <v>4684968</v>
       </c>
       <c r="Z22" s="17">
-        <v>7116697</v>
+        <v>6723136</v>
       </c>
       <c r="AA22" s="17">
-        <v>4684968</v>
+        <v>6345160</v>
       </c>
       <c r="AB22" s="17">
-        <v>6723136</v>
+        <v>6408347</v>
       </c>
       <c r="AC22" s="17">
-        <v>6345160</v>
+        <v>6255363</v>
       </c>
       <c r="AD22" s="17">
-        <v>6408347</v>
+        <v>5456380</v>
       </c>
       <c r="AE22" s="17">
-        <v>6255363</v>
+        <v>3317410</v>
       </c>
       <c r="AF22" s="17">
-        <v>5456380</v>
+        <v>1983613</v>
       </c>
       <c r="AG22" s="17">
-        <v>3317410</v>
+        <v>3674052</v>
       </c>
       <c r="AH22" s="17">
-        <v>1983613</v>
+        <v>4748619</v>
       </c>
       <c r="AI22" s="17">
-        <v>3674052</v>
+        <v>5034238</v>
       </c>
       <c r="AJ22" s="17">
-        <v>4748619</v>
+        <v>2934889</v>
       </c>
       <c r="AK22" s="17">
-        <v>5034238</v>
+        <v>4425940</v>
       </c>
       <c r="AL22" s="17">
-        <v>2934889</v>
+        <v>3814052</v>
       </c>
       <c r="AM22" s="17">
-        <v>4425940</v>
+        <v>3318234</v>
       </c>
       <c r="AN22" s="17">
-        <v>3814052</v>
+        <v>3339368</v>
       </c>
       <c r="AO22" s="17">
-        <v>3318234</v>
+        <v>3761397</v>
       </c>
       <c r="AP22" s="17">
-        <v>3339368</v>
+        <v>3275909</v>
       </c>
       <c r="AQ22" s="17">
-        <v>3761397</v>
+        <v>3917854</v>
       </c>
       <c r="AR22" s="17">
-        <v>3275909</v>
+        <v>2594885</v>
       </c>
       <c r="AS22" s="17">
-        <v>3917854</v>
+        <v>4102951</v>
       </c>
       <c r="AT22" s="17">
-        <v>2594885</v>
+        <v>5284429</v>
       </c>
       <c r="AU22" s="17">
-        <v>4102951</v>
+        <v>5058889</v>
       </c>
       <c r="AV22" s="17">
-        <v>5284429</v>
+        <v>3865822</v>
       </c>
       <c r="AW22" s="17">
-        <v>5058889</v>
+        <v>6047706</v>
       </c>
       <c r="AX22" s="17">
-        <v>3865822</v>
+        <v>5946618</v>
       </c>
       <c r="AY22" s="17">
-        <v>6047706</v>
+        <v>6589195</v>
       </c>
       <c r="AZ22" s="17">
-        <v>5946618</v>
+        <v>6587912</v>
       </c>
       <c r="BA22" s="17">
-        <v>6589195</v>
+        <v>6432363</v>
       </c>
       <c r="BB22" s="17">
-        <v>6587912</v>
+        <v>6891226</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3275,7 +3275,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3330,7 +3330,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3385,7 +3385,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>69</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3597,7 +3597,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>55</v>
       </c>
@@ -3663,157 +3663,157 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>3070972</v>
+        <v>3037100</v>
       </c>
       <c r="F29" s="11">
-        <v>2611979</v>
+        <v>3187732</v>
       </c>
       <c r="G29" s="11">
-        <v>3037100</v>
+        <v>3086613</v>
       </c>
       <c r="H29" s="11">
-        <v>3187732</v>
+        <v>1353303</v>
       </c>
       <c r="I29" s="11">
-        <v>3086613</v>
+        <v>3081912</v>
       </c>
       <c r="J29" s="11">
-        <v>1353303</v>
+        <v>2802694</v>
       </c>
       <c r="K29" s="11">
-        <v>3081912</v>
+        <v>3136316</v>
       </c>
       <c r="L29" s="11">
-        <v>2802694</v>
+        <v>2531560</v>
       </c>
       <c r="M29" s="11">
-        <v>3136316</v>
+        <v>3662727</v>
       </c>
       <c r="N29" s="11">
-        <v>2531560</v>
+        <v>4051139</v>
       </c>
       <c r="O29" s="11">
-        <v>3662727</v>
+        <v>4666877</v>
       </c>
       <c r="P29" s="11">
-        <v>4051139</v>
+        <v>5146671</v>
       </c>
       <c r="Q29" s="11">
-        <v>4666877</v>
+        <v>3263135</v>
       </c>
       <c r="R29" s="11">
-        <v>5146671</v>
+        <v>3123669</v>
       </c>
       <c r="S29" s="11">
-        <v>3263135</v>
+        <v>2602014</v>
       </c>
       <c r="T29" s="11">
-        <v>3123669</v>
+        <v>2155609</v>
       </c>
       <c r="U29" s="11">
-        <v>2602014</v>
+        <v>1737308</v>
       </c>
       <c r="V29" s="11">
-        <v>2155609</v>
+        <v>1606975</v>
       </c>
       <c r="W29" s="11">
-        <v>1737308</v>
+        <v>3464989</v>
       </c>
       <c r="X29" s="11">
-        <v>1606975</v>
+        <v>3398922</v>
       </c>
       <c r="Y29" s="11">
-        <v>3464989</v>
+        <v>1974732</v>
       </c>
       <c r="Z29" s="11">
-        <v>3398922</v>
+        <v>2425308</v>
       </c>
       <c r="AA29" s="11">
-        <v>1974732</v>
+        <v>2413830</v>
       </c>
       <c r="AB29" s="11">
-        <v>2425308</v>
+        <v>2489502</v>
       </c>
       <c r="AC29" s="11">
-        <v>2413830</v>
+        <v>1511842</v>
       </c>
       <c r="AD29" s="11">
-        <v>2489502</v>
+        <v>668932</v>
       </c>
       <c r="AE29" s="11">
-        <v>1511842</v>
+        <v>1467998</v>
       </c>
       <c r="AF29" s="11">
-        <v>668932</v>
+        <v>411147</v>
       </c>
       <c r="AG29" s="11">
-        <v>1467998</v>
+        <v>1764615</v>
       </c>
       <c r="AH29" s="11">
-        <v>411147</v>
+        <v>1705379</v>
       </c>
       <c r="AI29" s="11">
-        <v>1764615</v>
+        <v>963467</v>
       </c>
       <c r="AJ29" s="11">
-        <v>1705379</v>
+        <v>1385371</v>
       </c>
       <c r="AK29" s="11">
-        <v>963467</v>
+        <v>1890585</v>
       </c>
       <c r="AL29" s="11">
-        <v>1385371</v>
+        <v>1665016</v>
       </c>
       <c r="AM29" s="11">
-        <v>1890585</v>
+        <v>2046632</v>
       </c>
       <c r="AN29" s="11">
-        <v>1665016</v>
+        <v>1420931</v>
       </c>
       <c r="AO29" s="11">
-        <v>2046632</v>
+        <v>719309</v>
       </c>
       <c r="AP29" s="11">
-        <v>1420931</v>
+        <v>1725938</v>
       </c>
       <c r="AQ29" s="11">
-        <v>719309</v>
+        <v>1851804</v>
       </c>
       <c r="AR29" s="11">
-        <v>1725938</v>
+        <v>1405616</v>
       </c>
       <c r="AS29" s="11">
-        <v>1851804</v>
+        <v>2386810</v>
       </c>
       <c r="AT29" s="11">
-        <v>1405616</v>
+        <v>3523864</v>
       </c>
       <c r="AU29" s="11">
-        <v>2386810</v>
+        <v>3274656</v>
       </c>
       <c r="AV29" s="11">
-        <v>3523864</v>
+        <v>2249364</v>
       </c>
       <c r="AW29" s="11">
-        <v>3274656</v>
+        <v>3013748</v>
       </c>
       <c r="AX29" s="11">
-        <v>2249364</v>
+        <v>3209545</v>
       </c>
       <c r="AY29" s="11">
-        <v>3013748</v>
+        <v>3259521</v>
       </c>
       <c r="AZ29" s="11">
-        <v>3209545</v>
+        <v>3225944</v>
       </c>
       <c r="BA29" s="11">
-        <v>3259521</v>
+        <v>3588731</v>
       </c>
       <c r="BB29" s="11">
-        <v>3225944</v>
+        <v>3742252</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
@@ -3822,157 +3822,157 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>1949983</v>
+        <v>1911346</v>
       </c>
       <c r="F30" s="13">
-        <v>1636045</v>
+        <v>2041487</v>
       </c>
       <c r="G30" s="13">
-        <v>1911346</v>
+        <v>1687369</v>
       </c>
       <c r="H30" s="13">
-        <v>2041487</v>
+        <v>1055521</v>
       </c>
       <c r="I30" s="13">
-        <v>1687369</v>
+        <v>2073157</v>
       </c>
       <c r="J30" s="13">
-        <v>1055521</v>
+        <v>2329482</v>
       </c>
       <c r="K30" s="13">
-        <v>2073157</v>
+        <v>1801459</v>
       </c>
       <c r="L30" s="13">
-        <v>2329482</v>
+        <v>1902377</v>
       </c>
       <c r="M30" s="13">
-        <v>1801459</v>
+        <v>2848948</v>
       </c>
       <c r="N30" s="13">
-        <v>1902377</v>
+        <v>1076125</v>
       </c>
       <c r="O30" s="13">
-        <v>2848948</v>
+        <v>1498942</v>
       </c>
       <c r="P30" s="13">
-        <v>1076125</v>
+        <v>2309784</v>
       </c>
       <c r="Q30" s="13">
-        <v>1498942</v>
+        <v>1926220</v>
       </c>
       <c r="R30" s="13">
-        <v>2309784</v>
+        <v>1816054</v>
       </c>
       <c r="S30" s="13">
-        <v>1926220</v>
+        <v>1470369</v>
       </c>
       <c r="T30" s="13">
-        <v>1816054</v>
+        <v>564712</v>
       </c>
       <c r="U30" s="13">
-        <v>1470369</v>
+        <v>2176055</v>
       </c>
       <c r="V30" s="13">
-        <v>564712</v>
+        <v>2921620</v>
       </c>
       <c r="W30" s="13">
-        <v>2176055</v>
+        <v>2590543</v>
       </c>
       <c r="X30" s="13">
-        <v>2921620</v>
+        <v>2115818</v>
       </c>
       <c r="Y30" s="13">
-        <v>2590543</v>
+        <v>2120976</v>
       </c>
       <c r="Z30" s="13">
-        <v>2115818</v>
+        <v>2574908</v>
       </c>
       <c r="AA30" s="13">
-        <v>2120976</v>
+        <v>1439240</v>
       </c>
       <c r="AB30" s="13">
-        <v>2574908</v>
+        <v>1949484</v>
       </c>
       <c r="AC30" s="13">
-        <v>1439240</v>
+        <v>1841148</v>
       </c>
       <c r="AD30" s="13">
-        <v>1949484</v>
+        <v>1256558</v>
       </c>
       <c r="AE30" s="13">
-        <v>1841148</v>
+        <v>1547764</v>
       </c>
       <c r="AF30" s="13">
-        <v>1256558</v>
+        <v>837734</v>
       </c>
       <c r="AG30" s="13">
-        <v>1547764</v>
+        <v>2203278</v>
       </c>
       <c r="AH30" s="13">
-        <v>837734</v>
+        <v>1977521</v>
       </c>
       <c r="AI30" s="13">
-        <v>2203278</v>
+        <v>1834115</v>
       </c>
       <c r="AJ30" s="13">
-        <v>1977521</v>
+        <v>1716712</v>
       </c>
       <c r="AK30" s="13">
-        <v>1834115</v>
+        <v>1328703</v>
       </c>
       <c r="AL30" s="13">
-        <v>1716712</v>
+        <v>1218139</v>
       </c>
       <c r="AM30" s="13">
-        <v>1328703</v>
+        <v>1279701</v>
       </c>
       <c r="AN30" s="13">
-        <v>1218139</v>
+        <v>1048473</v>
       </c>
       <c r="AO30" s="13">
-        <v>1279701</v>
+        <v>1333045</v>
       </c>
       <c r="AP30" s="13">
-        <v>1048473</v>
+        <v>1236200</v>
       </c>
       <c r="AQ30" s="13">
-        <v>1333045</v>
+        <v>1662039</v>
       </c>
       <c r="AR30" s="13">
-        <v>1236200</v>
+        <v>813636</v>
       </c>
       <c r="AS30" s="13">
-        <v>1662039</v>
+        <v>2541310</v>
       </c>
       <c r="AT30" s="13">
-        <v>813636</v>
+        <v>2393463</v>
       </c>
       <c r="AU30" s="13">
-        <v>2541310</v>
+        <v>2547668</v>
       </c>
       <c r="AV30" s="13">
-        <v>2393463</v>
+        <v>2713719</v>
       </c>
       <c r="AW30" s="13">
-        <v>2547668</v>
+        <v>2585290</v>
       </c>
       <c r="AX30" s="13">
-        <v>2713431</v>
+        <v>2386859</v>
       </c>
       <c r="AY30" s="13">
-        <v>2585290</v>
+        <v>2337139</v>
       </c>
       <c r="AZ30" s="13">
-        <v>2386859</v>
+        <v>933166</v>
       </c>
       <c r="BA30" s="13">
-        <v>2337139</v>
+        <v>3321497</v>
       </c>
       <c r="BB30" s="13">
-        <v>933166</v>
+        <v>2531329</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>59</v>
       </c>
@@ -3981,157 +3981,157 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>50177</v>
+        <v>46524</v>
       </c>
       <c r="F31" s="11">
-        <v>41321</v>
+        <v>67198</v>
       </c>
       <c r="G31" s="11">
-        <v>46524</v>
+        <v>52475</v>
       </c>
       <c r="H31" s="11">
-        <v>67198</v>
+        <v>15078</v>
       </c>
       <c r="I31" s="11">
-        <v>52475</v>
+        <v>52615</v>
       </c>
       <c r="J31" s="11">
-        <v>15078</v>
+        <v>74824</v>
       </c>
       <c r="K31" s="11">
-        <v>52615</v>
+        <v>60762</v>
       </c>
       <c r="L31" s="11">
-        <v>74824</v>
+        <v>56586</v>
       </c>
       <c r="M31" s="11">
-        <v>60762</v>
+        <v>62777</v>
       </c>
       <c r="N31" s="11">
-        <v>56586</v>
+        <v>60839</v>
       </c>
       <c r="O31" s="11">
-        <v>62777</v>
+        <v>66085</v>
       </c>
       <c r="P31" s="11">
-        <v>60839</v>
+        <v>58722</v>
       </c>
       <c r="Q31" s="11">
-        <v>66085</v>
+        <v>57304</v>
       </c>
       <c r="R31" s="11">
-        <v>58722</v>
+        <v>57485</v>
       </c>
       <c r="S31" s="11">
-        <v>57304</v>
+        <v>34846</v>
       </c>
       <c r="T31" s="11">
-        <v>57485</v>
+        <v>23524</v>
       </c>
       <c r="U31" s="11">
-        <v>34846</v>
+        <v>65579</v>
       </c>
       <c r="V31" s="11">
-        <v>23524</v>
+        <v>52270</v>
       </c>
       <c r="W31" s="11">
-        <v>65579</v>
+        <v>173131</v>
       </c>
       <c r="X31" s="11">
-        <v>52270</v>
+        <v>71616</v>
       </c>
       <c r="Y31" s="11">
-        <v>173131</v>
+        <v>47426</v>
       </c>
       <c r="Z31" s="11">
-        <v>71616</v>
+        <v>63430</v>
       </c>
       <c r="AA31" s="11">
-        <v>47426</v>
+        <v>42469</v>
       </c>
       <c r="AB31" s="11">
-        <v>63430</v>
+        <v>76210</v>
       </c>
       <c r="AC31" s="11">
-        <v>42469</v>
+        <v>74878</v>
       </c>
       <c r="AD31" s="11">
-        <v>76210</v>
+        <v>107739</v>
       </c>
       <c r="AE31" s="11">
-        <v>74878</v>
+        <v>30625</v>
       </c>
       <c r="AF31" s="11">
-        <v>107739</v>
+        <v>76192</v>
       </c>
       <c r="AG31" s="11">
-        <v>30625</v>
+        <v>79536</v>
       </c>
       <c r="AH31" s="11">
-        <v>76192</v>
+        <v>87371</v>
       </c>
       <c r="AI31" s="11">
-        <v>79536</v>
+        <v>66389</v>
       </c>
       <c r="AJ31" s="11">
-        <v>87371</v>
+        <v>67107</v>
       </c>
       <c r="AK31" s="11">
-        <v>66389</v>
+        <v>49156</v>
       </c>
       <c r="AL31" s="11">
-        <v>67107</v>
+        <v>87910</v>
       </c>
       <c r="AM31" s="11">
-        <v>49156</v>
+        <v>59439</v>
       </c>
       <c r="AN31" s="11">
-        <v>87910</v>
+        <v>67269</v>
       </c>
       <c r="AO31" s="11">
-        <v>59439</v>
+        <v>50624</v>
       </c>
       <c r="AP31" s="11">
-        <v>67269</v>
+        <v>91586</v>
       </c>
       <c r="AQ31" s="11">
-        <v>50624</v>
+        <v>95846</v>
       </c>
       <c r="AR31" s="11">
-        <v>91586</v>
+        <v>20835</v>
       </c>
       <c r="AS31" s="11">
-        <v>95846</v>
+        <v>83767</v>
       </c>
       <c r="AT31" s="11">
-        <v>20835</v>
+        <v>86166</v>
       </c>
       <c r="AU31" s="11">
-        <v>83767</v>
+        <v>110180</v>
       </c>
       <c r="AV31" s="11">
-        <v>86166</v>
+        <v>111876</v>
       </c>
       <c r="AW31" s="11">
-        <v>110180</v>
+        <v>95636</v>
       </c>
       <c r="AX31" s="11">
-        <v>111868</v>
+        <v>83209</v>
       </c>
       <c r="AY31" s="11">
-        <v>95636</v>
+        <v>84421</v>
       </c>
       <c r="AZ31" s="11">
-        <v>83209</v>
+        <v>82292</v>
       </c>
       <c r="BA31" s="11">
-        <v>84421</v>
+        <v>103375</v>
       </c>
       <c r="BB31" s="11">
-        <v>82292</v>
+        <v>89176</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>60</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
@@ -4250,39 +4250,39 @@
       <c r="V33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>61</v>
+      <c r="W33" s="11">
+        <v>1170797</v>
+      </c>
+      <c r="X33" s="11">
+        <v>829580</v>
       </c>
       <c r="Y33" s="11">
-        <v>1170797</v>
+        <v>1191344</v>
       </c>
       <c r="Z33" s="11">
-        <v>829580</v>
+        <v>764593</v>
       </c>
       <c r="AA33" s="11">
-        <v>1191344</v>
+        <v>1833835</v>
       </c>
       <c r="AB33" s="11">
-        <v>764593</v>
+        <v>1533409</v>
       </c>
       <c r="AC33" s="11">
-        <v>1833835</v>
+        <v>909844</v>
       </c>
       <c r="AD33" s="11">
-        <v>1533409</v>
+        <v>1223482</v>
       </c>
       <c r="AE33" s="11">
-        <v>909844</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>1223482</v>
-      </c>
-      <c r="AG33" s="11">
         <v>1225177</v>
       </c>
+      <c r="AF33" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AH33" s="11" t="s">
         <v>61</v>
       </c>
@@ -4310,44 +4310,44 @@
       <c r="AP33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AQ33" s="11" t="s">
-        <v>61</v>
+      <c r="AQ33" s="11">
+        <v>1097257</v>
       </c>
       <c r="AR33" s="11" t="s">
         <v>61</v>
       </c>
       <c r="AS33" s="11">
-        <v>1097257</v>
-      </c>
-      <c r="AT33" s="11" t="s">
-        <v>61</v>
+        <v>1036951</v>
+      </c>
+      <c r="AT33" s="11">
+        <v>9698</v>
       </c>
       <c r="AU33" s="11">
-        <v>988956</v>
+        <v>250901</v>
       </c>
       <c r="AV33" s="11">
-        <v>9698</v>
+        <v>629197</v>
       </c>
       <c r="AW33" s="11">
-        <v>250901</v>
+        <v>485435</v>
       </c>
       <c r="AX33" s="11">
-        <v>629197</v>
+        <v>304741</v>
       </c>
       <c r="AY33" s="11">
-        <v>485435</v>
+        <v>811815</v>
       </c>
       <c r="AZ33" s="11">
-        <v>304741</v>
+        <v>989350</v>
       </c>
       <c r="BA33" s="11">
-        <v>811815</v>
+        <v>527550</v>
       </c>
       <c r="BB33" s="11">
-        <v>989350</v>
+        <v>587093</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>57</v>
       </c>
@@ -4409,39 +4409,39 @@
       <c r="V34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>61</v>
+      <c r="W34" s="13">
+        <v>0</v>
+      </c>
+      <c r="X34" s="13">
+        <v>14748</v>
       </c>
       <c r="Y34" s="13">
-        <v>0</v>
+        <v>98790</v>
       </c>
       <c r="Z34" s="13">
-        <v>14748</v>
+        <v>952</v>
       </c>
       <c r="AA34" s="13">
-        <v>98790</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="13">
-        <v>952</v>
+        <v>5977</v>
       </c>
       <c r="AC34" s="13">
-        <v>0</v>
+        <v>40170</v>
       </c>
       <c r="AD34" s="13">
-        <v>5977</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="13">
-        <v>40170</v>
-      </c>
-      <c r="AF34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="13">
         <v>4219</v>
       </c>
+      <c r="AF34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG34" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AH34" s="13" t="s">
         <v>61</v>
       </c>
@@ -4469,20 +4469,20 @@
       <c r="AP34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AQ34" s="13" t="s">
-        <v>61</v>
+      <c r="AQ34" s="13">
+        <v>331449</v>
       </c>
       <c r="AR34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AS34" s="13">
-        <v>331449</v>
+      <c r="AS34" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AT34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AU34" s="13">
-        <v>0</v>
+      <c r="AU34" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AV34" s="13" t="s">
         <v>61</v>
@@ -4490,8 +4490,8 @@
       <c r="AW34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AX34" s="13">
-        <v>0</v>
+      <c r="AX34" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AY34" s="13" t="s">
         <v>61</v>
@@ -4499,14 +4499,14 @@
       <c r="AZ34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BA34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB34" s="13" t="s">
-        <v>61</v>
+      <c r="BA34" s="13">
+        <v>134937</v>
+      </c>
+      <c r="BB34" s="13">
+        <v>39671</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>59</v>
       </c>
@@ -4568,11 +4568,11 @@
       <c r="V35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>61</v>
+      <c r="W35" s="11">
+        <v>0</v>
+      </c>
+      <c r="X35" s="11">
+        <v>0</v>
       </c>
       <c r="Y35" s="11">
         <v>0</v>
@@ -4581,26 +4581,26 @@
         <v>0</v>
       </c>
       <c r="AA35" s="11">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AB35" s="11">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="AC35" s="11">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="AD35" s="11">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="11">
-        <v>994</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="11">
         <v>1341</v>
       </c>
+      <c r="AF35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG35" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AH35" s="11" t="s">
         <v>61</v>
       </c>
@@ -4628,20 +4628,20 @@
       <c r="AP35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AQ35" s="11" t="s">
-        <v>61</v>
+      <c r="AQ35" s="11">
+        <v>74</v>
       </c>
       <c r="AR35" s="11" t="s">
         <v>61</v>
       </c>
       <c r="AS35" s="11">
-        <v>74</v>
+        <v>1725</v>
       </c>
       <c r="AT35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AU35" s="11">
-        <v>1726</v>
+      <c r="AU35" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AV35" s="11" t="s">
         <v>61</v>
@@ -4649,23 +4649,23 @@
       <c r="AW35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AX35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="11" t="s">
-        <v>61</v>
+      <c r="AX35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY35" s="11">
+        <v>535</v>
       </c>
       <c r="AZ35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BA35" s="11">
-        <v>535</v>
+      <c r="BA35" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="BB35" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4754,45 +4754,45 @@
       <c r="AE36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF36" s="13" t="s">
-        <v>61</v>
+      <c r="AF36" s="13">
+        <v>80865</v>
       </c>
       <c r="AG36" s="13" t="s">
         <v>61</v>
       </c>
       <c r="AH36" s="13">
-        <v>80865</v>
-      </c>
-      <c r="AI36" s="13" t="s">
-        <v>61</v>
+        <v>81815</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>840145</v>
       </c>
       <c r="AJ36" s="13">
-        <v>81815</v>
+        <v>467920</v>
       </c>
       <c r="AK36" s="13">
-        <v>840145</v>
+        <v>815260</v>
       </c>
       <c r="AL36" s="13">
-        <v>467920</v>
+        <v>616105</v>
       </c>
       <c r="AM36" s="13">
-        <v>815260</v>
+        <v>365998</v>
       </c>
       <c r="AN36" s="13">
-        <v>616105</v>
+        <v>1158478</v>
       </c>
       <c r="AO36" s="13">
-        <v>365998</v>
+        <v>442057</v>
       </c>
       <c r="AP36" s="13">
-        <v>1158478</v>
-      </c>
-      <c r="AQ36" s="13">
-        <v>442057</v>
-      </c>
-      <c r="AR36" s="13">
         <v>564733</v>
       </c>
+      <c r="AQ36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR36" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AS36" s="13" t="s">
         <v>61</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>64</v>
       </c>
@@ -4913,44 +4913,44 @@
       <c r="AE37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AF37" s="11" t="s">
-        <v>61</v>
+      <c r="AF37" s="11">
+        <v>2425</v>
       </c>
       <c r="AG37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AH37" s="11">
-        <v>2425</v>
-      </c>
-      <c r="AI37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ37" s="11" t="s">
-        <v>61</v>
+      <c r="AH37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>0</v>
       </c>
       <c r="AK37" s="11">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AL37" s="11">
         <v>0</v>
       </c>
       <c r="AM37" s="11">
-        <v>276</v>
-      </c>
-      <c r="AN37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="11">
         <v>126</v>
       </c>
-      <c r="AP37" s="11" t="s">
-        <v>61</v>
+      <c r="AN37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP37" s="11">
+        <v>309</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AR37" s="11">
-        <v>309</v>
+      <c r="AR37" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AS37" s="11" t="s">
         <v>61</v>
@@ -4983,7 +4983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>66</v>
       </c>
@@ -5072,44 +5072,44 @@
       <c r="AE38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF38" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG38" s="13" t="s">
-        <v>61</v>
+      <c r="AF38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>119590</v>
       </c>
       <c r="AH38" s="13">
-        <v>0</v>
+        <v>83150</v>
       </c>
       <c r="AI38" s="13">
-        <v>119590</v>
+        <v>195739</v>
       </c>
       <c r="AJ38" s="13">
-        <v>83150</v>
+        <v>257928</v>
       </c>
       <c r="AK38" s="13">
-        <v>195739</v>
+        <v>224969</v>
       </c>
       <c r="AL38" s="13">
-        <v>257928</v>
+        <v>75102</v>
       </c>
       <c r="AM38" s="13">
-        <v>224969</v>
+        <v>209772</v>
       </c>
       <c r="AN38" s="13">
-        <v>75102</v>
-      </c>
-      <c r="AO38" s="13">
-        <v>209772</v>
+        <v>189579</v>
+      </c>
+      <c r="AO38" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AP38" s="13">
-        <v>189579</v>
+        <v>5000</v>
       </c>
       <c r="AQ38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AR38" s="13">
-        <v>5000</v>
+      <c r="AR38" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AS38" s="13" t="s">
         <v>61</v>
@@ -5142,7 +5142,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>67</v>
       </c>
@@ -5202,104 +5202,104 @@
       <c r="V39" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="W39" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="X39" s="15" t="s">
-        <v>61</v>
+      <c r="W39" s="15">
+        <v>1170797</v>
+      </c>
+      <c r="X39" s="15">
+        <v>844328</v>
       </c>
       <c r="Y39" s="15">
-        <v>1170797</v>
+        <v>1290134</v>
       </c>
       <c r="Z39" s="15">
-        <v>844328</v>
+        <v>765545</v>
       </c>
       <c r="AA39" s="15">
-        <v>1290134</v>
+        <v>1834834</v>
       </c>
       <c r="AB39" s="15">
-        <v>765545</v>
+        <v>1540265</v>
       </c>
       <c r="AC39" s="15">
-        <v>1834834</v>
+        <v>951008</v>
       </c>
       <c r="AD39" s="15">
-        <v>1540265</v>
+        <v>1223482</v>
       </c>
       <c r="AE39" s="15">
-        <v>951008</v>
+        <v>1230737</v>
       </c>
       <c r="AF39" s="15">
-        <v>1223482</v>
+        <v>83290</v>
       </c>
       <c r="AG39" s="15">
-        <v>1230737</v>
+        <v>119590</v>
       </c>
       <c r="AH39" s="15">
-        <v>83290</v>
+        <v>164965</v>
       </c>
       <c r="AI39" s="15">
-        <v>119590</v>
+        <v>1035884</v>
       </c>
       <c r="AJ39" s="15">
-        <v>164965</v>
+        <v>725848</v>
       </c>
       <c r="AK39" s="15">
-        <v>1035884</v>
+        <v>1040505</v>
       </c>
       <c r="AL39" s="15">
-        <v>725848</v>
+        <v>691207</v>
       </c>
       <c r="AM39" s="15">
-        <v>1040505</v>
+        <v>575896</v>
       </c>
       <c r="AN39" s="15">
-        <v>691207</v>
+        <v>1348057</v>
       </c>
       <c r="AO39" s="15">
-        <v>575896</v>
+        <v>442057</v>
       </c>
       <c r="AP39" s="15">
-        <v>1348057</v>
+        <v>570042</v>
       </c>
       <c r="AQ39" s="15">
-        <v>442057</v>
+        <v>1428780</v>
       </c>
       <c r="AR39" s="15">
-        <v>570042</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="15">
-        <v>1428780</v>
+        <v>1038676</v>
       </c>
       <c r="AT39" s="15">
-        <v>0</v>
+        <v>9698</v>
       </c>
       <c r="AU39" s="15">
-        <v>990682</v>
+        <v>250901</v>
       </c>
       <c r="AV39" s="15">
-        <v>9698</v>
+        <v>629197</v>
       </c>
       <c r="AW39" s="15">
-        <v>250901</v>
+        <v>485435</v>
       </c>
       <c r="AX39" s="15">
-        <v>629197</v>
+        <v>304741</v>
       </c>
       <c r="AY39" s="15">
-        <v>485435</v>
+        <v>812350</v>
       </c>
       <c r="AZ39" s="15">
-        <v>304741</v>
+        <v>989350</v>
       </c>
       <c r="BA39" s="15">
-        <v>812350</v>
+        <v>662487</v>
       </c>
       <c r="BB39" s="15">
-        <v>989350</v>
+        <v>626764</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>70</v>
       </c>
@@ -5356,7 +5356,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>55</v>
       </c>
@@ -5418,104 +5418,104 @@
       <c r="V41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>61</v>
+      <c r="W41" s="11">
+        <v>202488</v>
+      </c>
+      <c r="X41" s="11">
+        <v>-4875</v>
       </c>
       <c r="Y41" s="11">
-        <v>202488</v>
+        <v>-569324</v>
       </c>
       <c r="Z41" s="11">
-        <v>-4875</v>
+        <v>-6337</v>
       </c>
       <c r="AA41" s="11">
-        <v>-569324</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="11">
-        <v>-6337</v>
+        <v>-580549</v>
       </c>
       <c r="AC41" s="11">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="AD41" s="11">
-        <v>-580549</v>
+        <v>-18626</v>
       </c>
       <c r="AE41" s="11">
-        <v>-55</v>
+        <v>-71965</v>
       </c>
       <c r="AF41" s="11">
-        <v>-18626</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="11">
-        <v>-71965</v>
+        <v>-7</v>
       </c>
       <c r="AH41" s="11">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AI41" s="11">
-        <v>-7</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>-25</v>
+        <v>-37</v>
+      </c>
+      <c r="AJ41" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AK41" s="11">
-        <v>-37</v>
-      </c>
-      <c r="AL41" s="11" t="s">
-        <v>61</v>
+        <v>-7374</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>-24</v>
       </c>
       <c r="AM41" s="11">
-        <v>-7374</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="11">
-        <v>-24</v>
+        <v>-53322</v>
       </c>
       <c r="AO41" s="11">
-        <v>0</v>
+        <v>-5820</v>
       </c>
       <c r="AP41" s="11">
-        <v>-53322</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="11">
-        <v>-5820</v>
+        <v>-13584</v>
       </c>
       <c r="AR41" s="11">
-        <v>0</v>
+        <v>-71100</v>
       </c>
       <c r="AS41" s="11">
-        <v>-13584</v>
+        <v>-204</v>
       </c>
       <c r="AT41" s="11">
-        <v>-71100</v>
+        <v>-1014</v>
       </c>
       <c r="AU41" s="11">
-        <v>-204</v>
+        <v>-753</v>
       </c>
       <c r="AV41" s="11">
-        <v>-1014</v>
+        <v>-143899</v>
       </c>
       <c r="AW41" s="11">
-        <v>-753</v>
+        <v>-1398</v>
       </c>
       <c r="AX41" s="11">
-        <v>-143899</v>
+        <v>-104331</v>
       </c>
       <c r="AY41" s="11">
-        <v>-1398</v>
+        <v>-727</v>
       </c>
       <c r="AZ41" s="11">
-        <v>-104331</v>
+        <v>-371</v>
       </c>
       <c r="BA41" s="11">
-        <v>-727</v>
+        <v>-337</v>
       </c>
       <c r="BB41" s="11">
-        <v>-371</v>
+        <v>-25855</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>57</v>
       </c>
@@ -5577,104 +5577,104 @@
       <c r="V42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="W42" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>61</v>
+      <c r="W42" s="13">
+        <v>-340</v>
+      </c>
+      <c r="X42" s="13">
+        <v>-41196</v>
       </c>
       <c r="Y42" s="13">
-        <v>-340</v>
+        <v>-6143</v>
       </c>
       <c r="Z42" s="13">
-        <v>-41196</v>
+        <v>-9412</v>
       </c>
       <c r="AA42" s="13">
-        <v>-6143</v>
+        <v>-8588</v>
       </c>
       <c r="AB42" s="13">
-        <v>-9412</v>
+        <v>-367270</v>
       </c>
       <c r="AC42" s="13">
-        <v>-8588</v>
+        <v>-465</v>
       </c>
       <c r="AD42" s="13">
-        <v>-367270</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="13">
-        <v>-465</v>
+        <v>-25563</v>
       </c>
       <c r="AF42" s="13">
-        <v>0</v>
+        <v>-860</v>
       </c>
       <c r="AG42" s="13">
-        <v>-25563</v>
+        <v>-16872</v>
       </c>
       <c r="AH42" s="13">
-        <v>-860</v>
+        <v>-6798</v>
       </c>
       <c r="AI42" s="13">
-        <v>-16872</v>
-      </c>
-      <c r="AJ42" s="13">
-        <v>-6798</v>
+        <v>-10833</v>
+      </c>
+      <c r="AJ42" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AK42" s="13">
-        <v>-10833</v>
-      </c>
-      <c r="AL42" s="13" t="s">
-        <v>61</v>
+        <v>-16</v>
+      </c>
+      <c r="AL42" s="13">
+        <v>-5045</v>
       </c>
       <c r="AM42" s="13">
-        <v>-16</v>
-      </c>
-      <c r="AN42" s="13">
-        <v>-5045</v>
+        <v>-3600</v>
+      </c>
+      <c r="AN42" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AO42" s="13">
-        <v>-3600</v>
-      </c>
-      <c r="AP42" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ42" s="13">
         <v>-14800</v>
       </c>
+      <c r="AP42" s="13">
+        <v>-58802</v>
+      </c>
+      <c r="AQ42" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AR42" s="13">
-        <v>-58802</v>
-      </c>
-      <c r="AS42" s="13" t="s">
-        <v>61</v>
+        <v>-3997</v>
+      </c>
+      <c r="AS42" s="13">
+        <v>-10</v>
       </c>
       <c r="AT42" s="13">
-        <v>-3997</v>
+        <v>-3189</v>
       </c>
       <c r="AU42" s="13">
-        <v>-10</v>
+        <v>-1659</v>
       </c>
       <c r="AV42" s="13">
-        <v>-3189</v>
+        <v>-905</v>
       </c>
       <c r="AW42" s="13">
-        <v>-1659</v>
+        <v>-11306</v>
       </c>
       <c r="AX42" s="13">
-        <v>-905</v>
-      </c>
-      <c r="AY42" s="13">
-        <v>-11306</v>
+        <v>-17040</v>
+      </c>
+      <c r="AY42" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AZ42" s="13">
-        <v>-17040</v>
-      </c>
-      <c r="BA42" s="13" t="s">
-        <v>61</v>
+        <v>-13520</v>
+      </c>
+      <c r="BA42" s="13">
+        <v>-14504</v>
       </c>
       <c r="BB42" s="13">
-        <v>-13520</v>
+        <v>-3565</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>59</v>
       </c>
@@ -5736,104 +5736,104 @@
       <c r="V43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>61</v>
+      <c r="W43" s="11">
+        <v>-134053</v>
+      </c>
+      <c r="X43" s="11">
+        <v>-192</v>
       </c>
       <c r="Y43" s="11">
-        <v>-134053</v>
+        <v>-1671</v>
       </c>
       <c r="Z43" s="11">
-        <v>-192</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="11">
-        <v>-1671</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC43" s="11">
-        <v>0</v>
+        <v>-216</v>
       </c>
       <c r="AD43" s="11">
+        <v>-464</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>-1500</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH43" s="11">
+        <v>-4532</v>
+      </c>
+      <c r="AI43" s="11">
+        <v>-2007</v>
+      </c>
+      <c r="AJ43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL43" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AM43" s="11">
+        <v>-2394</v>
+      </c>
+      <c r="AN43" s="11">
+        <v>-505</v>
+      </c>
+      <c r="AO43" s="11">
+        <v>-110</v>
+      </c>
+      <c r="AP43" s="11">
+        <v>-1012</v>
+      </c>
+      <c r="AQ43" s="11">
+        <v>-791</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS43" s="11">
+        <v>-300</v>
+      </c>
+      <c r="AT43" s="11">
         <v>-1</v>
       </c>
-      <c r="AE43" s="11">
-        <v>-216</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>-464</v>
-      </c>
-      <c r="AG43" s="11">
-        <v>-1500</v>
-      </c>
-      <c r="AH43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ43" s="11">
-        <v>-4532</v>
-      </c>
-      <c r="AK43" s="11">
-        <v>-2007</v>
-      </c>
-      <c r="AL43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN43" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AO43" s="11">
-        <v>-2394</v>
-      </c>
-      <c r="AP43" s="11">
-        <v>-505</v>
-      </c>
-      <c r="AQ43" s="11">
-        <v>-110</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>-1012</v>
-      </c>
-      <c r="AS43" s="11">
-        <v>-791</v>
-      </c>
-      <c r="AT43" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="AU43" s="11">
-        <v>-300</v>
+        <v>-959</v>
       </c>
       <c r="AV43" s="11">
-        <v>-1</v>
+        <v>-11385</v>
       </c>
       <c r="AW43" s="11">
-        <v>-959</v>
+        <v>-1004</v>
       </c>
       <c r="AX43" s="11">
-        <v>-11385</v>
+        <v>-8</v>
       </c>
       <c r="AY43" s="11">
-        <v>-1004</v>
+        <v>-923</v>
       </c>
       <c r="AZ43" s="11">
-        <v>-8</v>
-      </c>
-      <c r="BA43" s="11">
-        <v>-923</v>
-      </c>
-      <c r="BB43" s="11">
         <v>-781</v>
       </c>
+      <c r="BA43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB43" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>71</v>
       </c>
@@ -5893,261 +5893,261 @@
       <c r="V44" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="W44" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="X44" s="17" t="s">
-        <v>61</v>
+      <c r="W44" s="17">
+        <v>68095</v>
+      </c>
+      <c r="X44" s="17">
+        <v>-46263</v>
       </c>
       <c r="Y44" s="17">
-        <v>68095</v>
+        <v>-577138</v>
       </c>
       <c r="Z44" s="17">
-        <v>-46263</v>
+        <v>-15749</v>
       </c>
       <c r="AA44" s="17">
-        <v>-577138</v>
+        <v>-8588</v>
       </c>
       <c r="AB44" s="17">
-        <v>-15749</v>
+        <v>-947820</v>
       </c>
       <c r="AC44" s="17">
-        <v>-8588</v>
+        <v>-736</v>
       </c>
       <c r="AD44" s="17">
-        <v>-947820</v>
+        <v>-19090</v>
       </c>
       <c r="AE44" s="17">
-        <v>-736</v>
+        <v>-99028</v>
       </c>
       <c r="AF44" s="17">
-        <v>-19090</v>
-      </c>
-      <c r="AG44" s="17">
-        <v>-99028</v>
+        <v>-860</v>
+      </c>
+      <c r="AG44" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="AH44" s="17">
-        <v>-860</v>
-      </c>
-      <c r="AI44" s="17" t="s">
-        <v>61</v>
+        <v>-11355</v>
+      </c>
+      <c r="AI44" s="17">
+        <v>-12877</v>
       </c>
       <c r="AJ44" s="17">
-        <v>-11355</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="17">
-        <v>-12877</v>
+        <v>-7390</v>
       </c>
       <c r="AL44" s="17">
-        <v>0</v>
+        <v>-5074</v>
       </c>
       <c r="AM44" s="17">
-        <v>-7390</v>
+        <v>-5994</v>
       </c>
       <c r="AN44" s="17">
-        <v>-5074</v>
+        <v>-53827</v>
       </c>
       <c r="AO44" s="17">
-        <v>-5994</v>
+        <v>-20730</v>
       </c>
       <c r="AP44" s="17">
-        <v>-53827</v>
+        <v>-59814</v>
       </c>
       <c r="AQ44" s="17">
-        <v>-20730</v>
+        <v>-14375</v>
       </c>
       <c r="AR44" s="17">
-        <v>-59814</v>
+        <v>-75097</v>
       </c>
       <c r="AS44" s="17">
-        <v>-14375</v>
+        <v>-514</v>
       </c>
       <c r="AT44" s="17">
-        <v>-75097</v>
+        <v>-4204</v>
       </c>
       <c r="AU44" s="17">
-        <v>-514</v>
+        <v>-3371</v>
       </c>
       <c r="AV44" s="17">
-        <v>-4204</v>
+        <v>-156189</v>
       </c>
       <c r="AW44" s="17">
-        <v>-3371</v>
+        <v>-13708</v>
       </c>
       <c r="AX44" s="17">
-        <v>-156189</v>
+        <v>-121379</v>
       </c>
       <c r="AY44" s="17">
-        <v>-13708</v>
+        <v>-1650</v>
       </c>
       <c r="AZ44" s="17">
-        <v>-121379</v>
+        <v>-14672</v>
       </c>
       <c r="BA44" s="17">
-        <v>-1650</v>
+        <v>-14841</v>
       </c>
       <c r="BB44" s="17">
-        <v>-14672</v>
+        <v>-29420</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>5071132</v>
+        <v>4994970</v>
       </c>
       <c r="F45" s="15">
-        <v>4289345</v>
+        <v>5296417</v>
       </c>
       <c r="G45" s="15">
-        <v>4994970</v>
+        <v>4826457</v>
       </c>
       <c r="H45" s="15">
-        <v>5296417</v>
+        <v>2423902</v>
       </c>
       <c r="I45" s="15">
-        <v>4826457</v>
+        <v>5207684</v>
       </c>
       <c r="J45" s="15">
-        <v>2423902</v>
+        <v>5207000</v>
       </c>
       <c r="K45" s="15">
-        <v>5207684</v>
+        <v>4998537</v>
       </c>
       <c r="L45" s="15">
-        <v>5207000</v>
+        <v>4490523</v>
       </c>
       <c r="M45" s="15">
-        <v>4998537</v>
+        <v>6574452</v>
       </c>
       <c r="N45" s="15">
-        <v>4490523</v>
+        <v>5188103</v>
       </c>
       <c r="O45" s="15">
-        <v>6574452</v>
+        <v>6231904</v>
       </c>
       <c r="P45" s="15">
-        <v>5188103</v>
+        <v>7515177</v>
       </c>
       <c r="Q45" s="15">
-        <v>6231904</v>
+        <v>5246659</v>
       </c>
       <c r="R45" s="15">
-        <v>7515177</v>
+        <v>4997208</v>
       </c>
       <c r="S45" s="15">
-        <v>5246659</v>
+        <v>4107229</v>
       </c>
       <c r="T45" s="15">
-        <v>4997208</v>
+        <v>2743845</v>
       </c>
       <c r="U45" s="15">
-        <v>4107229</v>
+        <v>3978942</v>
       </c>
       <c r="V45" s="15">
-        <v>2743845</v>
+        <v>4580865</v>
       </c>
       <c r="W45" s="15">
-        <v>3978942</v>
+        <v>7467555</v>
       </c>
       <c r="X45" s="15">
-        <v>4580865</v>
+        <v>6384421</v>
       </c>
       <c r="Y45" s="15">
-        <v>7467555</v>
+        <v>4856130</v>
       </c>
       <c r="Z45" s="15">
-        <v>6384421</v>
+        <v>5813442</v>
       </c>
       <c r="AA45" s="15">
-        <v>4856130</v>
+        <v>5721785</v>
       </c>
       <c r="AB45" s="15">
-        <v>5813442</v>
+        <v>5107641</v>
       </c>
       <c r="AC45" s="15">
-        <v>5721785</v>
+        <v>4378140</v>
       </c>
       <c r="AD45" s="15">
-        <v>5107641</v>
+        <v>3237621</v>
       </c>
       <c r="AE45" s="15">
-        <v>4378140</v>
+        <v>4178096</v>
       </c>
       <c r="AF45" s="15">
-        <v>3237621</v>
+        <v>1407503</v>
       </c>
       <c r="AG45" s="15">
-        <v>4178096</v>
+        <v>4150140</v>
       </c>
       <c r="AH45" s="15">
-        <v>1407503</v>
+        <v>3923881</v>
       </c>
       <c r="AI45" s="15">
-        <v>4150140</v>
+        <v>3886978</v>
       </c>
       <c r="AJ45" s="15">
-        <v>3923881</v>
+        <v>3895038</v>
       </c>
       <c r="AK45" s="15">
-        <v>3886978</v>
+        <v>4301559</v>
       </c>
       <c r="AL45" s="15">
-        <v>3895038</v>
+        <v>3657198</v>
       </c>
       <c r="AM45" s="15">
-        <v>4301559</v>
+        <v>3955674</v>
       </c>
       <c r="AN45" s="15">
-        <v>3657198</v>
+        <v>3830903</v>
       </c>
       <c r="AO45" s="15">
-        <v>3955674</v>
+        <v>2524305</v>
       </c>
       <c r="AP45" s="15">
-        <v>3830903</v>
+        <v>3563952</v>
       </c>
       <c r="AQ45" s="15">
-        <v>2524305</v>
+        <v>5024094</v>
       </c>
       <c r="AR45" s="15">
-        <v>3563952</v>
+        <v>2164990</v>
       </c>
       <c r="AS45" s="15">
-        <v>5024094</v>
+        <v>6050049</v>
       </c>
       <c r="AT45" s="15">
-        <v>2164990</v>
+        <v>6008987</v>
       </c>
       <c r="AU45" s="15">
-        <v>6002055</v>
+        <v>6180034</v>
       </c>
       <c r="AV45" s="15">
-        <v>6008987</v>
+        <v>5547967</v>
       </c>
       <c r="AW45" s="15">
-        <v>6180034</v>
+        <v>6166401</v>
       </c>
       <c r="AX45" s="15">
-        <v>5547671</v>
+        <v>5862975</v>
       </c>
       <c r="AY45" s="15">
-        <v>6166401</v>
+        <v>6491781</v>
       </c>
       <c r="AZ45" s="15">
-        <v>5862975</v>
+        <v>5216080</v>
       </c>
       <c r="BA45" s="15">
-        <v>6491781</v>
+        <v>7661249</v>
       </c>
       <c r="BB45" s="15">
-        <v>5216080</v>
+        <v>6960101</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6202,7 +6202,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6257,7 +6257,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6312,7 +6312,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>72</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6524,7 +6524,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>72</v>
       </c>
@@ -6581,7 +6581,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>55</v>
       </c>
@@ -6590,157 +6590,157 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>94120</v>
+        <v>107140</v>
       </c>
       <c r="F52" s="11">
-        <v>72702</v>
+        <v>124167</v>
       </c>
       <c r="G52" s="11">
-        <v>107140</v>
+        <v>109496</v>
       </c>
       <c r="H52" s="11">
-        <v>124167</v>
+        <v>59043</v>
       </c>
       <c r="I52" s="11">
-        <v>109496</v>
+        <v>130380</v>
       </c>
       <c r="J52" s="11">
-        <v>59043</v>
+        <v>133888</v>
       </c>
       <c r="K52" s="11">
-        <v>130380</v>
+        <v>159805</v>
       </c>
       <c r="L52" s="11">
-        <v>133888</v>
+        <v>101597</v>
       </c>
       <c r="M52" s="11">
-        <v>159805</v>
+        <v>159568</v>
       </c>
       <c r="N52" s="11">
-        <v>101597</v>
+        <v>173395</v>
       </c>
       <c r="O52" s="11">
-        <v>159568</v>
+        <v>209899</v>
       </c>
       <c r="P52" s="11">
-        <v>173395</v>
+        <v>245228</v>
       </c>
       <c r="Q52" s="11">
-        <v>209899</v>
+        <v>151021</v>
       </c>
       <c r="R52" s="11">
-        <v>245228</v>
+        <v>145997</v>
       </c>
       <c r="S52" s="11">
-        <v>151021</v>
+        <v>117127</v>
       </c>
       <c r="T52" s="11">
-        <v>145997</v>
+        <v>178816</v>
       </c>
       <c r="U52" s="11">
-        <v>117127</v>
+        <v>103525</v>
       </c>
       <c r="V52" s="11">
-        <v>178816</v>
+        <v>82541</v>
       </c>
       <c r="W52" s="11">
-        <v>103525</v>
+        <v>175706</v>
       </c>
       <c r="X52" s="11">
-        <v>82541</v>
+        <v>181577</v>
       </c>
       <c r="Y52" s="11">
-        <v>175706</v>
+        <v>226294</v>
       </c>
       <c r="Z52" s="11">
-        <v>181577</v>
+        <v>209581</v>
       </c>
       <c r="AA52" s="11">
-        <v>226294</v>
+        <v>246499</v>
       </c>
       <c r="AB52" s="11">
-        <v>209581</v>
+        <v>271579</v>
       </c>
       <c r="AC52" s="11">
-        <v>246499</v>
+        <v>183425</v>
       </c>
       <c r="AD52" s="11">
-        <v>271579</v>
+        <v>87723</v>
       </c>
       <c r="AE52" s="11">
-        <v>183425</v>
+        <v>161929</v>
       </c>
       <c r="AF52" s="11">
-        <v>87723</v>
+        <v>54931</v>
       </c>
       <c r="AG52" s="11">
-        <v>161929</v>
+        <v>202331</v>
       </c>
       <c r="AH52" s="11">
-        <v>54931</v>
+        <v>180908</v>
       </c>
       <c r="AI52" s="11">
-        <v>202331</v>
+        <v>112508</v>
       </c>
       <c r="AJ52" s="11">
-        <v>180908</v>
+        <v>125709</v>
       </c>
       <c r="AK52" s="11">
-        <v>112508</v>
+        <v>206638</v>
       </c>
       <c r="AL52" s="11">
-        <v>125709</v>
+        <v>169881</v>
       </c>
       <c r="AM52" s="11">
-        <v>206638</v>
+        <v>183088</v>
       </c>
       <c r="AN52" s="11">
-        <v>169881</v>
+        <v>128716</v>
       </c>
       <c r="AO52" s="11">
-        <v>183088</v>
+        <v>76853</v>
       </c>
       <c r="AP52" s="11">
-        <v>128716</v>
+        <v>183163</v>
       </c>
       <c r="AQ52" s="11">
-        <v>76853</v>
+        <v>128537</v>
       </c>
       <c r="AR52" s="11">
-        <v>183163</v>
+        <v>162306</v>
       </c>
       <c r="AS52" s="11">
-        <v>128537</v>
+        <v>221750</v>
       </c>
       <c r="AT52" s="11">
-        <v>162306</v>
+        <v>346731</v>
       </c>
       <c r="AU52" s="11">
-        <v>221794</v>
+        <v>333646</v>
       </c>
       <c r="AV52" s="11">
-        <v>346731</v>
+        <v>248391</v>
       </c>
       <c r="AW52" s="11">
-        <v>333646</v>
+        <v>339312</v>
       </c>
       <c r="AX52" s="11">
-        <v>248391</v>
+        <v>389193</v>
       </c>
       <c r="AY52" s="11">
-        <v>339312</v>
+        <v>436327</v>
       </c>
       <c r="AZ52" s="11">
-        <v>389193</v>
+        <v>459801</v>
       </c>
       <c r="BA52" s="11">
-        <v>436327</v>
+        <v>504138</v>
       </c>
       <c r="BB52" s="11">
-        <v>459801</v>
+        <v>630166</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>57</v>
       </c>
@@ -6749,157 +6749,157 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>222756</v>
+        <v>224402</v>
       </c>
       <c r="F53" s="13">
-        <v>269275</v>
+        <v>235525</v>
       </c>
       <c r="G53" s="13">
-        <v>224402</v>
+        <v>231198</v>
       </c>
       <c r="H53" s="13">
-        <v>235525</v>
+        <v>172428</v>
       </c>
       <c r="I53" s="13">
-        <v>231198</v>
+        <v>282507</v>
       </c>
       <c r="J53" s="13">
-        <v>172428</v>
+        <v>311632</v>
       </c>
       <c r="K53" s="13">
-        <v>282507</v>
+        <v>374857</v>
       </c>
       <c r="L53" s="13">
-        <v>311632</v>
+        <v>270926</v>
       </c>
       <c r="M53" s="13">
-        <v>374857</v>
+        <v>351748</v>
       </c>
       <c r="N53" s="13">
-        <v>270926</v>
+        <v>343248</v>
       </c>
       <c r="O53" s="13">
-        <v>351748</v>
+        <v>251160</v>
       </c>
       <c r="P53" s="13">
-        <v>343248</v>
+        <v>358173</v>
       </c>
       <c r="Q53" s="13">
-        <v>251160</v>
+        <v>361930</v>
       </c>
       <c r="R53" s="13">
-        <v>358173</v>
+        <v>318104</v>
       </c>
       <c r="S53" s="13">
-        <v>361930</v>
+        <v>175962</v>
       </c>
       <c r="T53" s="13">
-        <v>318104</v>
+        <v>149674</v>
       </c>
       <c r="U53" s="13">
-        <v>175962</v>
+        <v>377276</v>
       </c>
       <c r="V53" s="13">
-        <v>149674</v>
+        <v>371604</v>
       </c>
       <c r="W53" s="13">
-        <v>377276</v>
+        <v>378729</v>
       </c>
       <c r="X53" s="13">
-        <v>371604</v>
+        <v>308141</v>
       </c>
       <c r="Y53" s="13">
-        <v>378729</v>
+        <v>515280</v>
       </c>
       <c r="Z53" s="13">
-        <v>308141</v>
+        <v>397910</v>
       </c>
       <c r="AA53" s="13">
-        <v>515280</v>
+        <v>329395</v>
       </c>
       <c r="AB53" s="13">
-        <v>397910</v>
+        <v>362078</v>
       </c>
       <c r="AC53" s="13">
-        <v>329395</v>
+        <v>331609</v>
       </c>
       <c r="AD53" s="13">
-        <v>362078</v>
+        <v>366926</v>
       </c>
       <c r="AE53" s="13">
-        <v>331609</v>
+        <v>107591</v>
       </c>
       <c r="AF53" s="13">
-        <v>366926</v>
+        <v>215735</v>
       </c>
       <c r="AG53" s="13">
-        <v>107591</v>
+        <v>458357</v>
       </c>
       <c r="AH53" s="13">
-        <v>215735</v>
+        <v>400907</v>
       </c>
       <c r="AI53" s="13">
-        <v>458357</v>
+        <v>446114</v>
       </c>
       <c r="AJ53" s="13">
-        <v>400907</v>
+        <v>373842</v>
       </c>
       <c r="AK53" s="13">
-        <v>446114</v>
+        <v>326435</v>
       </c>
       <c r="AL53" s="13">
-        <v>373842</v>
+        <v>498999</v>
       </c>
       <c r="AM53" s="13">
-        <v>326435</v>
+        <v>296691</v>
       </c>
       <c r="AN53" s="13">
-        <v>498999</v>
+        <v>312673</v>
       </c>
       <c r="AO53" s="13">
-        <v>296691</v>
+        <v>336949</v>
       </c>
       <c r="AP53" s="13">
-        <v>312673</v>
+        <v>402096</v>
       </c>
       <c r="AQ53" s="13">
-        <v>336949</v>
+        <v>303042</v>
       </c>
       <c r="AR53" s="13">
-        <v>402096</v>
+        <v>236235</v>
       </c>
       <c r="AS53" s="13">
-        <v>303042</v>
+        <v>566988</v>
       </c>
       <c r="AT53" s="13">
-        <v>236235</v>
+        <v>543343</v>
       </c>
       <c r="AU53" s="13">
-        <v>567095</v>
+        <v>632348</v>
       </c>
       <c r="AV53" s="13">
-        <v>543343</v>
+        <v>737071</v>
       </c>
       <c r="AW53" s="13">
-        <v>632348</v>
+        <v>669809</v>
       </c>
       <c r="AX53" s="13">
-        <v>737032</v>
+        <v>720235</v>
       </c>
       <c r="AY53" s="13">
-        <v>669809</v>
+        <v>845921</v>
       </c>
       <c r="AZ53" s="13">
-        <v>720235</v>
+        <v>933166</v>
       </c>
       <c r="BA53" s="13">
-        <v>845921</v>
+        <v>921991</v>
       </c>
       <c r="BB53" s="13">
-        <v>933166</v>
+        <v>1118369</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>59</v>
       </c>
@@ -6908,157 +6908,157 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>93760</v>
+        <v>132010</v>
       </c>
       <c r="F54" s="11">
-        <v>158233</v>
+        <v>194127</v>
       </c>
       <c r="G54" s="11">
-        <v>132010</v>
+        <v>136417</v>
       </c>
       <c r="H54" s="11">
-        <v>194127</v>
+        <v>64786</v>
       </c>
       <c r="I54" s="11">
-        <v>136417</v>
+        <v>215537</v>
       </c>
       <c r="J54" s="11">
-        <v>64786</v>
+        <v>198693</v>
       </c>
       <c r="K54" s="11">
-        <v>215537</v>
+        <v>205133</v>
       </c>
       <c r="L54" s="11">
-        <v>198693</v>
+        <v>153994</v>
       </c>
       <c r="M54" s="11">
-        <v>205133</v>
+        <v>195607</v>
       </c>
       <c r="N54" s="11">
-        <v>153994</v>
+        <v>203457</v>
       </c>
       <c r="O54" s="11">
-        <v>195607</v>
+        <v>175006</v>
       </c>
       <c r="P54" s="11">
-        <v>203457</v>
+        <v>155670</v>
       </c>
       <c r="Q54" s="11">
-        <v>175006</v>
+        <v>187971</v>
       </c>
       <c r="R54" s="11">
-        <v>155670</v>
+        <v>156620</v>
       </c>
       <c r="S54" s="11">
-        <v>187971</v>
+        <v>93345</v>
       </c>
       <c r="T54" s="11">
-        <v>156620</v>
+        <v>94923</v>
       </c>
       <c r="U54" s="11">
-        <v>93345</v>
+        <v>197537</v>
       </c>
       <c r="V54" s="11">
-        <v>94923</v>
+        <v>106284</v>
       </c>
       <c r="W54" s="11">
-        <v>197537</v>
+        <v>192564</v>
       </c>
       <c r="X54" s="11">
-        <v>106284</v>
+        <v>220639</v>
       </c>
       <c r="Y54" s="11">
-        <v>192564</v>
+        <v>168900</v>
       </c>
       <c r="Z54" s="11">
-        <v>220639</v>
+        <v>130640</v>
       </c>
       <c r="AA54" s="11">
-        <v>168900</v>
+        <v>86533</v>
       </c>
       <c r="AB54" s="11">
-        <v>130640</v>
+        <v>200009</v>
       </c>
       <c r="AC54" s="11">
-        <v>86533</v>
+        <v>315384</v>
       </c>
       <c r="AD54" s="11">
-        <v>200009</v>
+        <v>538195</v>
       </c>
       <c r="AE54" s="11">
-        <v>315384</v>
+        <v>462703</v>
       </c>
       <c r="AF54" s="11">
-        <v>538195</v>
+        <v>324401</v>
       </c>
       <c r="AG54" s="11">
-        <v>462703</v>
+        <v>441274</v>
       </c>
       <c r="AH54" s="11">
-        <v>324401</v>
+        <v>584343</v>
       </c>
       <c r="AI54" s="11">
-        <v>441274</v>
+        <v>547669</v>
       </c>
       <c r="AJ54" s="11">
-        <v>584343</v>
+        <v>375414</v>
       </c>
       <c r="AK54" s="11">
-        <v>547669</v>
+        <v>815136</v>
       </c>
       <c r="AL54" s="11">
-        <v>375414</v>
+        <v>566952</v>
       </c>
       <c r="AM54" s="11">
-        <v>815136</v>
+        <v>663856</v>
       </c>
       <c r="AN54" s="11">
-        <v>566952</v>
+        <v>771714</v>
       </c>
       <c r="AO54" s="11">
-        <v>663856</v>
+        <v>904109</v>
       </c>
       <c r="AP54" s="11">
-        <v>771714</v>
+        <v>1380078</v>
       </c>
       <c r="AQ54" s="11">
-        <v>904109</v>
+        <v>594839</v>
       </c>
       <c r="AR54" s="11">
-        <v>1380078</v>
+        <v>708617</v>
       </c>
       <c r="AS54" s="11">
-        <v>594839</v>
+        <v>867571</v>
       </c>
       <c r="AT54" s="11">
-        <v>708617</v>
+        <v>999338</v>
       </c>
       <c r="AU54" s="11">
-        <v>870058</v>
+        <v>1028084</v>
       </c>
       <c r="AV54" s="11">
-        <v>999338</v>
+        <v>753209</v>
       </c>
       <c r="AW54" s="11">
-        <v>1028084</v>
+        <v>1129687</v>
       </c>
       <c r="AX54" s="11">
-        <v>753195</v>
+        <v>707418</v>
       </c>
       <c r="AY54" s="11">
-        <v>1129687</v>
+        <v>1001682</v>
       </c>
       <c r="AZ54" s="11">
-        <v>707418</v>
+        <v>999340</v>
       </c>
       <c r="BA54" s="11">
-        <v>1001682</v>
+        <v>946965</v>
       </c>
       <c r="BB54" s="11">
-        <v>999340</v>
+        <v>970465</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>74</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
@@ -7177,39 +7177,39 @@
       <c r="V56" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>61</v>
+      <c r="W56" s="11">
+        <v>31217</v>
+      </c>
+      <c r="X56" s="11">
+        <v>30137</v>
       </c>
       <c r="Y56" s="11">
-        <v>31217</v>
+        <v>42063</v>
       </c>
       <c r="Z56" s="11">
-        <v>30137</v>
+        <v>27755</v>
       </c>
       <c r="AA56" s="11">
-        <v>42063</v>
+        <v>66664</v>
       </c>
       <c r="AB56" s="11">
-        <v>27755</v>
+        <v>55663</v>
       </c>
       <c r="AC56" s="11">
-        <v>66664</v>
+        <v>33100</v>
       </c>
       <c r="AD56" s="11">
-        <v>55663</v>
+        <v>44555</v>
       </c>
       <c r="AE56" s="11">
-        <v>33100</v>
-      </c>
-      <c r="AF56" s="11">
-        <v>44555</v>
-      </c>
-      <c r="AG56" s="11">
         <v>44474</v>
       </c>
+      <c r="AF56" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG56" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AH56" s="11" t="s">
         <v>61</v>
       </c>
@@ -7237,44 +7237,44 @@
       <c r="AP56" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AQ56" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR56" s="11" t="s">
-        <v>61</v>
+      <c r="AQ56" s="11">
+        <v>70055</v>
+      </c>
+      <c r="AR56" s="11">
+        <v>0</v>
       </c>
       <c r="AS56" s="11">
-        <v>70055</v>
+        <v>76172</v>
       </c>
       <c r="AT56" s="11">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="AU56" s="11">
-        <v>73532</v>
+        <v>18932</v>
       </c>
       <c r="AV56" s="11">
-        <v>776</v>
+        <v>49360</v>
       </c>
       <c r="AW56" s="11">
-        <v>18932</v>
+        <v>40006</v>
       </c>
       <c r="AX56" s="11">
-        <v>49360</v>
+        <v>24379</v>
       </c>
       <c r="AY56" s="11">
-        <v>40006</v>
+        <v>65013</v>
       </c>
       <c r="AZ56" s="11">
-        <v>24379</v>
+        <v>84545</v>
       </c>
       <c r="BA56" s="11">
-        <v>65013</v>
+        <v>42204</v>
       </c>
       <c r="BB56" s="11">
-        <v>84545</v>
+        <v>46967</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
@@ -7336,39 +7336,39 @@
       <c r="V57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="W57" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X57" s="13" t="s">
-        <v>61</v>
+      <c r="W57" s="13">
+        <v>0</v>
+      </c>
+      <c r="X57" s="13">
+        <v>977</v>
       </c>
       <c r="Y57" s="13">
-        <v>0</v>
+        <v>4271</v>
       </c>
       <c r="Z57" s="13">
-        <v>977</v>
+        <v>41</v>
       </c>
       <c r="AA57" s="13">
-        <v>4271</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="13">
-        <v>41</v>
+        <v>598</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>3816</v>
       </c>
       <c r="AD57" s="13">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="13">
-        <v>3816</v>
-      </c>
-      <c r="AF57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="13">
         <v>4219</v>
       </c>
+      <c r="AF57" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG57" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AH57" s="13" t="s">
         <v>61</v>
       </c>
@@ -7396,14 +7396,14 @@
       <c r="AP57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AQ57" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR57" s="13" t="s">
-        <v>61</v>
+      <c r="AQ57" s="13">
+        <v>36346</v>
+      </c>
+      <c r="AR57" s="13">
+        <v>0</v>
       </c>
       <c r="AS57" s="13">
-        <v>36346</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="13">
         <v>0</v>
@@ -7427,13 +7427,13 @@
         <v>0</v>
       </c>
       <c r="BA57" s="13">
-        <v>0</v>
+        <v>27481</v>
       </c>
       <c r="BB57" s="13">
-        <v>0</v>
+        <v>7934</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>59</v>
       </c>
@@ -7495,11 +7495,11 @@
       <c r="V58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W58" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>61</v>
+      <c r="W58" s="11">
+        <v>0</v>
+      </c>
+      <c r="X58" s="11">
+        <v>0</v>
       </c>
       <c r="Y58" s="11">
         <v>0</v>
@@ -7508,26 +7508,26 @@
         <v>0</v>
       </c>
       <c r="AA58" s="11">
-        <v>0</v>
+        <v>2997</v>
       </c>
       <c r="AB58" s="11">
-        <v>0</v>
+        <v>2857</v>
       </c>
       <c r="AC58" s="11">
-        <v>2997</v>
+        <v>2981</v>
       </c>
       <c r="AD58" s="11">
-        <v>2857</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="11">
-        <v>2981</v>
-      </c>
-      <c r="AF58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="11">
         <v>629</v>
       </c>
+      <c r="AF58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG58" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AH58" s="11" t="s">
         <v>61</v>
       </c>
@@ -7555,20 +7555,20 @@
       <c r="AP58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AQ58" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR58" s="11" t="s">
-        <v>61</v>
+      <c r="AQ58" s="11">
+        <v>222</v>
+      </c>
+      <c r="AR58" s="11">
+        <v>0</v>
       </c>
       <c r="AS58" s="11">
-        <v>222</v>
+        <v>17250</v>
       </c>
       <c r="AT58" s="11">
         <v>0</v>
       </c>
       <c r="AU58" s="11">
-        <v>17252</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="11">
         <v>0</v>
@@ -7580,19 +7580,19 @@
         <v>0</v>
       </c>
       <c r="AY58" s="11">
-        <v>0</v>
+        <v>1704</v>
       </c>
       <c r="AZ58" s="11">
         <v>0</v>
       </c>
       <c r="BA58" s="11">
-        <v>1704</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>62</v>
       </c>
@@ -7681,45 +7681,45 @@
       <c r="AE59" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF59" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG59" s="13" t="s">
-        <v>61</v>
+      <c r="AF59" s="13">
+        <v>2345</v>
+      </c>
+      <c r="AG59" s="13">
+        <v>0</v>
       </c>
       <c r="AH59" s="13">
-        <v>2345</v>
+        <v>5727</v>
       </c>
       <c r="AI59" s="13">
-        <v>0</v>
+        <v>58810</v>
       </c>
       <c r="AJ59" s="13">
-        <v>5727</v>
+        <v>32754</v>
       </c>
       <c r="AK59" s="13">
-        <v>58810</v>
+        <v>53834</v>
       </c>
       <c r="AL59" s="13">
-        <v>32754</v>
+        <v>43127</v>
       </c>
       <c r="AM59" s="13">
-        <v>53834</v>
+        <v>24820</v>
       </c>
       <c r="AN59" s="13">
-        <v>43127</v>
+        <v>80408</v>
       </c>
       <c r="AO59" s="13">
-        <v>24820</v>
+        <v>28553</v>
       </c>
       <c r="AP59" s="13">
-        <v>80408</v>
-      </c>
-      <c r="AQ59" s="13">
-        <v>28553</v>
-      </c>
-      <c r="AR59" s="13">
         <v>37920</v>
       </c>
+      <c r="AQ59" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR59" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AS59" s="13" t="s">
         <v>61</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>64</v>
       </c>
@@ -7840,14 +7840,14 @@
       <c r="AE60" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AF60" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG60" s="11" t="s">
-        <v>61</v>
+      <c r="AF60" s="11">
+        <v>9745</v>
+      </c>
+      <c r="AG60" s="11">
+        <v>0</v>
       </c>
       <c r="AH60" s="11">
-        <v>9745</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="11">
         <v>0</v>
@@ -7856,29 +7856,29 @@
         <v>0</v>
       </c>
       <c r="AK60" s="11">
-        <v>0</v>
+        <v>2764</v>
       </c>
       <c r="AL60" s="11">
         <v>0</v>
       </c>
       <c r="AM60" s="11">
-        <v>2764</v>
+        <v>532</v>
       </c>
       <c r="AN60" s="11">
         <v>0</v>
       </c>
       <c r="AO60" s="11">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="AP60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="11">
         <v>5556</v>
       </c>
+      <c r="AQ60" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR60" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AS60" s="11" t="s">
         <v>61</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>66</v>
       </c>
@@ -7999,45 +7999,45 @@
       <c r="AE61" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF61" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG61" s="13" t="s">
-        <v>61</v>
+      <c r="AF61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="13">
+        <v>5171</v>
       </c>
       <c r="AH61" s="13">
-        <v>0</v>
+        <v>1682</v>
       </c>
       <c r="AI61" s="13">
-        <v>5171</v>
+        <v>8463</v>
       </c>
       <c r="AJ61" s="13">
-        <v>1682</v>
+        <v>29259</v>
       </c>
       <c r="AK61" s="13">
-        <v>8463</v>
+        <v>24297</v>
       </c>
       <c r="AL61" s="13">
-        <v>29259</v>
+        <v>8111</v>
       </c>
       <c r="AM61" s="13">
-        <v>24297</v>
+        <v>24943</v>
       </c>
       <c r="AN61" s="13">
-        <v>8111</v>
+        <v>12818</v>
       </c>
       <c r="AO61" s="13">
-        <v>24943</v>
+        <v>0</v>
       </c>
       <c r="AP61" s="13">
-        <v>12818</v>
-      </c>
-      <c r="AQ61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR61" s="13">
         <v>540</v>
       </c>
+      <c r="AQ61" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR61" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AS61" s="13" t="s">
         <v>61</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>67</v>
       </c>
@@ -8131,104 +8131,104 @@
       <c r="V62" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="W62" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="X62" s="15" t="s">
-        <v>61</v>
+      <c r="W62" s="15">
+        <v>31217</v>
+      </c>
+      <c r="X62" s="15">
+        <v>31114</v>
       </c>
       <c r="Y62" s="15">
-        <v>31217</v>
+        <v>46334</v>
       </c>
       <c r="Z62" s="15">
-        <v>31114</v>
+        <v>27796</v>
       </c>
       <c r="AA62" s="15">
-        <v>46334</v>
+        <v>69661</v>
       </c>
       <c r="AB62" s="15">
-        <v>27796</v>
+        <v>59118</v>
       </c>
       <c r="AC62" s="15">
-        <v>69661</v>
+        <v>39897</v>
       </c>
       <c r="AD62" s="15">
-        <v>59118</v>
+        <v>44555</v>
       </c>
       <c r="AE62" s="15">
-        <v>39897</v>
+        <v>49322</v>
       </c>
       <c r="AF62" s="15">
-        <v>44555</v>
+        <v>12090</v>
       </c>
       <c r="AG62" s="15">
-        <v>49322</v>
+        <v>5171</v>
       </c>
       <c r="AH62" s="15">
-        <v>12090</v>
+        <v>7409</v>
       </c>
       <c r="AI62" s="15">
-        <v>5171</v>
+        <v>67273</v>
       </c>
       <c r="AJ62" s="15">
-        <v>7409</v>
+        <v>62013</v>
       </c>
       <c r="AK62" s="15">
-        <v>67273</v>
+        <v>80895</v>
       </c>
       <c r="AL62" s="15">
-        <v>62013</v>
+        <v>51238</v>
       </c>
       <c r="AM62" s="15">
-        <v>80895</v>
+        <v>50295</v>
       </c>
       <c r="AN62" s="15">
-        <v>51238</v>
+        <v>93226</v>
       </c>
       <c r="AO62" s="15">
-        <v>50295</v>
+        <v>28553</v>
       </c>
       <c r="AP62" s="15">
-        <v>93226</v>
+        <v>44016</v>
       </c>
       <c r="AQ62" s="15">
-        <v>28553</v>
+        <v>106623</v>
       </c>
       <c r="AR62" s="15">
-        <v>44016</v>
+        <v>0</v>
       </c>
       <c r="AS62" s="15">
-        <v>106623</v>
+        <v>93422</v>
       </c>
       <c r="AT62" s="15">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="AU62" s="15">
-        <v>90784</v>
+        <v>18932</v>
       </c>
       <c r="AV62" s="15">
-        <v>776</v>
+        <v>49360</v>
       </c>
       <c r="AW62" s="15">
-        <v>18932</v>
+        <v>40006</v>
       </c>
       <c r="AX62" s="15">
-        <v>49360</v>
+        <v>24379</v>
       </c>
       <c r="AY62" s="15">
-        <v>40006</v>
+        <v>66717</v>
       </c>
       <c r="AZ62" s="15">
-        <v>24379</v>
+        <v>84545</v>
       </c>
       <c r="BA62" s="15">
-        <v>66717</v>
+        <v>69685</v>
       </c>
       <c r="BB62" s="15">
-        <v>84545</v>
+        <v>54901</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>75</v>
       </c>
@@ -8285,7 +8285,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>55</v>
       </c>
@@ -8347,104 +8347,104 @@
       <c r="V64" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W64" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X64" s="11" t="s">
-        <v>61</v>
+      <c r="W64" s="11">
+        <v>9031</v>
+      </c>
+      <c r="X64" s="11">
+        <v>-262</v>
       </c>
       <c r="Y64" s="11">
-        <v>9031</v>
+        <v>-50221</v>
       </c>
       <c r="Z64" s="11">
-        <v>-262</v>
+        <v>-413</v>
       </c>
       <c r="AA64" s="11">
-        <v>-50221</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="11">
-        <v>-413</v>
+        <v>-39274</v>
       </c>
       <c r="AC64" s="11">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AD64" s="11">
-        <v>-39274</v>
+        <v>-2103</v>
       </c>
       <c r="AE64" s="11">
-        <v>-4</v>
+        <v>-7315</v>
       </c>
       <c r="AF64" s="11">
-        <v>-2103</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="11">
-        <v>-7315</v>
+        <v>-1</v>
       </c>
       <c r="AH64" s="11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AI64" s="11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ64" s="11">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AK64" s="11">
-        <v>-2</v>
+        <v>-2105</v>
       </c>
       <c r="AL64" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AM64" s="11">
-        <v>-2105</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="11">
-        <v>-3</v>
+        <v>-3721</v>
       </c>
       <c r="AO64" s="11">
-        <v>0</v>
+        <v>-395</v>
       </c>
       <c r="AP64" s="11">
-        <v>-3721</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="11">
-        <v>-395</v>
+        <v>-950</v>
       </c>
       <c r="AR64" s="11">
-        <v>0</v>
+        <v>-5034</v>
       </c>
       <c r="AS64" s="11">
-        <v>-950</v>
+        <v>-21</v>
       </c>
       <c r="AT64" s="11">
-        <v>-5034</v>
+        <v>-92</v>
       </c>
       <c r="AU64" s="11">
-        <v>-21</v>
+        <v>-54</v>
       </c>
       <c r="AV64" s="11">
-        <v>-92</v>
+        <v>-14537</v>
       </c>
       <c r="AW64" s="11">
-        <v>-54</v>
+        <v>-71</v>
       </c>
       <c r="AX64" s="11">
-        <v>-14537</v>
+        <v>-9893</v>
       </c>
       <c r="AY64" s="11">
-        <v>-71</v>
+        <v>-58</v>
       </c>
       <c r="AZ64" s="11">
-        <v>-9893</v>
+        <v>-42</v>
       </c>
       <c r="BA64" s="11">
-        <v>-58</v>
+        <v>-48</v>
       </c>
       <c r="BB64" s="11">
-        <v>-42</v>
+        <v>-5876</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>57</v>
       </c>
@@ -8506,104 +8506,104 @@
       <c r="V65" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="W65" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X65" s="13" t="s">
-        <v>61</v>
+      <c r="W65" s="13">
+        <v>-57</v>
+      </c>
+      <c r="X65" s="13">
+        <v>-4120</v>
       </c>
       <c r="Y65" s="13">
-        <v>-57</v>
+        <v>-2165</v>
       </c>
       <c r="Z65" s="13">
-        <v>-4120</v>
+        <v>-12254</v>
       </c>
       <c r="AA65" s="13">
-        <v>-2165</v>
+        <v>-15975</v>
       </c>
       <c r="AB65" s="13">
-        <v>-12254</v>
+        <v>-49633</v>
       </c>
       <c r="AC65" s="13">
-        <v>-15975</v>
+        <v>-385</v>
       </c>
       <c r="AD65" s="13">
-        <v>-49633</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="13">
-        <v>-385</v>
+        <v>-34765</v>
       </c>
       <c r="AF65" s="13">
-        <v>0</v>
+        <v>-5160</v>
       </c>
       <c r="AG65" s="13">
-        <v>-34765</v>
+        <v>-2126</v>
       </c>
       <c r="AH65" s="13">
-        <v>-5160</v>
+        <v>-13444</v>
       </c>
       <c r="AI65" s="13">
-        <v>-2126</v>
+        <v>-17265</v>
       </c>
       <c r="AJ65" s="13">
-        <v>-13444</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="13">
-        <v>-17265</v>
+        <v>-5</v>
       </c>
       <c r="AL65" s="13">
-        <v>0</v>
+        <v>-1405</v>
       </c>
       <c r="AM65" s="13">
-        <v>-5</v>
+        <v>-878</v>
       </c>
       <c r="AN65" s="13">
-        <v>-1405</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="13">
-        <v>-878</v>
+        <v>-14200</v>
       </c>
       <c r="AP65" s="13">
-        <v>0</v>
+        <v>-31462</v>
       </c>
       <c r="AQ65" s="13">
-        <v>-14200</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="13">
-        <v>-31462</v>
+        <v>-7338</v>
       </c>
       <c r="AS65" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT65" s="13">
-        <v>-7338</v>
+        <v>-6721</v>
       </c>
       <c r="AU65" s="13">
-        <v>-2</v>
+        <v>-1414</v>
       </c>
       <c r="AV65" s="13">
-        <v>-6721</v>
+        <v>-373</v>
       </c>
       <c r="AW65" s="13">
-        <v>-1414</v>
+        <v>-4731</v>
       </c>
       <c r="AX65" s="13">
-        <v>-373</v>
+        <v>-10369</v>
       </c>
       <c r="AY65" s="13">
-        <v>-4731</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="13">
-        <v>-10369</v>
+        <v>-2471</v>
       </c>
       <c r="BA65" s="13">
-        <v>0</v>
+        <v>-32261</v>
       </c>
       <c r="BB65" s="13">
-        <v>-2471</v>
+        <v>-7129</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>59</v>
       </c>
@@ -8665,104 +8665,104 @@
       <c r="V66" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>61</v>
+      <c r="W66" s="11">
+        <v>-617</v>
+      </c>
+      <c r="X66" s="11">
+        <v>-286</v>
       </c>
       <c r="Y66" s="11">
-        <v>-617</v>
+        <v>-6696</v>
       </c>
       <c r="Z66" s="11">
-        <v>-286</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="11">
-        <v>-6696</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66" s="11">
-        <v>0</v>
+        <v>-2607</v>
       </c>
       <c r="AD66" s="11">
-        <v>-1</v>
+        <v>-45</v>
       </c>
       <c r="AE66" s="11">
-        <v>-2607</v>
+        <v>-2415</v>
       </c>
       <c r="AF66" s="11">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="11">
-        <v>-2415</v>
+        <v>-8</v>
       </c>
       <c r="AH66" s="11">
-        <v>0</v>
+        <v>-13287</v>
       </c>
       <c r="AI66" s="11">
-        <v>-8</v>
+        <v>-5434</v>
       </c>
       <c r="AJ66" s="11">
-        <v>-13287</v>
+        <v>0</v>
       </c>
       <c r="AK66" s="11">
-        <v>-5434</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="11">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AM66" s="11">
-        <v>0</v>
+        <v>-3847</v>
       </c>
       <c r="AN66" s="11">
-        <v>-15</v>
+        <v>-778</v>
       </c>
       <c r="AO66" s="11">
-        <v>-3847</v>
+        <v>-7165</v>
       </c>
       <c r="AP66" s="11">
-        <v>-778</v>
+        <v>-22108</v>
       </c>
       <c r="AQ66" s="11">
-        <v>-7165</v>
+        <v>-17347</v>
       </c>
       <c r="AR66" s="11">
-        <v>-22108</v>
+        <v>0</v>
       </c>
       <c r="AS66" s="11">
-        <v>-17347</v>
+        <v>-19830</v>
       </c>
       <c r="AT66" s="11">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AU66" s="11">
-        <v>-19830</v>
+        <v>-29379</v>
       </c>
       <c r="AV66" s="11">
-        <v>-4</v>
+        <v>-24161</v>
       </c>
       <c r="AW66" s="11">
-        <v>-29379</v>
+        <v>-66072</v>
       </c>
       <c r="AX66" s="11">
-        <v>-24161</v>
+        <v>-80</v>
       </c>
       <c r="AY66" s="11">
-        <v>-66072</v>
+        <v>-20123</v>
       </c>
       <c r="AZ66" s="11">
-        <v>-80</v>
+        <v>-18745</v>
       </c>
       <c r="BA66" s="11">
-        <v>-20123</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="11">
-        <v>-18745</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>71</v>
       </c>
@@ -8824,104 +8824,104 @@
       <c r="V67" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="W67" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="X67" s="17" t="s">
-        <v>61</v>
+      <c r="W67" s="17">
+        <v>8357</v>
+      </c>
+      <c r="X67" s="17">
+        <v>-4668</v>
       </c>
       <c r="Y67" s="17">
-        <v>8357</v>
+        <v>-59082</v>
       </c>
       <c r="Z67" s="17">
-        <v>-4668</v>
+        <v>-12667</v>
       </c>
       <c r="AA67" s="17">
-        <v>-59082</v>
+        <v>-15975</v>
       </c>
       <c r="AB67" s="17">
-        <v>-12667</v>
+        <v>-88908</v>
       </c>
       <c r="AC67" s="17">
-        <v>-15975</v>
+        <v>-2996</v>
       </c>
       <c r="AD67" s="17">
-        <v>-88908</v>
+        <v>-2148</v>
       </c>
       <c r="AE67" s="17">
-        <v>-2996</v>
+        <v>-44495</v>
       </c>
       <c r="AF67" s="17">
-        <v>-2148</v>
+        <v>-5160</v>
       </c>
       <c r="AG67" s="17">
-        <v>-44495</v>
+        <v>-2135</v>
       </c>
       <c r="AH67" s="17">
-        <v>-5160</v>
+        <v>-26736</v>
       </c>
       <c r="AI67" s="17">
-        <v>-2135</v>
+        <v>-22701</v>
       </c>
       <c r="AJ67" s="17">
-        <v>-26736</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="17">
-        <v>-22701</v>
+        <v>-2110</v>
       </c>
       <c r="AL67" s="17">
-        <v>0</v>
+        <v>-1423</v>
       </c>
       <c r="AM67" s="17">
-        <v>-2110</v>
+        <v>-4725</v>
       </c>
       <c r="AN67" s="17">
-        <v>-1423</v>
+        <v>-4499</v>
       </c>
       <c r="AO67" s="17">
-        <v>-4725</v>
+        <v>-21760</v>
       </c>
       <c r="AP67" s="17">
-        <v>-4499</v>
+        <v>-53570</v>
       </c>
       <c r="AQ67" s="17">
-        <v>-21760</v>
+        <v>-18297</v>
       </c>
       <c r="AR67" s="17">
-        <v>-53570</v>
+        <v>-12372</v>
       </c>
       <c r="AS67" s="17">
-        <v>-18297</v>
+        <v>-19853</v>
       </c>
       <c r="AT67" s="17">
-        <v>-12372</v>
+        <v>-6817</v>
       </c>
       <c r="AU67" s="17">
-        <v>-19853</v>
+        <v>-30847</v>
       </c>
       <c r="AV67" s="17">
-        <v>-6817</v>
+        <v>-39071</v>
       </c>
       <c r="AW67" s="17">
-        <v>-30847</v>
+        <v>-70874</v>
       </c>
       <c r="AX67" s="17">
-        <v>-39071</v>
+        <v>-20342</v>
       </c>
       <c r="AY67" s="17">
-        <v>-70874</v>
+        <v>-20181</v>
       </c>
       <c r="AZ67" s="17">
-        <v>-20342</v>
+        <v>-21258</v>
       </c>
       <c r="BA67" s="17">
-        <v>-20181</v>
+        <v>-32309</v>
       </c>
       <c r="BB67" s="17">
-        <v>-21258</v>
+        <v>-13005</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>76</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>77</v>
       </c>
@@ -9040,38 +9040,38 @@
       <c r="V69" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>61</v>
+      <c r="W69" s="11">
+        <v>-928</v>
+      </c>
+      <c r="X69" s="11">
+        <v>-1351</v>
       </c>
       <c r="Y69" s="11">
-        <v>-928</v>
+        <v>-522</v>
       </c>
       <c r="Z69" s="11">
-        <v>-1351</v>
+        <v>-396</v>
       </c>
       <c r="AA69" s="11">
-        <v>-522</v>
+        <v>-399</v>
       </c>
       <c r="AB69" s="11">
-        <v>-396</v>
+        <v>-907</v>
       </c>
       <c r="AC69" s="11">
-        <v>-399</v>
+        <v>-295</v>
       </c>
       <c r="AD69" s="11">
-        <v>-907</v>
+        <v>-819</v>
       </c>
       <c r="AE69" s="11">
-        <v>-295</v>
+        <v>-21305</v>
       </c>
       <c r="AF69" s="11">
-        <v>-819</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="11">
-        <v>-21305</v>
+        <v>0</v>
       </c>
       <c r="AH69" s="11">
         <v>0</v>
@@ -9137,164 +9137,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17">
-        <v>410636</v>
+        <v>463552</v>
       </c>
       <c r="F70" s="17">
-        <v>500210</v>
+        <v>553819</v>
       </c>
       <c r="G70" s="17">
-        <v>463552</v>
+        <v>477111</v>
       </c>
       <c r="H70" s="17">
-        <v>553819</v>
+        <v>296257</v>
       </c>
       <c r="I70" s="17">
-        <v>477111</v>
+        <v>628424</v>
       </c>
       <c r="J70" s="17">
-        <v>296257</v>
+        <v>644213</v>
       </c>
       <c r="K70" s="17">
-        <v>628424</v>
+        <v>739795</v>
       </c>
       <c r="L70" s="17">
-        <v>644213</v>
+        <v>526517</v>
       </c>
       <c r="M70" s="17">
-        <v>739795</v>
+        <v>706923</v>
       </c>
       <c r="N70" s="17">
-        <v>526517</v>
+        <v>720100</v>
       </c>
       <c r="O70" s="17">
-        <v>706923</v>
+        <v>636065</v>
       </c>
       <c r="P70" s="17">
-        <v>720100</v>
+        <v>759071</v>
       </c>
       <c r="Q70" s="17">
-        <v>636065</v>
+        <v>700922</v>
       </c>
       <c r="R70" s="17">
-        <v>759071</v>
+        <v>620721</v>
       </c>
       <c r="S70" s="17">
-        <v>700922</v>
+        <v>386434</v>
       </c>
       <c r="T70" s="17">
-        <v>620721</v>
+        <v>423413</v>
       </c>
       <c r="U70" s="17">
-        <v>386434</v>
+        <v>678338</v>
       </c>
       <c r="V70" s="17">
-        <v>423413</v>
+        <v>560429</v>
       </c>
       <c r="W70" s="17">
-        <v>678338</v>
+        <v>785645</v>
       </c>
       <c r="X70" s="17">
-        <v>560429</v>
+        <v>735452</v>
       </c>
       <c r="Y70" s="17">
-        <v>785645</v>
+        <v>897204</v>
       </c>
       <c r="Z70" s="17">
-        <v>735452</v>
+        <v>752864</v>
       </c>
       <c r="AA70" s="17">
-        <v>897204</v>
+        <v>715714</v>
       </c>
       <c r="AB70" s="17">
-        <v>752864</v>
+        <v>802969</v>
       </c>
       <c r="AC70" s="17">
-        <v>715714</v>
+        <v>867024</v>
       </c>
       <c r="AD70" s="17">
-        <v>802969</v>
+        <v>1034432</v>
       </c>
       <c r="AE70" s="17">
-        <v>867024</v>
+        <v>715745</v>
       </c>
       <c r="AF70" s="17">
-        <v>1034432</v>
+        <v>601997</v>
       </c>
       <c r="AG70" s="17">
-        <v>715745</v>
+        <v>1104998</v>
       </c>
       <c r="AH70" s="17">
-        <v>601997</v>
+        <v>1146831</v>
       </c>
       <c r="AI70" s="17">
-        <v>1104998</v>
+        <v>1150863</v>
       </c>
       <c r="AJ70" s="17">
-        <v>1146831</v>
+        <v>936978</v>
       </c>
       <c r="AK70" s="17">
-        <v>1150863</v>
+        <v>1426994</v>
       </c>
       <c r="AL70" s="17">
-        <v>936978</v>
+        <v>1285647</v>
       </c>
       <c r="AM70" s="17">
-        <v>1426994</v>
+        <v>1189205</v>
       </c>
       <c r="AN70" s="17">
-        <v>1285647</v>
+        <v>1301830</v>
       </c>
       <c r="AO70" s="17">
-        <v>1189205</v>
+        <v>1324704</v>
       </c>
       <c r="AP70" s="17">
-        <v>1301830</v>
+        <v>1955783</v>
       </c>
       <c r="AQ70" s="17">
-        <v>1324704</v>
+        <v>1114744</v>
       </c>
       <c r="AR70" s="17">
-        <v>1955783</v>
+        <v>1094786</v>
       </c>
       <c r="AS70" s="17">
-        <v>1114744</v>
+        <v>1729878</v>
       </c>
       <c r="AT70" s="17">
-        <v>1094786</v>
+        <v>1883371</v>
       </c>
       <c r="AU70" s="17">
-        <v>1729878</v>
+        <v>1982163</v>
       </c>
       <c r="AV70" s="17">
-        <v>1883371</v>
+        <v>1748960</v>
       </c>
       <c r="AW70" s="17">
-        <v>1982163</v>
+        <v>2107940</v>
       </c>
       <c r="AX70" s="17">
-        <v>1748907</v>
+        <v>1820883</v>
       </c>
       <c r="AY70" s="17">
-        <v>2107940</v>
+        <v>2330466</v>
       </c>
       <c r="AZ70" s="17">
-        <v>1820883</v>
+        <v>2455594</v>
       </c>
       <c r="BA70" s="17">
-        <v>2330466</v>
+        <v>2410470</v>
       </c>
       <c r="BB70" s="17">
-        <v>2455594</v>
+        <v>2760896</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9349,7 +9349,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9404,7 +9404,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9459,7 +9459,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>78</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9671,7 +9671,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>79</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
@@ -9737,157 +9737,157 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>30648</v>
+        <v>35277</v>
       </c>
       <c r="F77" s="11">
-        <v>27834</v>
+        <v>38952</v>
       </c>
       <c r="G77" s="11">
-        <v>35277</v>
+        <v>35474</v>
       </c>
       <c r="H77" s="11">
-        <v>38952</v>
+        <v>43629</v>
       </c>
       <c r="I77" s="11">
-        <v>35474</v>
+        <v>42305</v>
       </c>
       <c r="J77" s="11">
-        <v>43629</v>
+        <v>47771</v>
       </c>
       <c r="K77" s="11">
-        <v>42305</v>
+        <v>50953</v>
       </c>
       <c r="L77" s="11">
-        <v>47771</v>
+        <v>40132</v>
       </c>
       <c r="M77" s="11">
-        <v>50953</v>
+        <v>43565</v>
       </c>
       <c r="N77" s="11">
-        <v>40132</v>
+        <v>42802</v>
       </c>
       <c r="O77" s="11">
-        <v>43565</v>
+        <v>44976</v>
       </c>
       <c r="P77" s="11">
-        <v>42802</v>
+        <v>47648</v>
       </c>
       <c r="Q77" s="11">
-        <v>44976</v>
+        <v>46281</v>
       </c>
       <c r="R77" s="11">
-        <v>47648</v>
+        <v>46739</v>
       </c>
       <c r="S77" s="11">
-        <v>46281</v>
+        <v>45014</v>
       </c>
       <c r="T77" s="11">
-        <v>46739</v>
+        <v>82954</v>
       </c>
       <c r="U77" s="11">
-        <v>45014</v>
+        <v>59589</v>
       </c>
       <c r="V77" s="11">
-        <v>82954</v>
+        <v>51364</v>
       </c>
       <c r="W77" s="11">
-        <v>59589</v>
+        <v>50709</v>
       </c>
       <c r="X77" s="11">
-        <v>51364</v>
+        <v>53422</v>
       </c>
       <c r="Y77" s="11">
-        <v>50709</v>
+        <v>114595</v>
       </c>
       <c r="Z77" s="11">
-        <v>53422</v>
+        <v>86414</v>
       </c>
       <c r="AA77" s="11">
-        <v>114595</v>
+        <v>102119</v>
       </c>
       <c r="AB77" s="11">
-        <v>86414</v>
+        <v>109090</v>
       </c>
       <c r="AC77" s="11">
-        <v>102119</v>
+        <v>121326</v>
       </c>
       <c r="AD77" s="11">
-        <v>109090</v>
+        <v>131139</v>
       </c>
       <c r="AE77" s="11">
-        <v>121326</v>
+        <v>110306</v>
       </c>
       <c r="AF77" s="11">
-        <v>131139</v>
+        <v>133604</v>
       </c>
       <c r="AG77" s="11">
-        <v>110306</v>
+        <v>114660</v>
       </c>
       <c r="AH77" s="11">
-        <v>133604</v>
+        <v>106081</v>
       </c>
       <c r="AI77" s="11">
-        <v>114660</v>
+        <v>116774</v>
       </c>
       <c r="AJ77" s="11">
-        <v>106081</v>
+        <v>90740</v>
       </c>
       <c r="AK77" s="11">
-        <v>116774</v>
+        <v>109298</v>
       </c>
       <c r="AL77" s="11">
-        <v>90740</v>
+        <v>102030</v>
       </c>
       <c r="AM77" s="11">
-        <v>109298</v>
+        <v>89458</v>
       </c>
       <c r="AN77" s="11">
-        <v>102030</v>
+        <v>90586</v>
       </c>
       <c r="AO77" s="11">
-        <v>89458</v>
+        <v>106843</v>
       </c>
       <c r="AP77" s="11">
-        <v>90586</v>
+        <v>106124</v>
       </c>
       <c r="AQ77" s="11">
-        <v>106843</v>
+        <v>69412</v>
       </c>
       <c r="AR77" s="11">
-        <v>106124</v>
+        <v>115470</v>
       </c>
       <c r="AS77" s="11">
-        <v>69412</v>
+        <v>92906</v>
       </c>
       <c r="AT77" s="11">
-        <v>115470</v>
+        <v>98395</v>
       </c>
       <c r="AU77" s="11">
-        <v>92918</v>
+        <v>101887</v>
       </c>
       <c r="AV77" s="11">
-        <v>98395</v>
+        <v>110427</v>
       </c>
       <c r="AW77" s="11">
-        <v>101887</v>
+        <v>112588</v>
       </c>
       <c r="AX77" s="11">
-        <v>110427</v>
+        <v>121261</v>
       </c>
       <c r="AY77" s="11">
-        <v>112588</v>
+        <v>133862</v>
       </c>
       <c r="AZ77" s="11">
-        <v>121261</v>
+        <v>142532</v>
       </c>
       <c r="BA77" s="11">
-        <v>133862</v>
+        <v>140478</v>
       </c>
       <c r="BB77" s="11">
-        <v>142532</v>
+        <v>168392</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>57</v>
       </c>
@@ -9896,157 +9896,157 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>114235</v>
+        <v>117405</v>
       </c>
       <c r="F78" s="13">
-        <v>164589</v>
+        <v>115369</v>
       </c>
       <c r="G78" s="13">
-        <v>117405</v>
+        <v>137017</v>
       </c>
       <c r="H78" s="13">
-        <v>115369</v>
+        <v>163358</v>
       </c>
       <c r="I78" s="13">
-        <v>137017</v>
+        <v>136269</v>
       </c>
       <c r="J78" s="13">
-        <v>163358</v>
+        <v>133777</v>
       </c>
       <c r="K78" s="13">
-        <v>136269</v>
+        <v>208085</v>
       </c>
       <c r="L78" s="13">
-        <v>133777</v>
+        <v>142414</v>
       </c>
       <c r="M78" s="13">
-        <v>208085</v>
+        <v>123466</v>
       </c>
       <c r="N78" s="13">
-        <v>142414</v>
+        <v>318967</v>
       </c>
       <c r="O78" s="13">
-        <v>123466</v>
+        <v>167558</v>
       </c>
       <c r="P78" s="13">
-        <v>318967</v>
+        <v>155068</v>
       </c>
       <c r="Q78" s="13">
-        <v>167558</v>
+        <v>187897</v>
       </c>
       <c r="R78" s="13">
-        <v>155068</v>
+        <v>175162</v>
       </c>
       <c r="S78" s="13">
-        <v>187897</v>
+        <v>119672</v>
       </c>
       <c r="T78" s="13">
-        <v>175162</v>
+        <v>265045</v>
       </c>
       <c r="U78" s="13">
-        <v>119672</v>
+        <v>173376</v>
       </c>
       <c r="V78" s="13">
-        <v>265045</v>
+        <v>127191</v>
       </c>
       <c r="W78" s="13">
-        <v>173376</v>
+        <v>146197</v>
       </c>
       <c r="X78" s="13">
-        <v>127191</v>
+        <v>145637</v>
       </c>
       <c r="Y78" s="13">
-        <v>146197</v>
+        <v>242945</v>
       </c>
       <c r="Z78" s="13">
-        <v>145637</v>
+        <v>154534</v>
       </c>
       <c r="AA78" s="13">
-        <v>242945</v>
+        <v>228867</v>
       </c>
       <c r="AB78" s="13">
-        <v>154534</v>
+        <v>185730</v>
       </c>
       <c r="AC78" s="13">
-        <v>228867</v>
+        <v>180110</v>
       </c>
       <c r="AD78" s="13">
-        <v>185730</v>
+        <v>292009</v>
       </c>
       <c r="AE78" s="13">
-        <v>180110</v>
+        <v>69514</v>
       </c>
       <c r="AF78" s="13">
-        <v>292009</v>
+        <v>257522</v>
       </c>
       <c r="AG78" s="13">
-        <v>69514</v>
+        <v>208034</v>
       </c>
       <c r="AH78" s="13">
-        <v>257522</v>
+        <v>202732</v>
       </c>
       <c r="AI78" s="13">
-        <v>208034</v>
+        <v>243231</v>
       </c>
       <c r="AJ78" s="13">
-        <v>202732</v>
+        <v>217766</v>
       </c>
       <c r="AK78" s="13">
-        <v>243231</v>
+        <v>245679</v>
       </c>
       <c r="AL78" s="13">
-        <v>217766</v>
+        <v>409640</v>
       </c>
       <c r="AM78" s="13">
-        <v>245679</v>
+        <v>231844</v>
       </c>
       <c r="AN78" s="13">
-        <v>409640</v>
+        <v>298218</v>
       </c>
       <c r="AO78" s="13">
-        <v>231844</v>
+        <v>252766</v>
       </c>
       <c r="AP78" s="13">
-        <v>298218</v>
+        <v>325268</v>
       </c>
       <c r="AQ78" s="13">
-        <v>252766</v>
+        <v>182331</v>
       </c>
       <c r="AR78" s="13">
-        <v>325268</v>
+        <v>290345</v>
       </c>
       <c r="AS78" s="13">
-        <v>182331</v>
+        <v>223109</v>
       </c>
       <c r="AT78" s="13">
-        <v>290345</v>
+        <v>227011</v>
       </c>
       <c r="AU78" s="13">
-        <v>223140</v>
+        <v>248207</v>
       </c>
       <c r="AV78" s="13">
-        <v>227011</v>
+        <v>271609</v>
       </c>
       <c r="AW78" s="13">
-        <v>248207</v>
+        <v>259085</v>
       </c>
       <c r="AX78" s="13">
-        <v>271612</v>
+        <v>301750</v>
       </c>
       <c r="AY78" s="13">
-        <v>259085</v>
+        <v>361947</v>
       </c>
       <c r="AZ78" s="13">
-        <v>301750</v>
+        <v>1000000</v>
       </c>
       <c r="BA78" s="13">
-        <v>361947</v>
+        <v>277583</v>
       </c>
       <c r="BB78" s="13">
-        <v>1000000</v>
+        <v>441811</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>59</v>
       </c>
@@ -10055,157 +10055,157 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>1868585</v>
+        <v>2837460</v>
       </c>
       <c r="F79" s="11">
-        <v>3829360</v>
+        <v>2888881</v>
       </c>
       <c r="G79" s="11">
-        <v>2837460</v>
+        <v>2599657</v>
       </c>
       <c r="H79" s="11">
-        <v>2888881</v>
+        <v>4296724</v>
       </c>
       <c r="I79" s="11">
-        <v>2599657</v>
+        <v>4096493</v>
       </c>
       <c r="J79" s="11">
-        <v>4296724</v>
+        <v>2655472</v>
       </c>
       <c r="K79" s="11">
-        <v>4096493</v>
+        <v>3376008</v>
       </c>
       <c r="L79" s="11">
-        <v>2655472</v>
+        <v>2721415</v>
       </c>
       <c r="M79" s="11">
-        <v>3376008</v>
+        <v>3115902</v>
       </c>
       <c r="N79" s="11">
-        <v>2721415</v>
+        <v>3344187</v>
       </c>
       <c r="O79" s="11">
-        <v>3115902</v>
+        <v>2648196</v>
       </c>
       <c r="P79" s="11">
-        <v>3344187</v>
+        <v>2650966</v>
       </c>
       <c r="Q79" s="11">
-        <v>2648196</v>
+        <v>3280242</v>
       </c>
       <c r="R79" s="11">
-        <v>2650966</v>
+        <v>2724537</v>
       </c>
       <c r="S79" s="11">
-        <v>3280242</v>
+        <v>2678787</v>
       </c>
       <c r="T79" s="11">
-        <v>2724537</v>
+        <v>4035156</v>
       </c>
       <c r="U79" s="11">
-        <v>2678787</v>
+        <v>3012199</v>
       </c>
       <c r="V79" s="11">
-        <v>4035156</v>
+        <v>2033365</v>
       </c>
       <c r="W79" s="11">
-        <v>3012199</v>
+        <v>1112244</v>
       </c>
       <c r="X79" s="11">
-        <v>2033365</v>
+        <v>3080862</v>
       </c>
       <c r="Y79" s="11">
-        <v>1112244</v>
+        <v>3561338</v>
       </c>
       <c r="Z79" s="11">
-        <v>3080862</v>
+        <v>2059593</v>
       </c>
       <c r="AA79" s="11">
-        <v>3561338</v>
+        <v>2037557</v>
       </c>
       <c r="AB79" s="11">
-        <v>2059593</v>
+        <v>2624446</v>
       </c>
       <c r="AC79" s="11">
-        <v>2037557</v>
+        <v>4211971</v>
       </c>
       <c r="AD79" s="11">
-        <v>2624446</v>
+        <v>4995359</v>
       </c>
       <c r="AE79" s="11">
-        <v>4211971</v>
+        <v>15108669</v>
       </c>
       <c r="AF79" s="11">
-        <v>4995359</v>
+        <v>4257678</v>
       </c>
       <c r="AG79" s="11">
-        <v>15108669</v>
+        <v>5548104</v>
       </c>
       <c r="AH79" s="11">
-        <v>4257678</v>
+        <v>6688066</v>
       </c>
       <c r="AI79" s="11">
-        <v>5548104</v>
+        <v>8249394</v>
       </c>
       <c r="AJ79" s="11">
-        <v>6688066</v>
+        <v>5594260</v>
       </c>
       <c r="AK79" s="11">
-        <v>8249394</v>
+        <v>16582635</v>
       </c>
       <c r="AL79" s="11">
-        <v>5594260</v>
+        <v>6449232</v>
       </c>
       <c r="AM79" s="11">
-        <v>16582635</v>
+        <v>11168694</v>
       </c>
       <c r="AN79" s="11">
-        <v>6449232</v>
+        <v>11472060</v>
       </c>
       <c r="AO79" s="11">
-        <v>11168694</v>
+        <v>17859296</v>
       </c>
       <c r="AP79" s="11">
-        <v>11472060</v>
+        <v>15068657</v>
       </c>
       <c r="AQ79" s="11">
-        <v>17859296</v>
+        <v>6206195</v>
       </c>
       <c r="AR79" s="11">
-        <v>15068657</v>
+        <v>34010895</v>
       </c>
       <c r="AS79" s="11">
-        <v>6206195</v>
+        <v>10356954</v>
       </c>
       <c r="AT79" s="11">
-        <v>34010895</v>
+        <v>11597823</v>
       </c>
       <c r="AU79" s="11">
-        <v>10380730</v>
+        <v>9330949</v>
       </c>
       <c r="AV79" s="11">
-        <v>11597823</v>
+        <v>6732534</v>
       </c>
       <c r="AW79" s="11">
-        <v>9330949</v>
+        <v>11812361</v>
       </c>
       <c r="AX79" s="11">
-        <v>6732705</v>
+        <v>8501701</v>
       </c>
       <c r="AY79" s="11">
-        <v>11812361</v>
+        <v>11865318</v>
       </c>
       <c r="AZ79" s="11">
-        <v>8501701</v>
+        <v>12143829</v>
       </c>
       <c r="BA79" s="11">
-        <v>11865318</v>
+        <v>9160484</v>
       </c>
       <c r="BB79" s="11">
-        <v>12143829</v>
+        <v>10882581</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
@@ -10262,7 +10262,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>55</v>
       </c>
@@ -10324,38 +10324,38 @@
       <c r="V81" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>61</v>
+      <c r="W81" s="11">
+        <v>26663</v>
+      </c>
+      <c r="X81" s="11">
+        <v>36328</v>
       </c>
       <c r="Y81" s="11">
-        <v>26663</v>
+        <v>35307</v>
       </c>
       <c r="Z81" s="11">
-        <v>36328</v>
+        <v>36300</v>
       </c>
       <c r="AA81" s="11">
-        <v>35307</v>
+        <v>36352</v>
       </c>
       <c r="AB81" s="11">
         <v>36300</v>
       </c>
       <c r="AC81" s="11">
-        <v>36352</v>
+        <v>36380</v>
       </c>
       <c r="AD81" s="11">
+        <v>36417</v>
+      </c>
+      <c r="AE81" s="11">
         <v>36300</v>
       </c>
-      <c r="AE81" s="11">
-        <v>36380</v>
-      </c>
-      <c r="AF81" s="11">
-        <v>36417</v>
-      </c>
-      <c r="AG81" s="11">
-        <v>36300</v>
+      <c r="AF81" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG81" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AH81" s="11" t="s">
         <v>61</v>
@@ -10384,44 +10384,44 @@
       <c r="AP81" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AQ81" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR81" s="11" t="s">
-        <v>61</v>
+      <c r="AQ81" s="11">
+        <v>63846</v>
+      </c>
+      <c r="AR81" s="11">
+        <v>0</v>
       </c>
       <c r="AS81" s="11">
-        <v>63846</v>
+        <v>73458</v>
       </c>
       <c r="AT81" s="11">
-        <v>0</v>
+        <v>80016</v>
       </c>
       <c r="AU81" s="11">
-        <v>74353</v>
+        <v>75456</v>
       </c>
       <c r="AV81" s="11">
-        <v>80016</v>
+        <v>78449</v>
       </c>
       <c r="AW81" s="11">
-        <v>75456</v>
+        <v>82413</v>
       </c>
       <c r="AX81" s="11">
-        <v>78449</v>
+        <v>79999</v>
       </c>
       <c r="AY81" s="11">
-        <v>82413</v>
+        <v>80084</v>
       </c>
       <c r="AZ81" s="11">
+        <v>85455</v>
+      </c>
+      <c r="BA81" s="11">
+        <v>80000</v>
+      </c>
+      <c r="BB81" s="11">
         <v>79999</v>
       </c>
-      <c r="BA81" s="11">
-        <v>80084</v>
-      </c>
-      <c r="BB81" s="11">
-        <v>85455</v>
-      </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>57</v>
       </c>
@@ -10483,39 +10483,39 @@
       <c r="V82" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>61</v>
+      <c r="W82" s="13">
+        <v>0</v>
+      </c>
+      <c r="X82" s="13">
+        <v>66246</v>
       </c>
       <c r="Y82" s="13">
-        <v>0</v>
+        <v>43233</v>
       </c>
       <c r="Z82" s="13">
-        <v>66246</v>
+        <v>43067</v>
       </c>
       <c r="AA82" s="13">
-        <v>43233</v>
+        <v>0</v>
       </c>
       <c r="AB82" s="13">
-        <v>43067</v>
+        <v>100050</v>
       </c>
       <c r="AC82" s="13">
-        <v>0</v>
+        <v>94996</v>
       </c>
       <c r="AD82" s="13">
-        <v>100050</v>
+        <v>0</v>
       </c>
       <c r="AE82" s="13">
-        <v>94996</v>
-      </c>
-      <c r="AF82" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="13">
         <v>1000000</v>
       </c>
+      <c r="AF82" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG82" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AH82" s="13" t="s">
         <v>61</v>
       </c>
@@ -10543,14 +10543,14 @@
       <c r="AP82" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AQ82" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR82" s="13" t="s">
-        <v>61</v>
+      <c r="AQ82" s="13">
+        <v>109658</v>
+      </c>
+      <c r="AR82" s="13">
+        <v>0</v>
       </c>
       <c r="AS82" s="13">
-        <v>109658</v>
+        <v>0</v>
       </c>
       <c r="AT82" s="13">
         <v>0</v>
@@ -10574,13 +10574,13 @@
         <v>0</v>
       </c>
       <c r="BA82" s="13">
-        <v>0</v>
+        <v>203658</v>
       </c>
       <c r="BB82" s="13">
-        <v>0</v>
+        <v>199995</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>59</v>
       </c>
@@ -10642,11 +10642,11 @@
       <c r="V83" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>61</v>
+      <c r="W83" s="11">
+        <v>0</v>
+      </c>
+      <c r="X83" s="11">
+        <v>0</v>
       </c>
       <c r="Y83" s="11">
         <v>0</v>
@@ -10655,67 +10655,67 @@
         <v>0</v>
       </c>
       <c r="AA83" s="11">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AB83" s="11">
-        <v>0</v>
+        <v>3250284</v>
       </c>
       <c r="AC83" s="11">
+        <v>2998994</v>
+      </c>
+      <c r="AD83" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="11">
+        <v>469053</v>
+      </c>
+      <c r="AF83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP83" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ83" s="11">
         <v>3000000</v>
       </c>
-      <c r="AD83" s="11">
-        <v>3250284</v>
-      </c>
-      <c r="AE83" s="11">
-        <v>2998994</v>
-      </c>
-      <c r="AF83" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="11">
-        <v>469053</v>
-      </c>
-      <c r="AH83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ83" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR83" s="11" t="s">
-        <v>61</v>
+      <c r="AR83" s="11">
+        <v>0</v>
       </c>
       <c r="AS83" s="11">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="AT83" s="11">
         <v>0</v>
       </c>
       <c r="AU83" s="11">
-        <v>9995365</v>
+        <v>0</v>
       </c>
       <c r="AV83" s="11">
         <v>0</v>
@@ -10727,19 +10727,19 @@
         <v>0</v>
       </c>
       <c r="AY83" s="11">
-        <v>0</v>
+        <v>3185047</v>
       </c>
       <c r="AZ83" s="11">
         <v>0</v>
       </c>
       <c r="BA83" s="11">
-        <v>3185047</v>
+        <v>0</v>
       </c>
       <c r="BB83" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>62</v>
       </c>
@@ -10828,45 +10828,45 @@
       <c r="AE84" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF84" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG84" s="13" t="s">
-        <v>61</v>
+      <c r="AF84" s="13">
+        <v>28999</v>
+      </c>
+      <c r="AG84" s="13">
+        <v>0</v>
       </c>
       <c r="AH84" s="13">
-        <v>28999</v>
+        <v>69999</v>
       </c>
       <c r="AI84" s="13">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="AJ84" s="13">
         <v>69999</v>
       </c>
       <c r="AK84" s="13">
-        <v>70000</v>
+        <v>66033</v>
       </c>
       <c r="AL84" s="13">
         <v>69999</v>
       </c>
       <c r="AM84" s="13">
-        <v>66033</v>
+        <v>67815</v>
       </c>
       <c r="AN84" s="13">
-        <v>69999</v>
+        <v>69408</v>
       </c>
       <c r="AO84" s="13">
-        <v>67815</v>
+        <v>64591</v>
       </c>
       <c r="AP84" s="13">
-        <v>69408</v>
-      </c>
-      <c r="AQ84" s="13">
-        <v>64591</v>
-      </c>
-      <c r="AR84" s="13">
         <v>67147</v>
       </c>
+      <c r="AQ84" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR84" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="AS84" s="13" t="s">
         <v>61</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>64</v>
       </c>
@@ -10987,14 +10987,14 @@
       <c r="AE85" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AF85" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG85" s="11" t="s">
-        <v>61</v>
+      <c r="AF85" s="11">
+        <v>4018557</v>
+      </c>
+      <c r="AG85" s="11">
+        <v>0</v>
       </c>
       <c r="AH85" s="11">
-        <v>4018557</v>
+        <v>0</v>
       </c>
       <c r="AI85" s="11">
         <v>0</v>
@@ -11003,29 +11003,29 @@
         <v>0</v>
       </c>
       <c r="AK85" s="11">
-        <v>0</v>
+        <v>10014493</v>
       </c>
       <c r="AL85" s="11">
         <v>0</v>
       </c>
       <c r="AM85" s="11">
-        <v>10014493</v>
+        <v>4222222</v>
       </c>
       <c r="AN85" s="11">
         <v>0</v>
       </c>
       <c r="AO85" s="11">
-        <v>4222222</v>
+        <v>0</v>
       </c>
       <c r="AP85" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ85" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR85" s="11">
         <v>17980583</v>
       </c>
+      <c r="AQ85" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR85" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AS85" s="11" t="s">
         <v>61</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>66</v>
       </c>
@@ -11146,44 +11146,44 @@
       <c r="AE86" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF86" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG86" s="13" t="s">
-        <v>61</v>
+      <c r="AF86" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="13">
+        <v>43239</v>
       </c>
       <c r="AH86" s="13">
-        <v>0</v>
+        <v>20229</v>
       </c>
       <c r="AI86" s="13">
-        <v>43239</v>
+        <v>43236</v>
       </c>
       <c r="AJ86" s="13">
-        <v>20229</v>
+        <v>113439</v>
       </c>
       <c r="AK86" s="13">
-        <v>43236</v>
+        <v>108002</v>
       </c>
       <c r="AL86" s="13">
-        <v>113439</v>
+        <v>108000</v>
       </c>
       <c r="AM86" s="13">
-        <v>108002</v>
+        <v>118905</v>
       </c>
       <c r="AN86" s="13">
+        <v>67613</v>
+      </c>
+      <c r="AO86" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP86" s="13">
         <v>108000</v>
       </c>
-      <c r="AO86" s="13">
-        <v>118905</v>
-      </c>
-      <c r="AP86" s="13">
-        <v>67613</v>
-      </c>
-      <c r="AQ86" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR86" s="13">
-        <v>108000</v>
+      <c r="AQ86" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR86" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="AS86" s="13" t="s">
         <v>61</v>
